--- a/data/20251229_LSP管理.xlsx
+++ b/data/20251229_LSP管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiraizumitatsuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DAB657-FB98-4E0E-8205-6A9A0111329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99D58D5-A89A-4744-862A-99714AE1D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイル管理" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="258">
   <si>
     <t>日付</t>
   </si>
@@ -534,7 +534,7 @@
     <t>ライフスタイルサービス</t>
   </si>
   <si>
-    <t>JALカード利用</t>
+    <t>JAL Wellness &amp; Travel利用</t>
   </si>
   <si>
     <t>航空</t>
@@ -543,10 +543,10 @@
     <t>JAL国内線利用</t>
   </si>
   <si>
-    <t>JALマイレージパーク利用</t>
+    <t>JALカード利用</t>
   </si>
   <si>
-    <t>JAL Wellness &amp; Travel利用</t>
+    <t>JALマイレージパーク利用</t>
   </si>
   <si>
     <t>JMB eliteチャレンジ（カード）</t>
@@ -1969,10 +1969,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>56341</c:v>
+                  <c:v>64150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20048</c:v>
+                  <c:v>32672</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5000</c:v>
@@ -1981,10 +1981,10 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3743</c:v>
+                  <c:v>4334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8235,6 +8235,15 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="106"/>
+                <c:pt idx="22">
+                  <c:v>46037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46034</c:v>
+                </c:pt>
                 <c:pt idx="25">
                   <c:v>46033</c:v>
                 </c:pt>
@@ -8482,79 +8491,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="0">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>711</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>711</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>711</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>711</c:v>
@@ -9251,7 +9260,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>520</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70</c:v>
@@ -9263,7 +9272,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -13842,6 +13851,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3FCDC422-27B5-482E-BFE7-6645FF3F845A}" name="テーブル4" displayName="テーブル4" ref="A1:M279" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M279" xr:uid="{3FCDC422-27B5-482E-BFE7-6645FF3F845A}">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <dateGroupItem year="2026" month="1" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters blank="1"/>
     </filterColumn>
@@ -14152,11 +14166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57836D-5153-486D-8B76-48FAFDDE1EA1}">
-  <dimension ref="A1:O347"/>
+  <dimension ref="A1:O352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B328" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I327" sqref="I327"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B333" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A352" sqref="A352"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -14556,7 +14570,7 @@
       </c>
       <c r="O12" s="11">
         <f>SUMIFS(H2:H30000, B2:B30000, "*JL*")+SUMIFS(H11:H30000, B11:B30000, "*NU*")</f>
-        <v>56341</v>
+        <v>64150</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -14578,7 +14592,7 @@
       </c>
       <c r="O13">
         <f>SUMIFS(H11:H30000, B11:B30000, "*ＣｌｕｂＱ*")</f>
-        <v>20048</v>
+        <v>32672</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1">
@@ -14728,7 +14742,7 @@
       </c>
       <c r="O16">
         <f>SUMIFS(H11:H30000, B11:B30000, "*ＷＥＬＬＮＥＳＳ*")</f>
-        <v>3743</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -14778,7 +14792,7 @@
       </c>
       <c r="O17">
         <f>SUMIFS(H11:H30000, B11:B30000, "*ＪＭＢアプリ*")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1">
@@ -14970,7 +14984,7 @@
       <c r="N21" s="32"/>
       <c r="O21">
         <f>SUM(O12:O18)</f>
-        <v>59157</v>
+        <v>80183</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -27557,97 +27571,325 @@
         <v>84</v>
       </c>
     </row>
+    <row r="348" spans="1:13">
+      <c r="A348" s="28">
+        <v>46035</v>
+      </c>
+      <c r="B348" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C348" s="75"/>
+      <c r="D348" s="75"/>
+      <c r="E348" s="76"/>
+      <c r="F348" s="4">
+        <v>12624</v>
+      </c>
+      <c r="G348" s="73">
+        <v>0</v>
+      </c>
+      <c r="H348" s="4">
+        <v>12624</v>
+      </c>
+      <c r="I348" s="31">
+        <v>82878</v>
+      </c>
+      <c r="J348" s="74">
+        <v>0</v>
+      </c>
+      <c r="K348" s="74">
+        <v>0</v>
+      </c>
+      <c r="L348" s="73">
+        <f t="shared" ref="L348:L352" si="34">J348+L347</f>
+        <v>86258</v>
+      </c>
+      <c r="M348" s="73">
+        <f t="shared" ref="M348:M352" si="35">K348+M347</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13">
+      <c r="A349" s="28">
+        <v>46035</v>
+      </c>
+      <c r="B349" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C349" s="75"/>
+      <c r="D349" s="75"/>
+      <c r="E349" s="76"/>
+      <c r="F349" s="73">
+        <v>0</v>
+      </c>
+      <c r="G349" s="73">
+        <v>8</v>
+      </c>
+      <c r="H349" s="73">
+        <v>8</v>
+      </c>
+      <c r="I349" s="31">
+        <v>82878</v>
+      </c>
+      <c r="J349" s="74">
+        <v>0</v>
+      </c>
+      <c r="K349" s="74">
+        <v>0</v>
+      </c>
+      <c r="L349" s="73">
+        <f t="shared" si="34"/>
+        <v>86258</v>
+      </c>
+      <c r="M349" s="73">
+        <f t="shared" si="35"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13">
+      <c r="A350" s="28">
+        <v>46036</v>
+      </c>
+      <c r="B350" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C350" s="75"/>
+      <c r="D350" s="75"/>
+      <c r="E350" s="76"/>
+      <c r="F350" s="73">
+        <v>0</v>
+      </c>
+      <c r="G350" s="73">
+        <v>13</v>
+      </c>
+      <c r="H350" s="73">
+        <v>13</v>
+      </c>
+      <c r="I350" s="31">
+        <v>82878</v>
+      </c>
+      <c r="J350" s="74">
+        <v>0</v>
+      </c>
+      <c r="K350" s="74">
+        <v>0</v>
+      </c>
+      <c r="L350" s="73">
+        <f t="shared" si="34"/>
+        <v>86258</v>
+      </c>
+      <c r="M350" s="73">
+        <f t="shared" si="35"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13">
+      <c r="A351" s="28">
+        <v>46037</v>
+      </c>
+      <c r="B351" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C351" s="75"/>
+      <c r="D351" s="75"/>
+      <c r="E351" s="76"/>
+      <c r="F351" s="73">
+        <v>0</v>
+      </c>
+      <c r="G351" s="73">
+        <v>8</v>
+      </c>
+      <c r="H351" s="73">
+        <v>8</v>
+      </c>
+      <c r="I351" s="31">
+        <v>82878</v>
+      </c>
+      <c r="J351" s="74">
+        <v>0</v>
+      </c>
+      <c r="K351" s="74">
+        <v>0</v>
+      </c>
+      <c r="L351" s="73">
+        <f t="shared" si="34"/>
+        <v>86258</v>
+      </c>
+      <c r="M351" s="73">
+        <f t="shared" si="35"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13">
+      <c r="A352" s="30">
+        <v>46038</v>
+      </c>
+      <c r="B352" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C352" s="77"/>
+      <c r="D352" s="77"/>
+      <c r="E352" s="78"/>
+      <c r="F352" s="74">
+        <v>0</v>
+      </c>
+      <c r="G352" s="74">
+        <v>6</v>
+      </c>
+      <c r="H352" s="74">
+        <v>6</v>
+      </c>
+      <c r="I352" s="31">
+        <v>82878</v>
+      </c>
+      <c r="J352" s="74">
+        <v>0</v>
+      </c>
+      <c r="K352" s="74">
+        <v>0</v>
+      </c>
+      <c r="L352" s="73">
+        <f t="shared" si="34"/>
+        <v>86258</v>
+      </c>
+      <c r="M352" s="73">
+        <f t="shared" si="35"/>
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="240">
-    <mergeCell ref="B340:E340"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B346:E346"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B323:E323"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="B331:E331"/>
-    <mergeCell ref="B314:E314"/>
-    <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B317:E317"/>
-    <mergeCell ref="B318:E318"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B303:E303"/>
-    <mergeCell ref="B304:E304"/>
-    <mergeCell ref="B306:E306"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B311:E311"/>
-    <mergeCell ref="B312:E312"/>
-    <mergeCell ref="B313:E313"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B264:E264"/>
-    <mergeCell ref="B266:E266"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="B238:E238"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="B250:E250"/>
-    <mergeCell ref="B251:E251"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B257:E257"/>
-    <mergeCell ref="B259:E259"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B261:E261"/>
-    <mergeCell ref="B241:E241"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B247:E247"/>
-    <mergeCell ref="B248:E248"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:E234"/>
-    <mergeCell ref="B235:E235"/>
-    <mergeCell ref="B236:E236"/>
-    <mergeCell ref="B237:E237"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B201:E201"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="B203:E203"/>
-    <mergeCell ref="B204:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B206:E206"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
+  <mergeCells count="245">
+    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="B349:E349"/>
+    <mergeCell ref="B350:E350"/>
+    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="B352:E352"/>
+    <mergeCell ref="B299:E299"/>
+    <mergeCell ref="B300:E300"/>
+    <mergeCell ref="B301:E301"/>
+    <mergeCell ref="B302:E302"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="B295:E295"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:E281"/>
+    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B283:E283"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B71:E71"/>
     <mergeCell ref="B103:E103"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B85:E85"/>
@@ -27672,133 +27914,95 @@
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B187:E187"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="B282:E282"/>
-    <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B299:E299"/>
-    <mergeCell ref="B300:E300"/>
-    <mergeCell ref="B301:E301"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="B295:E295"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="B203:E203"/>
+    <mergeCell ref="B204:E204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B206:E206"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:E234"/>
+    <mergeCell ref="B235:E235"/>
+    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="B237:E237"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B264:E264"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B251:E251"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="B259:E259"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="B241:E241"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B247:E247"/>
+    <mergeCell ref="B248:E248"/>
+    <mergeCell ref="B314:E314"/>
+    <mergeCell ref="B315:E315"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B317:E317"/>
+    <mergeCell ref="B318:E318"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B303:E303"/>
+    <mergeCell ref="B304:E304"/>
+    <mergeCell ref="B306:E306"/>
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B340:E340"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B346:E346"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B331:E331"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G56" r:id="rId1" display="106" xr:uid="{91711D96-DEE6-4487-B096-595B3971FA7B}"/>
@@ -27888,8 +28092,8 @@
   <dimension ref="B2:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -27935,7 +28139,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G104" si="0">G4+F3</f>
-        <v>711</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15">
@@ -27946,14 +28150,14 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I4" t="s">
         <v>152</v>
       </c>
       <c r="J4">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL国内線*")</f>
-        <v>520</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15">
@@ -27964,7 +28168,7 @@
       <c r="F5" s="47"/>
       <c r="G5" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I5" t="s">
         <v>153</v>
@@ -27982,7 +28186,7 @@
       <c r="F6" s="47"/>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I6" t="s">
         <v>154</v>
@@ -28000,7 +28204,7 @@
       <c r="F7" s="47"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I7" t="s">
         <v>155</v>
@@ -28018,14 +28222,14 @@
       <c r="F8" s="47"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>156</v>
       </c>
       <c r="J8">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL Wellness &amp; Travel*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15">
@@ -28036,7 +28240,7 @@
       <c r="F9" s="47"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>157</v>
@@ -28054,7 +28258,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>158</v>
@@ -28072,14 +28276,14 @@
       <c r="F11" s="47"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>159</v>
       </c>
       <c r="J11">
         <f>SUM(J4:J10)</f>
-        <v>711</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15">
@@ -28090,7 +28294,7 @@
       <c r="F12" s="47"/>
       <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I12" s="32"/>
     </row>
@@ -28102,7 +28306,7 @@
       <c r="F13" s="47"/>
       <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I13" s="32"/>
     </row>
@@ -28114,7 +28318,7 @@
       <c r="F14" s="47"/>
       <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I14" s="32"/>
     </row>
@@ -28126,7 +28330,7 @@
       <c r="F15" s="47"/>
       <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I15" s="32"/>
     </row>
@@ -28138,7 +28342,7 @@
       <c r="F16" s="47"/>
       <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I16" s="32"/>
     </row>
@@ -28150,7 +28354,7 @@
       <c r="F17" s="47"/>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I17" s="32"/>
     </row>
@@ -28162,7 +28366,7 @@
       <c r="F18" s="47"/>
       <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -28174,7 +28378,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I19" s="32"/>
     </row>
@@ -28186,7 +28390,7 @@
       <c r="F20" s="47"/>
       <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I20" s="32"/>
     </row>
@@ -28198,7 +28402,7 @@
       <c r="F21" s="47"/>
       <c r="G21" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I21" s="32"/>
     </row>
@@ -28210,7 +28414,7 @@
       <c r="F22" s="47"/>
       <c r="G22" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I22" s="32"/>
     </row>
@@ -28222,7 +28426,7 @@
       <c r="F23" s="47"/>
       <c r="G23" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I23" s="32"/>
     </row>
@@ -28234,43 +28438,73 @@
       <c r="F24" s="47"/>
       <c r="G24" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="2:10" ht="15">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+    <row r="25" spans="2:10" ht="17.25">
+      <c r="B25" s="46">
+        <v>46037</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="47">
+        <v>1</v>
+      </c>
       <c r="G25" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="2:10" ht="15">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+    <row r="26" spans="2:10" ht="17.25">
+      <c r="B26" s="46">
+        <v>46035</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="47">
+        <v>40</v>
+      </c>
       <c r="G26" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>771</v>
       </c>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="2:10" ht="15">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+    <row r="27" spans="2:10" ht="17.25">
+      <c r="B27" s="46">
+        <v>46034</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="47">
+        <v>20</v>
+      </c>
       <c r="G27" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="I27" s="32"/>
     </row>
@@ -28285,7 +28519,7 @@
         <v>154</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F28" s="47">
         <v>30</v>
@@ -28296,7 +28530,7 @@
       </c>
       <c r="J28">
         <f>SUM(J4:J11)</f>
-        <v>1422</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25">
@@ -28415,7 +28649,7 @@
         <v>157</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F34" s="47">
         <v>1</v>
@@ -28499,7 +28733,7 @@
         <v>156</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F38" s="47">
         <v>1</v>
@@ -28520,7 +28754,7 @@
         <v>154</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F39" s="47">
         <v>10</v>
@@ -28751,7 +28985,7 @@
         <v>157</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F50" s="47">
         <v>1</v>
@@ -28793,7 +29027,7 @@
         <v>156</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F52" s="47">
         <v>1</v>
@@ -28814,7 +29048,7 @@
         <v>154</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F53" s="47">
         <v>20</v>
@@ -28919,7 +29153,7 @@
         <v>157</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F58" s="47">
         <v>1</v>
@@ -28982,7 +29216,7 @@
         <v>156</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F61" s="47">
         <v>1</v>
@@ -29024,7 +29258,7 @@
         <v>154</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F63" s="47">
         <v>15</v>
@@ -29255,7 +29489,7 @@
         <v>156</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F74" s="47">
         <v>1</v>
@@ -29276,7 +29510,7 @@
         <v>154</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F75" s="47">
         <v>5</v>
@@ -29402,7 +29636,7 @@
         <v>156</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F81" s="47">
         <v>1</v>
@@ -30112,8 +30346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EF3C4E-F452-4BBC-81DB-9BE6F59D48AA}">
   <dimension ref="A1:M333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J190" sqref="J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32592,7 +32826,7 @@
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -33852,7 +34086,7 @@
       </c>
       <c r="M111" s="16"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -33885,7 +34119,7 @@
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -33918,7 +34152,7 @@
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -33951,7 +34185,7 @@
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -33982,7 +34216,7 @@
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -34013,7 +34247,7 @@
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -34046,7 +34280,7 @@
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -34079,7 +34313,7 @@
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="15">
         <v>118</v>
       </c>
@@ -34112,7 +34346,7 @@
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -34145,7 +34379,7 @@
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -34174,7 +34408,7 @@
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -34207,7 +34441,7 @@
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -34240,7 +34474,7 @@
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -34269,7 +34503,7 @@
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -34298,7 +34532,7 @@
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -34327,7 +34561,7 @@
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -34356,7 +34590,7 @@
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -34385,7 +34619,7 @@
       <c r="L128" s="16"/>
       <c r="M128" s="16"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -34414,7 +34648,7 @@
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -34443,7 +34677,7 @@
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -34476,7 +34710,7 @@
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -34505,7 +34739,7 @@
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -34538,7 +34772,7 @@
       <c r="L133" s="16"/>
       <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -34571,7 +34805,7 @@
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -34604,7 +34838,7 @@
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -34633,7 +34867,7 @@
       <c r="L136" s="16"/>
       <c r="M136" s="16"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -34662,7 +34896,7 @@
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -34691,7 +34925,7 @@
       <c r="L138" s="16"/>
       <c r="M138" s="16"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -34720,7 +34954,7 @@
       <c r="L139" s="16"/>
       <c r="M139" s="16"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -34749,7 +34983,7 @@
       <c r="L140" s="16"/>
       <c r="M140" s="16"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -34782,7 +35016,7 @@
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -34815,7 +35049,7 @@
       <c r="L142" s="16"/>
       <c r="M142" s="16"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -34844,7 +35078,7 @@
       <c r="L143" s="16"/>
       <c r="M143" s="16"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -34873,7 +35107,7 @@
       <c r="L144" s="16"/>
       <c r="M144" s="16"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -34906,7 +35140,7 @@
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" hidden="1">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -34935,7 +35169,7 @@
       <c r="L146" s="16"/>
       <c r="M146" s="16"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -34968,7 +35202,7 @@
       <c r="L147" s="16"/>
       <c r="M147" s="16"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -35004,7 +35238,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -35037,7 +35271,7 @@
       <c r="L149" s="16"/>
       <c r="M149" s="16"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -35070,7 +35304,7 @@
       <c r="L150" s="16"/>
       <c r="M150" s="16"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -35103,7 +35337,7 @@
       <c r="L151" s="16"/>
       <c r="M151" s="16"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -35132,7 +35366,7 @@
       <c r="L152" s="16"/>
       <c r="M152" s="16"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -35161,7 +35395,7 @@
       <c r="L153" s="16"/>
       <c r="M153" s="16"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -35194,7 +35428,7 @@
       <c r="L154" s="16"/>
       <c r="M154" s="16"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -35227,7 +35461,7 @@
       <c r="L155" s="16"/>
       <c r="M155" s="16"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -35260,7 +35494,7 @@
       <c r="L156" s="16"/>
       <c r="M156" s="16"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -35293,7 +35527,7 @@
       <c r="L157" s="16"/>
       <c r="M157" s="16"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -35326,7 +35560,7 @@
       <c r="L158" s="16"/>
       <c r="M158" s="16"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -35359,7 +35593,7 @@
       <c r="L159" s="16"/>
       <c r="M159" s="16"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -35392,7 +35626,7 @@
       <c r="L160" s="16"/>
       <c r="M160" s="16"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -35425,7 +35659,7 @@
       <c r="L161" s="16"/>
       <c r="M161" s="16"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -35458,7 +35692,7 @@
       <c r="L162" s="16"/>
       <c r="M162" s="16"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -35491,7 +35725,7 @@
       <c r="L163" s="16"/>
       <c r="M163" s="16"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -35524,7 +35758,7 @@
       <c r="L164" s="16"/>
       <c r="M164" s="16"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -35673,7 +35907,7 @@
       </c>
       <c r="M169" s="16"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -35697,10 +35931,12 @@
       <c r="K170" s="23">
         <v>0</v>
       </c>
-      <c r="L170" s="16"/>
+      <c r="L170" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="M170" s="16"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -35724,7 +35960,9 @@
       <c r="K171" s="23">
         <v>0</v>
       </c>
-      <c r="L171" s="16"/>
+      <c r="L171" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="M171" s="16"/>
     </row>
     <row r="172" spans="1:13" hidden="1">
@@ -35785,7 +36023,7 @@
       </c>
       <c r="M173" s="16"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -35818,7 +36056,7 @@
       <c r="L174" s="16"/>
       <c r="M174" s="16"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -35851,7 +36089,7 @@
       <c r="L175" s="16"/>
       <c r="M175" s="16"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -35884,7 +36122,7 @@
       <c r="L176" s="16"/>
       <c r="M176" s="16"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -35917,7 +36155,7 @@
       <c r="L177" s="16"/>
       <c r="M177" s="16"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -35950,7 +36188,7 @@
       <c r="L178" s="16"/>
       <c r="M178" s="16"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -35983,7 +36221,7 @@
       <c r="L179" s="16"/>
       <c r="M179" s="16"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -36016,7 +36254,7 @@
       <c r="L180" s="16"/>
       <c r="M180" s="16"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -36049,7 +36287,7 @@
       <c r="L181" s="16"/>
       <c r="M181" s="16"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -36082,7 +36320,7 @@
       <c r="L182" s="16"/>
       <c r="M182" s="16"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="15">
         <v>182</v>
       </c>

--- a/data/20251229_LSP管理.xlsx
+++ b/data/20251229_LSP管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiraizumitatsuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99D58D5-A89A-4744-862A-99714AE1D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0576A7C3-FE0E-4F49-B79A-A713B8080533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="259">
   <si>
     <t>日付</t>
   </si>
@@ -492,6 +492,9 @@
     <t>JL3623</t>
   </si>
   <si>
+    <t>JL0184</t>
+  </si>
+  <si>
     <t>積算日</t>
   </si>
   <si>
@@ -531,16 +534,16 @@
     <t>合計</t>
   </si>
   <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>JAL国内線利用</t>
+  </si>
+  <si>
     <t>ライフスタイルサービス</t>
   </si>
   <si>
     <t>JAL Wellness &amp; Travel利用</t>
-  </si>
-  <si>
-    <t>航空</t>
-  </si>
-  <si>
-    <t>JAL国内線利用</t>
   </si>
   <si>
     <t>JALカード利用</t>
@@ -1969,7 +1972,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>64150</c:v>
+                  <c:v>64676</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32672</c:v>
@@ -1981,7 +1984,7 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4334</c:v>
+                  <c:v>4360</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
@@ -8235,6 +8238,9 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="106"/>
+                <c:pt idx="21">
+                  <c:v>46039</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>46037</c:v>
                 </c:pt>
@@ -8491,70 +8497,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="0">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>772</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>772</c:v>
@@ -9260,7 +9266,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>580</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70</c:v>
@@ -13853,7 +13859,7 @@
   <autoFilter ref="A1:M279" xr:uid="{3FCDC422-27B5-482E-BFE7-6645FF3F845A}">
     <filterColumn colId="1">
       <filters blank="1">
-        <dateGroupItem year="2026" month="1" dateTimeGrouping="month"/>
+        <dateGroupItem year="2026" month="3" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">
@@ -14166,11 +14172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57836D-5153-486D-8B76-48FAFDDE1EA1}">
-  <dimension ref="A1:O352"/>
+  <dimension ref="A1:O355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B333" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A352" sqref="A352"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B342" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E362" sqref="E362"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -14570,7 +14576,7 @@
       </c>
       <c r="O12" s="11">
         <f>SUMIFS(H2:H30000, B2:B30000, "*JL*")+SUMIFS(H11:H30000, B11:B30000, "*NU*")</f>
-        <v>64150</v>
+        <v>64676</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -14742,7 +14748,7 @@
       </c>
       <c r="O16">
         <f>SUMIFS(H11:H30000, B11:B30000, "*ＷＥＬＬＮＥＳＳ*")</f>
-        <v>4334</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -14984,7 +14990,7 @@
       <c r="N21" s="32"/>
       <c r="O21">
         <f>SUM(O12:O18)</f>
-        <v>80183</v>
+        <v>80735</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -27720,71 +27726,343 @@
       </c>
     </row>
     <row r="352" spans="1:13">
-      <c r="A352" s="30">
+      <c r="A352" s="28">
         <v>46038</v>
       </c>
-      <c r="B352" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C352" s="77"/>
-      <c r="D352" s="77"/>
-      <c r="E352" s="78"/>
-      <c r="F352" s="74">
-        <v>0</v>
-      </c>
-      <c r="G352" s="74">
-        <v>6</v>
-      </c>
-      <c r="H352" s="74">
-        <v>6</v>
-      </c>
-      <c r="I352" s="31">
-        <v>82878</v>
-      </c>
-      <c r="J352" s="74">
-        <v>0</v>
-      </c>
-      <c r="K352" s="74">
-        <v>0</v>
+      <c r="B352" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F352" s="73">
+        <v>232</v>
+      </c>
+      <c r="G352" s="29">
+        <v>294</v>
+      </c>
+      <c r="H352" s="73">
+        <v>526</v>
+      </c>
+      <c r="I352" s="4">
+        <v>86418</v>
+      </c>
+      <c r="J352" s="73">
+        <v>864</v>
+      </c>
+      <c r="K352" s="73">
+        <v>1</v>
       </c>
       <c r="L352" s="73">
         <f t="shared" si="34"/>
-        <v>86258</v>
+        <v>87122</v>
       </c>
       <c r="M352" s="73">
         <f t="shared" si="35"/>
-        <v>84</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13">
+      <c r="A353" s="28">
+        <v>46038</v>
+      </c>
+      <c r="B353" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C353" s="75"/>
+      <c r="D353" s="75"/>
+      <c r="E353" s="76"/>
+      <c r="F353" s="73">
+        <v>0</v>
+      </c>
+      <c r="G353" s="73">
+        <v>6</v>
+      </c>
+      <c r="H353" s="73">
+        <v>6</v>
+      </c>
+      <c r="I353" s="4">
+        <v>86424</v>
+      </c>
+      <c r="J353" s="73">
+        <v>0</v>
+      </c>
+      <c r="K353" s="73">
+        <v>0</v>
+      </c>
+      <c r="L353" s="73">
+        <f t="shared" ref="L353:L355" si="36">J353+L352</f>
+        <v>87122</v>
+      </c>
+      <c r="M353" s="73">
+        <f t="shared" ref="M353:M355" si="37">K353+M352</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13">
+      <c r="A354" s="28">
+        <v>46039</v>
+      </c>
+      <c r="B354" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C354" s="75"/>
+      <c r="D354" s="75"/>
+      <c r="E354" s="76"/>
+      <c r="F354" s="73">
+        <v>0</v>
+      </c>
+      <c r="G354" s="73">
+        <v>7</v>
+      </c>
+      <c r="H354" s="73">
+        <v>7</v>
+      </c>
+      <c r="I354" s="4">
+        <v>86431</v>
+      </c>
+      <c r="J354" s="73">
+        <v>0</v>
+      </c>
+      <c r="K354" s="73">
+        <v>0</v>
+      </c>
+      <c r="L354" s="73">
+        <f t="shared" si="36"/>
+        <v>87122</v>
+      </c>
+      <c r="M354" s="73">
+        <f t="shared" si="37"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13">
+      <c r="A355" s="30">
+        <v>46040</v>
+      </c>
+      <c r="B355" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C355" s="77"/>
+      <c r="D355" s="77"/>
+      <c r="E355" s="78"/>
+      <c r="F355" s="74">
+        <v>0</v>
+      </c>
+      <c r="G355" s="74">
+        <v>19</v>
+      </c>
+      <c r="H355" s="74">
+        <v>19</v>
+      </c>
+      <c r="I355" s="31">
+        <v>86450</v>
+      </c>
+      <c r="J355" s="74">
+        <v>0</v>
+      </c>
+      <c r="K355" s="74">
+        <v>0</v>
+      </c>
+      <c r="L355" s="73">
+        <f t="shared" si="36"/>
+        <v>87122</v>
+      </c>
+      <c r="M355" s="73">
+        <f t="shared" si="37"/>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="245">
-    <mergeCell ref="B348:E348"/>
-    <mergeCell ref="B349:E349"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B351:E351"/>
-    <mergeCell ref="B352:E352"/>
-    <mergeCell ref="B299:E299"/>
-    <mergeCell ref="B300:E300"/>
-    <mergeCell ref="B301:E301"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="B295:E295"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B297:E297"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="B282:E282"/>
-    <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
+  <mergeCells count="247">
+    <mergeCell ref="B353:E353"/>
+    <mergeCell ref="B354:E354"/>
+    <mergeCell ref="B355:E355"/>
+    <mergeCell ref="B340:E340"/>
+    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B346:E346"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B264:E264"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B251:E251"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="B259:E259"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="B241:E241"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B247:E247"/>
+    <mergeCell ref="B248:E248"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:E234"/>
+    <mergeCell ref="B235:E235"/>
+    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="B237:E237"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="B203:E203"/>
+    <mergeCell ref="B204:E204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B206:E206"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B171:E171"/>
     <mergeCell ref="B172:E172"/>
     <mergeCell ref="B174:E174"/>
     <mergeCell ref="B175:E175"/>
@@ -27809,172 +28087,32 @@
     <mergeCell ref="B195:E195"/>
     <mergeCell ref="B196:E196"/>
     <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B201:E201"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="B203:E203"/>
-    <mergeCell ref="B204:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B206:E206"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:E234"/>
-    <mergeCell ref="B235:E235"/>
-    <mergeCell ref="B236:E236"/>
-    <mergeCell ref="B237:E237"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B264:E264"/>
-    <mergeCell ref="B266:E266"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="B238:E238"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="B250:E250"/>
-    <mergeCell ref="B251:E251"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B257:E257"/>
-    <mergeCell ref="B259:E259"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B261:E261"/>
-    <mergeCell ref="B241:E241"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B247:E247"/>
-    <mergeCell ref="B248:E248"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:E281"/>
+    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B283:E283"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="B295:E295"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="B349:E349"/>
+    <mergeCell ref="B350:E350"/>
+    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="B299:E299"/>
+    <mergeCell ref="B300:E300"/>
+    <mergeCell ref="B301:E301"/>
+    <mergeCell ref="B302:E302"/>
     <mergeCell ref="B314:E314"/>
     <mergeCell ref="B315:E315"/>
     <mergeCell ref="B316:E316"/>
@@ -27990,19 +28128,6 @@
     <mergeCell ref="B311:E311"/>
     <mergeCell ref="B312:E312"/>
     <mergeCell ref="B313:E313"/>
-    <mergeCell ref="B340:E340"/>
-    <mergeCell ref="B345:E345"/>
-    <mergeCell ref="B346:E346"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B323:E323"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="B331:E331"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G56" r:id="rId1" display="106" xr:uid="{91711D96-DEE6-4487-B096-595B3971FA7B}"/>
@@ -28081,9 +28206,10 @@
     <hyperlink ref="G342" r:id="rId74" display="66" xr:uid="{04026D42-5461-474A-B7DE-38403BD0C699}"/>
     <hyperlink ref="G343" r:id="rId75" display="153" xr:uid="{FED91E3D-E009-4EAB-9AF4-5B39552C5B2E}"/>
     <hyperlink ref="G344" r:id="rId76" display="153" xr:uid="{98E30EB0-68DB-4DD6-97CA-14636715BA42}"/>
+    <hyperlink ref="G352" r:id="rId77" display="294" xr:uid="{5638190E-687C-4ABC-B15A-8BBA2F18587D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -28092,8 +28218,8 @@
   <dimension ref="B2:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -28113,22 +28239,22 @@
   <sheetData>
     <row r="2" spans="2:10" ht="17.25">
       <c r="B2" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75">
@@ -28139,7 +28265,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G104" si="0">G4+F3</f>
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15">
@@ -28150,14 +28276,14 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J4">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL国内線*")</f>
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15">
@@ -28168,10 +28294,10 @@
       <c r="F5" s="47"/>
       <c r="G5" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J5">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL国際線*")</f>
@@ -28186,10 +28312,10 @@
       <c r="F6" s="47"/>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J6">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JALカード*")</f>
@@ -28204,10 +28330,10 @@
       <c r="F7" s="47"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J7">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JALモバイル*")</f>
@@ -28222,10 +28348,10 @@
       <c r="F8" s="47"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J8">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL Wellness &amp; Travel*")</f>
@@ -28240,10 +28366,10 @@
       <c r="F9" s="47"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J9">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JALマイレージパーク*")</f>
@@ -28258,10 +28384,10 @@
       <c r="F10" s="47"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J10">
         <f>SUMIFS(F3:F30058,D3:D30058, "*その他*")</f>
@@ -28276,14 +28402,14 @@
       <c r="F11" s="47"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J11">
         <f>SUM(J4:J10)</f>
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15">
@@ -28294,7 +28420,7 @@
       <c r="F12" s="47"/>
       <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I12" s="32"/>
     </row>
@@ -28306,7 +28432,7 @@
       <c r="F13" s="47"/>
       <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I13" s="32"/>
     </row>
@@ -28318,7 +28444,7 @@
       <c r="F14" s="47"/>
       <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I14" s="32"/>
     </row>
@@ -28330,7 +28456,7 @@
       <c r="F15" s="47"/>
       <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I15" s="32"/>
     </row>
@@ -28342,7 +28468,7 @@
       <c r="F16" s="47"/>
       <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I16" s="32"/>
     </row>
@@ -28354,7 +28480,7 @@
       <c r="F17" s="47"/>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I17" s="32"/>
     </row>
@@ -28366,7 +28492,7 @@
       <c r="F18" s="47"/>
       <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -28378,7 +28504,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I19" s="32"/>
     </row>
@@ -28390,7 +28516,7 @@
       <c r="F20" s="47"/>
       <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I20" s="32"/>
     </row>
@@ -28402,7 +28528,7 @@
       <c r="F21" s="47"/>
       <c r="G21" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I21" s="32"/>
     </row>
@@ -28414,7 +28540,7 @@
       <c r="F22" s="47"/>
       <c r="G22" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I22" s="32"/>
     </row>
@@ -28426,19 +28552,29 @@
       <c r="F23" s="47"/>
       <c r="G23" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="2:10" ht="15">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+    <row r="24" spans="2:10" ht="17.25">
+      <c r="B24" s="46">
+        <v>46039</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="47">
+        <v>5</v>
+      </c>
       <c r="G24" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I24" s="32"/>
     </row>
@@ -28447,13 +28583,13 @@
         <v>46037</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F25" s="47">
         <v>1</v>
@@ -28469,13 +28605,13 @@
         <v>46035</v>
       </c>
       <c r="C26" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F26" s="47">
         <v>40</v>
@@ -28491,13 +28627,13 @@
         <v>46034</v>
       </c>
       <c r="C27" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F27" s="47">
         <v>20</v>
@@ -28513,13 +28649,13 @@
         <v>46033</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F28" s="47">
         <v>30</v>
@@ -28530,7 +28666,7 @@
       </c>
       <c r="J28">
         <f>SUM(J4:J11)</f>
-        <v>1544</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25">
@@ -28538,13 +28674,13 @@
         <v>46033</v>
       </c>
       <c r="C29" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F29" s="47">
         <v>40</v>
@@ -28559,13 +28695,13 @@
         <v>46032</v>
       </c>
       <c r="C30" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F30" s="47">
         <v>10</v>
@@ -28580,13 +28716,13 @@
         <v>46030</v>
       </c>
       <c r="C31" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F31" s="47">
         <v>5</v>
@@ -28601,13 +28737,13 @@
         <v>46016</v>
       </c>
       <c r="C32" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F32" s="47">
         <v>5</v>
@@ -28622,13 +28758,13 @@
         <v>46014</v>
       </c>
       <c r="C33" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F33" s="47">
         <v>5</v>
@@ -28643,13 +28779,13 @@
         <v>46012</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F34" s="47">
         <v>1</v>
@@ -28664,13 +28800,13 @@
         <v>46012</v>
       </c>
       <c r="C35" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F35" s="47">
         <v>5</v>
@@ -28685,13 +28821,13 @@
         <v>46011</v>
       </c>
       <c r="C36" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F36" s="47">
         <v>5</v>
@@ -28706,13 +28842,13 @@
         <v>46008</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F37" s="47">
         <v>1</v>
@@ -28727,13 +28863,13 @@
         <v>46006</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F38" s="47">
         <v>1</v>
@@ -28748,13 +28884,13 @@
         <v>46002</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F39" s="47">
         <v>10</v>
@@ -28769,13 +28905,13 @@
         <v>45996</v>
       </c>
       <c r="C40" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F40" s="47">
         <v>45</v>
@@ -28790,13 +28926,13 @@
         <v>45995</v>
       </c>
       <c r="C41" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F41" s="47">
         <v>5</v>
@@ -28811,13 +28947,13 @@
         <v>45994</v>
       </c>
       <c r="C42" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F42" s="47">
         <v>5</v>
@@ -28832,13 +28968,13 @@
         <v>45990</v>
       </c>
       <c r="C43" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F43" s="47">
         <v>5</v>
@@ -28853,13 +28989,13 @@
         <v>45989</v>
       </c>
       <c r="C44" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F44" s="47">
         <v>5</v>
@@ -28874,13 +29010,13 @@
         <v>45988</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F45" s="47">
         <v>18</v>
@@ -28895,13 +29031,13 @@
         <v>45988</v>
       </c>
       <c r="C46" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F46" s="47">
         <v>5</v>
@@ -28916,13 +29052,13 @@
         <v>45987</v>
       </c>
       <c r="C47" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F47" s="47">
         <v>5</v>
@@ -28937,13 +29073,13 @@
         <v>45985</v>
       </c>
       <c r="C48" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F48" s="47">
         <v>5</v>
@@ -28958,13 +29094,13 @@
         <v>45983</v>
       </c>
       <c r="C49" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F49" s="47">
         <v>5</v>
@@ -28979,13 +29115,13 @@
         <v>45982</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F50" s="47">
         <v>1</v>
@@ -29000,13 +29136,13 @@
         <v>45978</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F51" s="47">
         <v>1</v>
@@ -29021,13 +29157,13 @@
         <v>45976</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F52" s="47">
         <v>1</v>
@@ -29042,13 +29178,13 @@
         <v>45972</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F53" s="47">
         <v>20</v>
@@ -29063,13 +29199,13 @@
         <v>45960</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F54" s="47">
         <v>10</v>
@@ -29084,13 +29220,13 @@
         <v>45956</v>
       </c>
       <c r="C55" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F55" s="47">
         <v>5</v>
@@ -29105,13 +29241,13 @@
         <v>45955</v>
       </c>
       <c r="C56" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F56" s="47">
         <v>5</v>
@@ -29126,13 +29262,13 @@
         <v>45953</v>
       </c>
       <c r="C57" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F57" s="47">
         <v>5</v>
@@ -29147,13 +29283,13 @@
         <v>45952</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F58" s="47">
         <v>1</v>
@@ -29168,13 +29304,13 @@
         <v>45951</v>
       </c>
       <c r="C59" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F59" s="47">
         <v>10</v>
@@ -29189,13 +29325,13 @@
         <v>45947</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F60" s="47">
         <v>1</v>
@@ -29210,13 +29346,13 @@
         <v>45945</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F61" s="47">
         <v>1</v>
@@ -29231,13 +29367,13 @@
         <v>45943</v>
       </c>
       <c r="C62" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F62" s="47">
         <v>5</v>
@@ -29252,13 +29388,13 @@
         <v>45941</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F63" s="47">
         <v>15</v>
@@ -29273,13 +29409,13 @@
         <v>45941</v>
       </c>
       <c r="C64" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F64" s="47">
         <v>5</v>
@@ -29294,13 +29430,13 @@
         <v>45937</v>
       </c>
       <c r="C65" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F65" s="47">
         <v>35</v>
@@ -29315,13 +29451,13 @@
         <v>45936</v>
       </c>
       <c r="C66" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F66" s="47">
         <v>5</v>
@@ -29336,13 +29472,13 @@
         <v>45934</v>
       </c>
       <c r="C67" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F67" s="47">
         <v>5</v>
@@ -29357,13 +29493,13 @@
         <v>45930</v>
       </c>
       <c r="C68" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F68" s="47">
         <v>45</v>
@@ -29378,13 +29514,13 @@
         <v>45929</v>
       </c>
       <c r="C69" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F69" s="47">
         <v>45</v>
@@ -29399,13 +29535,13 @@
         <v>45928</v>
       </c>
       <c r="C70" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F70" s="47">
         <v>35</v>
@@ -29420,13 +29556,13 @@
         <v>45919</v>
       </c>
       <c r="C71" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F71" s="47">
         <v>5</v>
@@ -29441,13 +29577,13 @@
         <v>45917</v>
       </c>
       <c r="C72" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F72" s="47">
         <v>5</v>
@@ -29462,13 +29598,13 @@
         <v>45916</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E73" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F73" s="47">
         <v>1</v>
@@ -29483,13 +29619,13 @@
         <v>45915</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F74" s="47">
         <v>1</v>
@@ -29504,13 +29640,13 @@
         <v>45911</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F75" s="47">
         <v>5</v>
@@ -29525,13 +29661,13 @@
         <v>45905</v>
       </c>
       <c r="C76" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D76" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F76" s="47">
         <v>5</v>
@@ -29546,13 +29682,13 @@
         <v>45903</v>
       </c>
       <c r="C77" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F77" s="47">
         <v>5</v>
@@ -29567,13 +29703,13 @@
         <v>45893</v>
       </c>
       <c r="C78" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D78" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F78" s="47">
         <v>5</v>
@@ -29588,13 +29724,13 @@
         <v>45892</v>
       </c>
       <c r="C79" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F79" s="47">
         <v>5</v>
@@ -29609,13 +29745,13 @@
         <v>45888</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F80" s="47">
         <v>1</v>
@@ -29630,13 +29766,13 @@
         <v>45884</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F81" s="47">
         <v>1</v>
@@ -29651,13 +29787,13 @@
         <v>45877</v>
       </c>
       <c r="C82" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="47" t="s">
         <v>162</v>
-      </c>
-      <c r="D82" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="47" t="s">
-        <v>163</v>
       </c>
       <c r="F82" s="47">
         <v>10</v>
@@ -29672,13 +29808,13 @@
         <v>45874</v>
       </c>
       <c r="C83" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D83" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F83" s="34">
         <v>5</v>
@@ -29693,13 +29829,13 @@
         <v>45873</v>
       </c>
       <c r="C84" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F84" s="34">
         <v>5</v>
@@ -29714,13 +29850,13 @@
         <v>45867</v>
       </c>
       <c r="C85" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F85" s="34">
         <v>5</v>
@@ -29735,13 +29871,13 @@
         <v>45862</v>
       </c>
       <c r="C86" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F86" s="34">
         <v>5</v>
@@ -29756,13 +29892,13 @@
         <v>45838</v>
       </c>
       <c r="C87" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F87" s="34">
         <v>5</v>
@@ -29777,13 +29913,13 @@
         <v>45836</v>
       </c>
       <c r="C88" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F88" s="34">
         <v>5</v>
@@ -29798,13 +29934,13 @@
         <v>45789</v>
       </c>
       <c r="C89" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F89" s="34">
         <v>5</v>
@@ -29819,13 +29955,13 @@
         <v>45786</v>
       </c>
       <c r="C90" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E90" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F90" s="34">
         <v>5</v>
@@ -29840,13 +29976,13 @@
         <v>45729</v>
       </c>
       <c r="C91" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D91" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F91" s="34">
         <v>10</v>
@@ -29861,13 +29997,13 @@
         <v>45684</v>
       </c>
       <c r="C92" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D92" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F92" s="34">
         <v>5</v>
@@ -29882,13 +30018,13 @@
         <v>45682</v>
       </c>
       <c r="C93" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F93" s="34">
         <v>5</v>
@@ -29903,13 +30039,13 @@
         <v>45652</v>
       </c>
       <c r="C94" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F94" s="34">
         <v>5</v>
@@ -29924,13 +30060,13 @@
         <v>45649</v>
       </c>
       <c r="C95" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F95" s="34">
         <v>5</v>
@@ -29945,13 +30081,13 @@
         <v>45648</v>
       </c>
       <c r="C96" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F96" s="34">
         <v>5</v>
@@ -29966,13 +30102,13 @@
         <v>45614</v>
       </c>
       <c r="C97" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D97" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F97" s="34">
         <v>5</v>
@@ -29987,13 +30123,13 @@
         <v>45613</v>
       </c>
       <c r="C98" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E98" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F98" s="34">
         <v>5</v>
@@ -30008,13 +30144,13 @@
         <v>45592</v>
       </c>
       <c r="C99" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E99" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F99" s="34">
         <v>5</v>
@@ -30029,13 +30165,13 @@
         <v>45591</v>
       </c>
       <c r="C100" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E100" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E100" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F100" s="34">
         <v>5</v>
@@ -30050,13 +30186,13 @@
         <v>45514</v>
       </c>
       <c r="C101" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E101" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F101" s="34">
         <v>5</v>
@@ -30071,13 +30207,13 @@
         <v>45513</v>
       </c>
       <c r="C102" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>163</v>
       </c>
       <c r="F102" s="34">
         <v>5</v>
@@ -30092,13 +30228,13 @@
         <v>45335</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F103" s="34">
         <v>20</v>
@@ -30113,13 +30249,13 @@
         <v>45334</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F104" s="34">
         <v>20</v>
@@ -30134,13 +30270,13 @@
         <v>45291</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F105" s="34">
         <v>30</v>
@@ -30155,13 +30291,13 @@
         <v>45291</v>
       </c>
       <c r="C106" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E106" s="71" t="s">
         <v>162</v>
-      </c>
-      <c r="D106" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="E106" s="71" t="s">
-        <v>163</v>
       </c>
       <c r="F106" s="71">
         <v>10</v>
@@ -30347,7 +30483,7 @@
   <dimension ref="A1:M333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J190" sqref="J190"/>
+      <selection activeCell="G198" sqref="G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30358,43 +30494,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1">
@@ -30405,32 +30541,32 @@
         <v>45926</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" s="12">
         <v>305</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F2" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H2" s="13">
         <v>0.375</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="23">
         <v>13320</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M2" s="66"/>
     </row>
@@ -30442,32 +30578,32 @@
         <v>45926</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D3" s="12">
         <v>3563</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F3" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H3" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="23">
         <v>12963</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -30479,32 +30615,32 @@
         <v>45926</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D4" s="12">
         <v>3564</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F4" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="23">
         <v>12963</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M4" s="16"/>
     </row>
@@ -30516,32 +30652,32 @@
         <v>45926</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5" s="12">
         <v>3629</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H5" s="13">
         <v>0.57986111111111116</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="23">
         <v>6171</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M5" s="16"/>
     </row>
@@ -30553,32 +30689,32 @@
         <v>45926</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6" s="12">
         <v>3630</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F6" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H6" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="23">
         <v>9410</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M6" s="16"/>
     </row>
@@ -30590,32 +30726,32 @@
         <v>45926</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" s="24">
         <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H7" s="13">
         <v>0.73263888888888884</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="23">
         <v>10591</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M7" s="16"/>
     </row>
@@ -30627,32 +30763,32 @@
         <v>45926</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" s="24">
         <v>60</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F8" s="13">
         <v>0.76736111111111116</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H8" s="13">
         <v>0.84027777777777779</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="23">
         <v>16965</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -30664,32 +30800,32 @@
         <v>45927</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D9" s="12">
         <v>51</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H9" s="13">
         <v>0.36805555555555558</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="23">
         <v>16965</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M9" s="16"/>
     </row>
@@ -30701,32 +30837,32 @@
         <v>45927</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" s="12">
         <v>605</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" s="13">
         <v>0.39930555555555558</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H10" s="13">
         <v>0.44097222222222221</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="23">
         <v>6180</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="16"/>
     </row>
@@ -30738,32 +30874,32 @@
         <v>45927</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" s="12">
         <v>743</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F11" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="13">
         <v>0.54513888888888884</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="23">
         <v>6583</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M11" s="16"/>
     </row>
@@ -30775,32 +30911,32 @@
         <v>45927</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D12" s="12">
         <v>744</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F12" s="13">
         <v>0.56597222222222221</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H12" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="23">
         <v>6583</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M12" s="16"/>
     </row>
@@ -30812,32 +30948,32 @@
         <v>45927</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D13" s="12">
         <v>834</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F13" s="13">
         <v>0.61111111111111116</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H13" s="13">
         <v>0.63194444444444442</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="23">
         <v>9020</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M13" s="16"/>
     </row>
@@ -30849,32 +30985,32 @@
         <v>45927</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D14" s="12">
         <v>897</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F14" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H14" s="13">
         <v>0.67013888888888884</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="23">
         <v>5434</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M14" s="16"/>
     </row>
@@ -30886,32 +31022,32 @@
         <v>45927</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D15" s="12">
         <v>898</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F15" s="13">
         <v>0.69444444444444442</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H15" s="13">
         <v>0.71180555555555558</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="23">
         <v>5434</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M15" s="16"/>
     </row>
@@ -30923,32 +31059,32 @@
         <v>45927</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D16" s="12">
         <v>566</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F16" s="13">
         <v>0.74652777777777779</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H16" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="23">
         <v>6290</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -30960,32 +31096,32 @@
         <v>45927</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D17" s="12">
         <v>62</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F17" s="13">
         <v>0.81597222222222221</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H17" s="13">
         <v>0.89236111111111116</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="23">
         <v>10591</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -30997,32 +31133,32 @@
         <v>45928</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D18" s="12">
         <v>3681</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F18" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H18" s="13">
         <v>0.34375</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="23">
         <v>13860</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -31034,32 +31170,32 @@
         <v>45928</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D19" s="12">
         <v>3831</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F19" s="13">
         <v>0.3923611111111111</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H19" s="13">
         <v>0.40625</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="23">
         <v>5989</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -31071,32 +31207,32 @@
         <v>45928</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" s="12">
         <v>3830</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F20" s="13">
         <v>0.42708333333333331</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H20" s="13">
         <v>0.44097222222222221</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="23">
         <v>5989</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -31108,32 +31244,32 @@
         <v>45928</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" s="12">
         <v>3841</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F21" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H21" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="23">
         <v>10450</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -31145,32 +31281,32 @@
         <v>45928</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" s="12">
         <v>3711</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H22" s="13">
         <v>0.51736111111111116</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="23">
         <v>8580</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -31182,32 +31318,32 @@
         <v>45928</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" s="12">
         <v>3716</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F23" s="13">
         <v>0.53819444444444442</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H23" s="13">
         <v>0.57291666666666663</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="23">
         <v>15310</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M23" s="16"/>
     </row>
@@ -31219,32 +31355,32 @@
         <v>45928</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D24" s="12">
         <v>617</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F24" s="13">
         <v>0.61458333333333337</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H24" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="23">
         <v>5883</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M24" s="16"/>
     </row>
@@ -31256,32 +31392,32 @@
         <v>45928</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D25" s="12">
         <v>622</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F25" s="13">
         <v>0.68402777777777779</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H25" s="13">
         <v>0.72569444444444442</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="23">
         <v>5883</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" s="16"/>
     </row>
@@ -31293,32 +31429,32 @@
         <v>45928</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D26" s="12">
         <v>918</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F26" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" s="13">
         <v>0.88888888888888884</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="23">
         <v>22580</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="16"/>
     </row>
@@ -31330,19 +31466,19 @@
         <v>45934</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D27" s="12">
         <v>333</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F27" s="13">
         <v>0.80208333333333337</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H27" s="13">
         <v>0.88194444444444442</v>
@@ -31353,7 +31489,7 @@
         <v>13320</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M27" s="16"/>
     </row>
@@ -31365,32 +31501,32 @@
         <v>45935</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D28" s="12">
         <v>51</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F28" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H28" s="13">
         <v>0.37152777777777779</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="23">
         <v>11130</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M28" s="16"/>
     </row>
@@ -31402,32 +31538,32 @@
         <v>45935</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D29" s="12">
         <v>605</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="13">
         <v>0.40277777777777779</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H29" s="13">
         <v>0.44444444444444442</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="23">
         <v>6180</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M29" s="16"/>
     </row>
@@ -31439,32 +31575,32 @@
         <v>45935</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30" s="12">
         <v>743</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F30" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H30" s="13">
         <v>0.54513888888888884</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="23">
         <v>6583</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M30" s="16"/>
     </row>
@@ -31476,32 +31612,32 @@
         <v>45935</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D31" s="12">
         <v>744</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="13">
         <v>0.56944444444444442</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H31" s="13">
         <v>0.59027777777777779</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="23">
         <v>5883</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M31" s="16"/>
     </row>
@@ -31513,32 +31649,32 @@
         <v>45935</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D32" s="12">
         <v>834</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H32" s="13">
         <v>0.63888888888888884</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="23">
         <v>9570</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M32" s="16"/>
     </row>
@@ -31550,32 +31686,32 @@
         <v>45935</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D33" s="12">
         <v>564</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F33" s="13">
         <v>0.70486111111111116</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H33" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="23">
         <v>6290</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M33" s="16"/>
     </row>
@@ -31587,32 +31723,32 @@
         <v>45935</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D34" s="12">
         <v>920</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F34" s="13">
         <v>0.81944444444444442</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H34" s="13">
         <v>0.91666666666666663</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="23">
         <v>22030</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M34" s="16"/>
     </row>
@@ -31624,19 +31760,19 @@
         <v>45890</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D35" s="12">
         <v>487</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F35" s="13">
         <v>0.84375</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H35" s="13">
         <v>0.89583333333333337</v>
@@ -31647,7 +31783,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M35" s="16"/>
     </row>
@@ -31659,19 +31795,19 @@
         <v>45891</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D36" s="12">
         <v>482</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F36" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H36" s="13">
         <v>0.69791666666666663</v>
@@ -31682,7 +31818,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M36" s="16"/>
     </row>
@@ -31694,19 +31830,19 @@
         <v>45902</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37" s="12">
         <v>317</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F37" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H37" s="13">
         <v>0.57638888888888884</v>
@@ -31717,7 +31853,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M37" s="16"/>
     </row>
@@ -31729,19 +31865,19 @@
         <v>45903</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D38" s="12">
         <v>300</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F38" s="13">
         <v>0.29166666666666669</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H38" s="13">
         <v>0.3611111111111111</v>
@@ -31752,7 +31888,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M38" s="16"/>
     </row>
@@ -31764,19 +31900,19 @@
         <v>45949</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D39" s="12">
         <v>491</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F39" s="13">
         <v>0.3125</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H39" s="13">
         <v>0.375</v>
@@ -31787,7 +31923,7 @@
         <v>20700</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M39" s="16"/>
     </row>
@@ -31799,19 +31935,19 @@
         <v>45949</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D40" s="12">
         <v>492</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F40" s="13">
         <v>0.40277777777777779</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H40" s="13">
         <v>0.45833333333333331</v>
@@ -31822,7 +31958,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M40" s="16"/>
     </row>
@@ -31834,17 +31970,17 @@
         <v>45589</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D41" s="12">
         <v>319</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="27"/>
@@ -31853,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M41" s="16"/>
     </row>
@@ -31865,17 +32001,17 @@
         <v>45590</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D42" s="12">
         <v>318</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="27"/>
@@ -31884,7 +32020,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M42" s="16"/>
     </row>
@@ -31896,17 +32032,17 @@
         <v>45611</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D43" s="12">
         <v>434</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="27"/>
@@ -31915,7 +32051,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M43" s="16"/>
     </row>
@@ -31927,17 +32063,17 @@
         <v>45612</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D44" s="12">
         <v>431</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="27"/>
@@ -31946,7 +32082,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M44" s="16"/>
     </row>
@@ -31958,17 +32094,17 @@
         <v>45650</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D45" s="12">
         <v>335</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="27"/>
@@ -31977,7 +32113,7 @@
         <v>17640</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M45" s="16"/>
     </row>
@@ -31989,17 +32125,17 @@
         <v>45646</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" s="12">
         <v>431</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="27"/>
@@ -32008,7 +32144,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M46" s="16"/>
     </row>
@@ -32020,17 +32156,17 @@
         <v>45647</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D47" s="12">
         <v>432</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="27"/>
@@ -32039,7 +32175,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M47" s="16"/>
     </row>
@@ -32051,17 +32187,17 @@
         <v>45680</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D48" s="12">
         <v>307</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="27"/>
@@ -32070,7 +32206,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -32082,17 +32218,17 @@
         <v>45682</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D49" s="12">
         <v>306</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="27"/>
@@ -32101,7 +32237,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M49" s="16"/>
     </row>
@@ -32113,17 +32249,17 @@
         <v>45727</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D50" s="12">
         <v>330</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="27"/>
@@ -32132,7 +32268,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M50" s="16"/>
     </row>
@@ -32144,17 +32280,17 @@
         <v>45727</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D51" s="12">
         <v>305</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="27"/>
@@ -32163,7 +32299,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M51" s="16"/>
     </row>
@@ -32175,17 +32311,17 @@
         <v>45860</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D52" s="12">
         <v>307</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="27"/>
@@ -32194,7 +32330,7 @@
         <v>13320</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M52" s="16"/>
     </row>
@@ -32206,17 +32342,17 @@
         <v>45865</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D53" s="12">
         <v>300</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="27"/>
@@ -32225,7 +32361,7 @@
         <v>13320</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M53" s="16"/>
     </row>
@@ -32237,17 +32373,17 @@
         <v>45871</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D54" s="12">
         <v>307</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="27"/>
@@ -32256,7 +32392,7 @@
         <v>22845</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M54" s="16"/>
     </row>
@@ -32268,17 +32404,17 @@
         <v>45872</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D55" s="12">
         <v>300</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="27"/>
@@ -32287,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M55" s="16"/>
     </row>
@@ -32299,17 +32435,17 @@
         <v>45875</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D56" s="12">
         <v>307</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="27"/>
@@ -32318,7 +32454,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M56" s="16"/>
     </row>
@@ -32330,17 +32466,17 @@
         <v>45875</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57" s="12">
         <v>300</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="27"/>
@@ -32349,7 +32485,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M57" s="16"/>
     </row>
@@ -32361,17 +32497,17 @@
         <v>45916</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D58" s="12">
         <v>307</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="27"/>
@@ -32380,7 +32516,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M58" s="16"/>
     </row>
@@ -32392,17 +32528,17 @@
         <v>45918</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="12">
         <v>302</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="27"/>
@@ -32411,7 +32547,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M59" s="16"/>
     </row>
@@ -32423,19 +32559,19 @@
         <v>45994</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="12">
         <v>901</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F60" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H60" s="13">
         <v>0.38541666666666669</v>
@@ -32446,7 +32582,7 @@
         <v>10590</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M60" s="16"/>
     </row>
@@ -32458,19 +32594,19 @@
         <v>45994</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F61" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H61" s="13">
         <v>0.43402777777777779</v>
@@ -32481,7 +32617,7 @@
         <v>4640</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M61" s="16"/>
     </row>
@@ -32493,19 +32629,19 @@
         <v>45994</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="F62" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H62" s="13">
         <v>0.47916666666666669</v>
@@ -32516,7 +32652,7 @@
         <v>6400</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M62" s="16"/>
     </row>
@@ -32528,19 +32664,19 @@
         <v>45994</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F63" s="13">
         <v>0.52777777777777779</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H63" s="13">
         <v>0.57291666666666663</v>
@@ -32551,7 +32687,7 @@
         <v>4640</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M63" s="16"/>
     </row>
@@ -32563,19 +32699,19 @@
         <v>45994</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F64" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H64" s="13">
         <v>0.63888888888888884</v>
@@ -32586,7 +32722,7 @@
         <v>4400</v>
       </c>
       <c r="L64" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M64" s="16"/>
     </row>
@@ -32598,19 +32734,19 @@
         <v>45994</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F65" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H65" s="13">
         <v>0.67708333333333337</v>
@@ -32621,7 +32757,7 @@
         <v>5500</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M65" s="16"/>
     </row>
@@ -32633,19 +32769,19 @@
         <v>45994</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F66" s="13">
         <v>0.70138888888888884</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H66" s="13">
         <v>0.71875</v>
@@ -32656,7 +32792,7 @@
         <v>5500</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M66" s="16"/>
     </row>
@@ -32668,19 +32804,19 @@
         <v>45994</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F67" s="13">
         <v>0.76041666666666663</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H67" s="13">
         <v>0.79513888888888884</v>
@@ -32691,7 +32827,7 @@
         <v>4640</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M67" s="16"/>
     </row>
@@ -32703,19 +32839,19 @@
         <v>45994</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D68" s="12">
         <v>920</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F68" s="13">
         <v>0.82986111111111116</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H68" s="13">
         <v>0.92013888888888884</v>
@@ -32726,7 +32862,7 @@
         <v>10590</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M68" s="16"/>
     </row>
@@ -32738,17 +32874,17 @@
         <v>45939</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D69" s="12">
         <v>325</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="27"/>
@@ -32757,7 +32893,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M69" s="16"/>
     </row>
@@ -32769,17 +32905,17 @@
         <v>45941</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D70" s="12">
         <v>310</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="27"/>
@@ -32788,11 +32924,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M70" s="16"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -32800,19 +32936,19 @@
         <v>46052</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D71" s="12">
         <v>325</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F71" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H71" s="13">
         <v>0.38541666666666669</v>
@@ -32834,19 +32970,19 @@
         <v>46054</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D72" s="12">
         <v>310</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F72" s="13">
         <v>0.51736111111111116</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H72" s="13">
         <v>0.60763888888888884</v>
@@ -32867,15 +33003,15 @@
         <v>45932</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="27"/>
@@ -32884,7 +33020,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M73" s="16"/>
     </row>
@@ -32896,15 +33032,15 @@
         <v>45951</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="27"/>
@@ -32913,7 +33049,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M74" s="16"/>
     </row>
@@ -32925,15 +33061,15 @@
         <v>45953</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="27"/>
@@ -32942,7 +33078,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M75" s="16"/>
     </row>
@@ -32954,15 +33090,15 @@
         <v>45953</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="27"/>
@@ -32971,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M76" s="16"/>
     </row>
@@ -32983,17 +33119,17 @@
         <v>46030</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F77" s="13">
         <v>0.78819444444444442</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H77" s="13">
         <v>0.87847222222222221</v>
@@ -33004,7 +33140,7 @@
         <v>8810</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M77" s="16"/>
     </row>
@@ -33016,17 +33152,17 @@
         <v>46031</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F78" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H78" s="13">
         <v>0.375</v>
@@ -33037,7 +33173,7 @@
         <v>10800</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M78" s="16"/>
     </row>
@@ -33049,17 +33185,17 @@
         <v>46031</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F79" s="13">
         <v>0.40625</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H79" s="13">
         <v>0.4513888888888889</v>
@@ -33070,7 +33206,7 @@
         <v>4640</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M79" s="16"/>
     </row>
@@ -33082,17 +33218,17 @@
         <v>46031</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F80" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H80" s="13">
         <v>0.52083333333333337</v>
@@ -33103,7 +33239,7 @@
         <v>4640</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M80" s="16"/>
     </row>
@@ -33115,17 +33251,17 @@
         <v>46031</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F81" s="13">
         <v>0.58333333333333337</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H81" s="13">
         <v>0.60763888888888884</v>
@@ -33136,7 +33272,7 @@
         <v>4640</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M81" s="16"/>
     </row>
@@ -33148,17 +33284,17 @@
         <v>46031</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F82" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H82" s="13">
         <v>0.66319444444444442</v>
@@ -33169,7 +33305,7 @@
         <v>4640</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M82" s="16"/>
     </row>
@@ -33181,17 +33317,17 @@
         <v>46031</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F83" s="13">
         <v>0.69444444444444442</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H83" s="13">
         <v>0.73263888888888884</v>
@@ -33202,7 +33338,7 @@
         <v>4640</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M83" s="16"/>
     </row>
@@ -33214,17 +33350,17 @@
         <v>46031</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F84" s="13">
         <v>0.76041666666666663</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H84" s="13">
         <v>0.79513888888888884</v>
@@ -33235,7 +33371,7 @@
         <v>7500</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M84" s="16"/>
     </row>
@@ -33247,17 +33383,17 @@
         <v>46031</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F85" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H85" s="13">
         <v>0.89236111111111116</v>
@@ -33268,7 +33404,7 @@
         <v>8050</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M85" s="16"/>
     </row>
@@ -33280,17 +33416,17 @@
         <v>46032</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F86" s="13">
         <v>0.30555555555555558</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H86" s="13">
         <v>0.33333333333333331</v>
@@ -33301,7 +33437,7 @@
         <v>6490</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M86" s="16"/>
     </row>
@@ -33313,17 +33449,17 @@
         <v>46032</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F87" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H87" s="13">
         <v>0.58333333333333337</v>
@@ -33334,7 +33470,7 @@
         <v>6490</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M87" s="16"/>
     </row>
@@ -33346,17 +33482,17 @@
         <v>46032</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F88" s="13">
         <v>0.59722222222222221</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H88" s="13">
         <v>0.63541666666666663</v>
@@ -33367,7 +33503,7 @@
         <v>6710</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M88" s="16"/>
     </row>
@@ -33379,17 +33515,17 @@
         <v>46032</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F89" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H89" s="13">
         <v>0.70486111111111116</v>
@@ -33400,7 +33536,7 @@
         <v>6710</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M89" s="16"/>
     </row>
@@ -33412,17 +33548,17 @@
         <v>46033</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F90" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H90" s="13">
         <v>0.375</v>
@@ -33433,7 +33569,7 @@
         <v>9150</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M90" s="16"/>
     </row>
@@ -33445,17 +33581,17 @@
         <v>46033</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F91" s="13">
         <v>0.40625</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H91" s="13">
         <v>0.4513888888888889</v>
@@ -33466,7 +33602,7 @@
         <v>5740</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M91" s="16"/>
     </row>
@@ -33478,17 +33614,17 @@
         <v>46033</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F92" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H92" s="13">
         <v>0.52083333333333337</v>
@@ -33499,7 +33635,7 @@
         <v>5740</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M92" s="16"/>
     </row>
@@ -33511,17 +33647,17 @@
         <v>46033</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F93" s="13">
         <v>0.55208333333333337</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H93" s="13">
         <v>0.57986111111111116</v>
@@ -33532,7 +33668,7 @@
         <v>12340</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M93" s="16"/>
     </row>
@@ -33544,17 +33680,17 @@
         <v>46033</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F94" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H94" s="13">
         <v>0.625</v>
@@ -33565,7 +33701,7 @@
         <v>12340</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M94" s="16"/>
     </row>
@@ -33577,17 +33713,17 @@
         <v>46033</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F95" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H95" s="13">
         <v>0.67708333333333337</v>
@@ -33598,7 +33734,7 @@
         <v>10910</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M95" s="16"/>
     </row>
@@ -33610,17 +33746,17 @@
         <v>46033</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F96" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H96" s="13">
         <v>0.72222222222222221</v>
@@ -33631,7 +33767,7 @@
         <v>4640</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M96" s="16"/>
     </row>
@@ -33643,17 +33779,17 @@
         <v>46033</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F97" s="13">
         <v>0.79166666666666663</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H97" s="13">
         <v>0.88194444444444442</v>
@@ -33664,11 +33800,11 @@
         <v>10590</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M97" s="16"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -33676,17 +33812,17 @@
         <v>46046</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F98" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H98" s="13">
         <v>0.38541666666666669</v>
@@ -33699,7 +33835,7 @@
       <c r="L98" s="16"/>
       <c r="M98" s="16"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -33707,17 +33843,17 @@
         <v>46046</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F99" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H99" s="13">
         <v>0.49305555555555558</v>
@@ -33730,7 +33866,7 @@
       <c r="L99" s="16"/>
       <c r="M99" s="16"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -33738,17 +33874,17 @@
         <v>46046</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F100" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H100" s="13">
         <v>0.55555555555555558</v>
@@ -33761,7 +33897,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -33769,17 +33905,17 @@
         <v>46046</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F101" s="13">
         <v>0.59375</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H101" s="13">
         <v>0.63541666666666663</v>
@@ -33792,7 +33928,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -33800,17 +33936,17 @@
         <v>46046</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F102" s="13">
         <v>0.65625</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H102" s="13">
         <v>0.70138888888888884</v>
@@ -33823,7 +33959,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -33831,17 +33967,17 @@
         <v>46046</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F103" s="13">
         <v>0.87152777777777779</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H103" s="13">
         <v>0.96180555555555558</v>
@@ -33862,15 +33998,15 @@
         <v>45981</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="27"/>
@@ -33879,7 +34015,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M104" s="16"/>
     </row>
@@ -33891,15 +34027,15 @@
         <v>45983</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="27"/>
@@ -33908,7 +34044,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M105" s="16"/>
     </row>
@@ -33920,15 +34056,15 @@
         <v>45985</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="27"/>
@@ -33937,7 +34073,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M106" s="16"/>
     </row>
@@ -33949,15 +34085,15 @@
         <v>45986</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="27"/>
@@ -33966,7 +34102,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M107" s="16"/>
     </row>
@@ -33978,15 +34114,15 @@
         <v>45987</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="27"/>
@@ -33995,7 +34131,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M108" s="16"/>
     </row>
@@ -34007,15 +34143,15 @@
         <v>45988</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="27"/>
@@ -34024,7 +34160,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M109" s="16"/>
     </row>
@@ -34036,15 +34172,15 @@
         <v>45992</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="27"/>
@@ -34053,7 +34189,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M110" s="16"/>
     </row>
@@ -34065,15 +34201,15 @@
         <v>45993</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="27"/>
@@ -34082,7 +34218,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M111" s="16"/>
     </row>
@@ -34094,19 +34230,19 @@
         <v>46059</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D112" s="12">
         <v>303</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F112" s="13">
         <v>0.2673611111111111</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H112" s="13">
         <v>0.35416666666666669</v>
@@ -34127,19 +34263,19 @@
         <v>46059</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D113" s="12">
         <v>3581</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F113" s="13">
         <v>0.37847222222222221</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H113" s="13">
         <v>0.41319444444444442</v>
@@ -34160,19 +34296,19 @@
         <v>46059</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D114" s="12">
         <v>3582</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F114" s="13">
         <v>0.43402777777777779</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H114" s="13">
         <v>0.47916666666666669</v>
@@ -34193,17 +34329,17 @@
         <v>46059</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F115" s="13">
         <v>0.49305555555555558</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H115" s="13">
         <v>0.52777777777777779</v>
@@ -34224,17 +34360,17 @@
         <v>46059</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F116" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H116" s="13">
         <v>0.58333333333333337</v>
@@ -34255,19 +34391,19 @@
         <v>46059</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D117" s="12">
         <v>3653</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F117" s="13">
         <v>0.59722222222222221</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H117" s="13">
         <v>0.63541666666666663</v>
@@ -34288,19 +34424,19 @@
         <v>46059</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D118" s="12">
         <v>3654</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F118" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H118" s="13">
         <v>0.70486111111111116</v>
@@ -34321,19 +34457,19 @@
         <v>46059</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D119" s="12">
         <v>63</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F119" s="13">
         <v>0.73263888888888884</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H119" s="13">
         <v>0.80902777777777779</v>
@@ -34354,19 +34490,19 @@
         <v>46059</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D120" s="12">
         <v>62</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F120" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H120" s="13">
         <v>0.89236111111111116</v>
@@ -34389,13 +34525,13 @@
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F121" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H121" s="13">
         <v>0.34722222222222221</v>
@@ -34416,19 +34552,19 @@
         <v>46060</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D122" s="12">
         <v>3831</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F122" s="13">
         <v>0.3923611111111111</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H122" s="13">
         <v>0.40625</v>
@@ -34449,19 +34585,19 @@
         <v>46060</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D123" s="12">
         <v>3830</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F123" s="13">
         <v>0.42708333333333331</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H123" s="13">
         <v>0.44097222222222221</v>
@@ -34484,13 +34620,13 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F124" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H124" s="13">
         <v>0.47916666666666669</v>
@@ -34513,13 +34649,13 @@
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F125" s="13">
         <v>0.5</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H125" s="13">
         <v>0.51736111111111116</v>
@@ -34542,13 +34678,13 @@
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F126" s="13">
         <v>0.53819444444444442</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H126" s="13">
         <v>0.57291666666666663</v>
@@ -34571,13 +34707,13 @@
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F127" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H127" s="13">
         <v>0.64236111111111116</v>
@@ -34600,13 +34736,13 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F128" s="13">
         <v>0.67013888888888884</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H128" s="13">
         <v>0.70486111111111116</v>
@@ -34629,13 +34765,13 @@
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F129" s="13">
         <v>0.72222222222222221</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H129" s="13">
         <v>0.74652777777777779</v>
@@ -34658,13 +34794,13 @@
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F130" s="13">
         <v>0.76736111111111116</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H130" s="13">
         <v>0.79513888888888884</v>
@@ -34685,19 +34821,19 @@
         <v>46060</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D131" s="12">
         <v>62</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F131" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H131" s="13">
         <v>0.89236111111111116</v>
@@ -34720,13 +34856,13 @@
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F132" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H132" s="13">
         <v>0.37847222222222221</v>
@@ -34747,19 +34883,19 @@
         <v>46061</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D133" s="12">
         <v>873</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F133" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H133" s="13">
         <v>0.43402777777777779</v>
@@ -34780,19 +34916,19 @@
         <v>46061</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D134" s="12">
         <v>874</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F134" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H134" s="13">
         <v>0.4826388888888889</v>
@@ -34813,19 +34949,19 @@
         <v>46061</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D135" s="12">
         <v>559</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F135" s="13">
         <v>0.50694444444444442</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H135" s="13">
         <v>0.54861111111111116</v>
@@ -34848,13 +34984,13 @@
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F136" s="13">
         <v>0.57291666666666663</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H136" s="13">
         <v>0.60763888888888884</v>
@@ -34877,13 +35013,13 @@
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F137" s="13">
         <v>0.625</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H137" s="13">
         <v>0.67013888888888884</v>
@@ -34906,13 +35042,13 @@
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F138" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H138" s="13">
         <v>0.76388888888888884</v>
@@ -34935,13 +35071,13 @@
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F139" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H139" s="13">
         <v>0.83680555555555558</v>
@@ -34964,13 +35100,13 @@
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F140" s="13">
         <v>0.87152777777777779</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H140" s="13">
         <v>0.96180555555555558</v>
@@ -34991,19 +35127,19 @@
         <v>46063</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D141" s="12">
         <v>331</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F141" s="13">
         <v>0.77777777777777779</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H141" s="13">
         <v>0.86111111111111116</v>
@@ -35024,19 +35160,19 @@
         <v>46064</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D142" s="12">
         <v>51</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F142" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H142" s="13">
         <v>0.37847222222222221</v>
@@ -35059,13 +35195,13 @@
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F143" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H143" s="13">
         <v>0.4548611111111111</v>
@@ -35088,13 +35224,13 @@
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F144" s="13">
         <v>0.4826388888888889</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H144" s="13">
         <v>0.52430555555555558</v>
@@ -35115,19 +35251,19 @@
         <v>46064</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D145" s="12">
         <v>727</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F145" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H145" s="13">
         <v>0.67708333333333337</v>
@@ -35150,13 +35286,13 @@
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F146" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H146" s="13">
         <v>0.71875</v>
@@ -35177,19 +35313,19 @@
         <v>46064</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D147" s="12">
         <v>974</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F147" s="13">
         <v>0.80902777777777779</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H147" s="13">
         <v>0.91666666666666663</v>
@@ -35210,19 +35346,19 @@
         <v>46074</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D148" s="12">
         <v>325</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F148" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H148" s="13">
         <v>0.74652777777777779</v>
@@ -35235,7 +35371,7 @@
       </c>
       <c r="L148" s="16"/>
       <c r="M148" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:13" hidden="1">
@@ -35246,19 +35382,19 @@
         <v>46074</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D149" s="12">
         <v>3639</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F149" s="13">
         <v>0.80208333333333337</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H149" s="13">
         <v>0.83333333333333337</v>
@@ -35279,19 +35415,19 @@
         <v>46074</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D150" s="12">
         <v>3642</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F150" s="13">
         <v>0.85763888888888884</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H150" s="13">
         <v>0.89583333333333337</v>
@@ -35312,19 +35448,19 @@
         <v>46075</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D151" s="12">
         <v>51</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F151" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H151" s="13">
         <v>0.37847222222222221</v>
@@ -35347,13 +35483,13 @@
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F152" s="13">
         <v>0.44791666666666669</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H152" s="13">
         <v>0.49305555555555558</v>
@@ -35376,13 +35512,13 @@
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F153" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H153" s="13">
         <v>0.5625</v>
@@ -35403,19 +35539,19 @@
         <v>46075</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D154" s="12">
         <v>563</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F154" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H154" s="13">
         <v>0.64236111111111116</v>
@@ -35436,19 +35572,19 @@
         <v>46075</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D155" s="12">
         <v>897</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F155" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H155" s="13">
         <v>0.67708333333333337</v>
@@ -35469,19 +35605,19 @@
         <v>46075</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D156" s="12">
         <v>898</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F156" s="13">
         <v>0.70138888888888884</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H156" s="13">
         <v>0.71875</v>
@@ -35502,19 +35638,19 @@
         <v>46075</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D157" s="12">
         <v>839</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F157" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H157" s="13">
         <v>0.76041666666666663</v>
@@ -35535,19 +35671,19 @@
         <v>46075</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D158" s="12">
         <v>974</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F158" s="13">
         <v>0.80902777777777779</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H158" s="13">
         <v>0.91666666666666663</v>
@@ -35568,19 +35704,19 @@
         <v>46078</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D159" s="12">
         <v>303</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F159" s="13">
         <v>0.2673611111111111</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H159" s="13">
         <v>0.35416666666666669</v>
@@ -35601,19 +35737,19 @@
         <v>46078</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D160" s="12">
         <v>3581</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F160" s="13">
         <v>0.37847222222222221</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H160" s="13">
         <v>0.41319444444444442</v>
@@ -35634,19 +35770,19 @@
         <v>46078</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D161" s="12">
         <v>3582</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F161" s="13">
         <v>0.43402777777777779</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H161" s="13">
         <v>0.47916666666666669</v>
@@ -35667,19 +35803,19 @@
         <v>46078</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D162" s="12">
         <v>57</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F162" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H162" s="13">
         <v>0.625</v>
@@ -35700,19 +35836,19 @@
         <v>46078</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D163" s="12">
         <v>565</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F163" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H163" s="13">
         <v>0.69097222222222221</v>
@@ -35733,19 +35869,19 @@
         <v>46078</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D164" s="12">
         <v>564</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F164" s="13">
         <v>0.71875</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H164" s="13">
         <v>0.75347222222222221</v>
@@ -35766,19 +35902,19 @@
         <v>46078</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D165" s="12">
         <v>920</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F165" s="13">
         <v>0.82986111111111116</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H165" s="13">
         <v>0.92013888888888884</v>
@@ -35799,15 +35935,15 @@
         <v>46012</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="27"/>
@@ -35816,7 +35952,7 @@
         <v>0</v>
       </c>
       <c r="L166" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M166" s="16"/>
     </row>
@@ -35828,15 +35964,15 @@
         <v>46013</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="27"/>
@@ -35845,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M167" s="16"/>
     </row>
@@ -35857,15 +35993,15 @@
         <v>46009</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="27"/>
@@ -35874,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M168" s="16"/>
     </row>
@@ -35886,15 +36022,15 @@
         <v>46010</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H169" s="13"/>
       <c r="I169" s="27"/>
@@ -35903,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="L169" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M169" s="16"/>
     </row>
@@ -35915,15 +36051,15 @@
         <v>46037</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="27"/>
@@ -35932,7 +36068,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M170" s="16"/>
     </row>
@@ -35944,15 +36080,15 @@
         <v>46037</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H171" s="13"/>
       <c r="I171" s="27"/>
@@ -35961,7 +36097,7 @@
         <v>0</v>
       </c>
       <c r="L171" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M171" s="16"/>
     </row>
@@ -35973,15 +36109,15 @@
         <v>46028</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="27"/>
@@ -35990,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L172" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M172" s="16"/>
     </row>
@@ -36002,15 +36138,15 @@
         <v>46030</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H173" s="13"/>
       <c r="I173" s="27"/>
@@ -36019,11 +36155,11 @@
         <v>0</v>
       </c>
       <c r="L173" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M173" s="16"/>
     </row>
-    <row r="174" spans="1:13" hidden="1">
+    <row r="174" spans="1:13">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -36031,19 +36167,19 @@
         <v>46091</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F174" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H174" s="13">
         <v>0.38194444444444442</v>
@@ -36056,7 +36192,7 @@
       <c r="L174" s="16"/>
       <c r="M174" s="16"/>
     </row>
-    <row r="175" spans="1:13" hidden="1">
+    <row r="175" spans="1:13">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -36064,19 +36200,19 @@
         <v>46091</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F175" s="13">
         <v>0.40625</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H175" s="13">
         <v>0.44791666666666669</v>
@@ -36089,7 +36225,7 @@
       <c r="L175" s="16"/>
       <c r="M175" s="16"/>
     </row>
-    <row r="176" spans="1:13" hidden="1">
+    <row r="176" spans="1:13">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -36097,19 +36233,19 @@
         <v>46091</v>
       </c>
       <c r="C176" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E176" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E176" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="F176" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H176" s="13">
         <v>0.54513888888888884</v>
@@ -36122,7 +36258,7 @@
       <c r="L176" s="16"/>
       <c r="M176" s="16"/>
     </row>
-    <row r="177" spans="1:13" hidden="1">
+    <row r="177" spans="1:13">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -36130,19 +36266,19 @@
         <v>46091</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F177" s="13">
         <v>0.56597222222222221</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H177" s="13">
         <v>0.58680555555555558</v>
@@ -36155,7 +36291,7 @@
       <c r="L177" s="16"/>
       <c r="M177" s="16"/>
     </row>
-    <row r="178" spans="1:13" hidden="1">
+    <row r="178" spans="1:13">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -36163,19 +36299,19 @@
         <v>46091</v>
       </c>
       <c r="C178" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E178" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="F178" s="13">
         <v>0.61111111111111116</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H178" s="13">
         <v>0.63541666666666663</v>
@@ -36188,7 +36324,7 @@
       <c r="L178" s="16"/>
       <c r="M178" s="16"/>
     </row>
-    <row r="179" spans="1:13" hidden="1">
+    <row r="179" spans="1:13">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -36196,19 +36332,19 @@
         <v>46091</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F179" s="13">
         <v>0.65625</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H179" s="13">
         <v>0.67361111111111116</v>
@@ -36221,7 +36357,7 @@
       <c r="L179" s="16"/>
       <c r="M179" s="16"/>
     </row>
-    <row r="180" spans="1:13" hidden="1">
+    <row r="180" spans="1:13">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -36229,19 +36365,19 @@
         <v>46091</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F180" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H180" s="13">
         <v>0.71527777777777779</v>
@@ -36254,7 +36390,7 @@
       <c r="L180" s="16"/>
       <c r="M180" s="16"/>
     </row>
-    <row r="181" spans="1:13" hidden="1">
+    <row r="181" spans="1:13">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -36262,19 +36398,19 @@
         <v>46091</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F181" s="13">
         <v>0.73611111111111116</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H181" s="13">
         <v>0.75694444444444442</v>
@@ -36287,7 +36423,7 @@
       <c r="L181" s="16"/>
       <c r="M181" s="16"/>
     </row>
-    <row r="182" spans="1:13" hidden="1">
+    <row r="182" spans="1:13">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -36295,19 +36431,19 @@
         <v>46091</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F182" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H182" s="13">
         <v>0.82638888888888884</v>
@@ -36320,7 +36456,7 @@
       <c r="L182" s="16"/>
       <c r="M182" s="16"/>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:13">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -36328,19 +36464,19 @@
         <v>46091</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F183" s="13">
         <v>0.86805555555555558</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H183" s="13">
         <v>0.96180555555555558</v>
@@ -37987,7 +38123,7 @@
     </row>
     <row r="290" spans="10:11">
       <c r="J290" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K290" s="11">
         <f>SUM(テーブル4[料金])</f>
@@ -37996,7 +38132,7 @@
     </row>
     <row r="291" spans="10:11">
       <c r="J291" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K291">
         <f>COUNTA(テーブル4[料金])*5</f>
@@ -38014,7 +38150,7 @@
     </row>
     <row r="293" spans="10:11">
       <c r="J293" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K293" s="42">
         <f>K290/K291</f>
@@ -38023,28 +38159,28 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B305" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E305" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F305" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G305" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H305" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -38052,25 +38188,25 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C306">
         <v>51</v>
       </c>
       <c r="D306" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E306" s="26">
         <v>0.2986111111111111</v>
       </c>
       <c r="F306" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G306" s="26">
         <v>0.36805555555555558</v>
       </c>
       <c r="H306" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -38078,25 +38214,25 @@
         <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C307">
         <v>873</v>
       </c>
       <c r="D307" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E307" s="26">
         <v>0.41319444444444442</v>
       </c>
       <c r="F307" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G307" s="26">
         <v>0.43402777777777779</v>
       </c>
       <c r="H307" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -38104,25 +38240,25 @@
         <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C308">
         <v>874</v>
       </c>
       <c r="D308" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E308" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="F308" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G308" s="26">
         <v>0.4826388888888889</v>
       </c>
       <c r="H308" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -38130,25 +38266,25 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C309">
         <v>609</v>
       </c>
       <c r="D309" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E309" s="26">
         <v>0.53472222222222221</v>
       </c>
       <c r="F309" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G309" s="26">
         <v>0.57291666666666663</v>
       </c>
       <c r="H309" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -38156,25 +38292,25 @@
         <v>5</v>
       </c>
       <c r="B310" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C310">
         <v>614</v>
       </c>
       <c r="D310" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E310" s="26">
         <v>0.60069444444444442</v>
       </c>
       <c r="F310" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G310" s="26">
         <v>0.64583333333333337</v>
       </c>
       <c r="H310" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -38182,25 +38318,25 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C311">
         <v>567</v>
       </c>
       <c r="D311" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E311" s="26">
         <v>0.67361111111111116</v>
       </c>
       <c r="F311" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G311" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="H311" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -38208,25 +38344,25 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C312">
         <v>566</v>
       </c>
       <c r="D312" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E312" s="26">
         <v>0.73611111111111116</v>
       </c>
       <c r="F312" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G312" s="26">
         <v>0.77430555555555558</v>
       </c>
       <c r="H312" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -38234,51 +38370,51 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C313">
         <v>920</v>
       </c>
       <c r="D313" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E313" s="26">
         <v>0.80902777777777779</v>
       </c>
       <c r="F313" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G313" s="26">
         <v>0.91666666666666663</v>
       </c>
       <c r="H313" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B316" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G316" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H316" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -38286,25 +38422,25 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C317">
         <v>51</v>
       </c>
       <c r="D317" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E317" s="26">
         <v>0.2986111111111111</v>
       </c>
       <c r="F317" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G317" s="26">
         <v>0.36805555555555558</v>
       </c>
       <c r="H317" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -38312,25 +38448,25 @@
         <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C318">
         <v>605</v>
       </c>
       <c r="D318" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E318" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="F318" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G318" s="26">
         <v>0.43402777777777779</v>
       </c>
       <c r="H318" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -38338,25 +38474,25 @@
         <v>3</v>
       </c>
       <c r="B319" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C319">
         <v>743</v>
       </c>
       <c r="D319" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E319" s="26">
         <v>0.52430555555555558</v>
       </c>
       <c r="F319" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G319" s="26">
         <v>0.54513888888888884</v>
       </c>
       <c r="H319" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -38364,25 +38500,25 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C320">
         <v>744</v>
       </c>
       <c r="D320" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E320" s="26">
         <v>0.56597222222222221</v>
       </c>
       <c r="F320" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G320" s="26">
         <v>0.58680555555555558</v>
       </c>
       <c r="H320" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -38390,25 +38526,25 @@
         <v>5</v>
       </c>
       <c r="B321" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C321">
         <v>834</v>
       </c>
       <c r="D321" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E321" s="26">
         <v>0.61111111111111116</v>
       </c>
       <c r="F321" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G321" s="26">
         <v>0.63194444444444442</v>
       </c>
       <c r="H321" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -38416,25 +38552,25 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C322">
         <v>564</v>
       </c>
       <c r="D322" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E322" s="26">
         <v>0.69791666666666663</v>
       </c>
       <c r="F322" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G322" s="26">
         <v>0.73611111111111116</v>
       </c>
       <c r="H322" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -38442,25 +38578,25 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C323">
         <v>920</v>
       </c>
       <c r="D323" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E323" s="26">
         <v>0.80902777777777779</v>
       </c>
       <c r="F323" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G323" s="26">
         <v>0.91666666666666663</v>
       </c>
       <c r="H323" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="14.25">
@@ -38468,25 +38604,25 @@
         <v>1</v>
       </c>
       <c r="B325" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C325" s="51">
         <v>901</v>
       </c>
       <c r="D325" s="51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E325" s="52">
         <v>0.27083333333333331</v>
       </c>
       <c r="F325" s="51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G325" s="52">
         <v>0.375</v>
       </c>
       <c r="H325" s="53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I325" s="54"/>
     </row>
@@ -38495,25 +38631,25 @@
         <v>2</v>
       </c>
       <c r="B326" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C326" s="56">
         <v>605</v>
       </c>
       <c r="D326" s="56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E326" s="57">
         <v>0.39930555555555558</v>
       </c>
       <c r="F326" s="56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G326" s="57">
         <v>0.44097222222222221</v>
       </c>
       <c r="H326" s="56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I326" s="58"/>
     </row>
@@ -38522,25 +38658,25 @@
         <v>3</v>
       </c>
       <c r="B327" s="51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C327" s="51">
         <v>743</v>
       </c>
       <c r="D327" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E327" s="52">
         <v>0.52430555555555558</v>
       </c>
       <c r="F327" s="51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G327" s="52">
         <v>0.54513888888888884</v>
       </c>
       <c r="H327" s="51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I327" s="54"/>
     </row>
@@ -38549,25 +38685,25 @@
         <v>4</v>
       </c>
       <c r="B328" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C328" s="56">
         <v>744</v>
       </c>
       <c r="D328" s="56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E328" s="57">
         <v>0.56597222222222221</v>
       </c>
       <c r="F328" s="56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G328" s="57">
         <v>0.58680555555555558</v>
       </c>
       <c r="H328" s="56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I328" s="58"/>
     </row>
@@ -38576,25 +38712,25 @@
         <v>5</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C329" s="51">
         <v>834</v>
       </c>
       <c r="D329" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E329" s="52">
         <v>0.61111111111111116</v>
       </c>
       <c r="F329" s="51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G329" s="52">
         <v>0.63194444444444442</v>
       </c>
       <c r="H329" s="51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I329" s="54"/>
     </row>
@@ -38603,25 +38739,25 @@
         <v>6</v>
       </c>
       <c r="B330" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C330" s="56">
         <v>897</v>
       </c>
       <c r="D330" s="56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E330" s="57">
         <v>0.65277777777777779</v>
       </c>
       <c r="F330" s="56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G330" s="57">
         <v>0.67013888888888884</v>
       </c>
       <c r="H330" s="56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I330" s="58"/>
     </row>
@@ -38630,25 +38766,25 @@
         <v>7</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C331" s="51">
         <v>898</v>
       </c>
       <c r="D331" s="51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E331" s="52">
         <v>0.69444444444444442</v>
       </c>
       <c r="F331" s="51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G331" s="52">
         <v>0.71180555555555558</v>
       </c>
       <c r="H331" s="51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I331" s="54"/>
     </row>
@@ -38657,25 +38793,25 @@
         <v>8</v>
       </c>
       <c r="B332" s="56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C332" s="56">
         <v>572</v>
       </c>
       <c r="D332" s="56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E332" s="57">
         <v>0.74652777777777779</v>
       </c>
       <c r="F332" s="56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G332" s="57">
         <v>0.78472222222222221</v>
       </c>
       <c r="H332" s="56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I332" s="58"/>
     </row>
@@ -38684,25 +38820,25 @@
         <v>9</v>
       </c>
       <c r="B333" s="60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C333" s="60">
         <v>920</v>
       </c>
       <c r="D333" s="60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E333" s="61">
         <v>0.8125</v>
       </c>
       <c r="F333" s="60" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G333" s="61">
         <v>0.91666666666666663</v>
       </c>
       <c r="H333" s="60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I333" s="62"/>
     </row>

--- a/data/20251229_LSP管理.xlsx
+++ b/data/20251229_LSP管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiraizumitatsuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0576A7C3-FE0E-4F49-B79A-A713B8080533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83EAEC79-9122-4C19-8D3D-B1B36D6C31F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイル管理" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="266">
   <si>
     <t>日付</t>
   </si>
@@ -490,6 +490,27 @@
   </si>
   <si>
     <t>JL3623</t>
+  </si>
+  <si>
+    <t>NU0880</t>
+  </si>
+  <si>
+    <t>NU0879</t>
+  </si>
+  <si>
+    <t>NU0816</t>
+  </si>
+  <si>
+    <t>与論島-沖縄</t>
+  </si>
+  <si>
+    <t>NU0815</t>
+  </si>
+  <si>
+    <t>沖縄-与論島</t>
+  </si>
+  <si>
+    <t>JL0918</t>
   </si>
   <si>
     <t>JL0184</t>
@@ -1972,7 +1993,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>64676</c:v>
+                  <c:v>67624</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32672</c:v>
@@ -1987,7 +2008,7 @@
                   <c:v>4360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14172,11 +14193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57836D-5153-486D-8B76-48FAFDDE1EA1}">
-  <dimension ref="A1:O355"/>
+  <dimension ref="A1:O366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B342" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E362" sqref="E362"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B348" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L354" sqref="L354:M366"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -14576,7 +14597,7 @@
       </c>
       <c r="O12" s="11">
         <f>SUMIFS(H2:H30000, B2:B30000, "*JL*")+SUMIFS(H11:H30000, B11:B30000, "*NU*")</f>
-        <v>64676</v>
+        <v>67624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -14798,7 +14819,7 @@
       </c>
       <c r="O17">
         <f>SUMIFS(H11:H30000, B11:B30000, "*ＪＭＢアプリ*")</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1">
@@ -14990,7 +15011,7 @@
       <c r="N21" s="32"/>
       <c r="O21">
         <f>SUM(O12:O18)</f>
-        <v>80735</v>
+        <v>83687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -26816,7 +26837,7 @@
         <v>582</v>
       </c>
       <c r="I329" s="4">
-        <v>78178</v>
+        <v>65587</v>
       </c>
       <c r="J329" s="73">
         <v>568</v>
@@ -26859,7 +26880,7 @@
         <v>854</v>
       </c>
       <c r="I330" s="4">
-        <v>79032</v>
+        <v>66441</v>
       </c>
       <c r="J330" s="4">
         <v>1184</v>
@@ -26881,7 +26902,7 @@
         <v>46030</v>
       </c>
       <c r="B331" s="75" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C331" s="75"/>
       <c r="D331" s="75"/>
@@ -26890,13 +26911,13 @@
         <v>0</v>
       </c>
       <c r="G331" s="73">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H331" s="73">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I331" s="4">
-        <v>79043</v>
+        <v>66443</v>
       </c>
       <c r="J331" s="73">
         <v>0</v>
@@ -26915,45 +26936,39 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="28">
-        <v>46031</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>46030</v>
+      </c>
+      <c r="B332" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C332" s="75"/>
+      <c r="D332" s="75"/>
+      <c r="E332" s="76"/>
       <c r="F332" s="73">
-        <v>124</v>
-      </c>
-      <c r="G332" s="29">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="G332" s="73">
+        <v>11</v>
       </c>
       <c r="H332" s="73">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="I332" s="4">
-        <v>79297</v>
+        <v>66454</v>
       </c>
       <c r="J332" s="73">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="K332" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L332" s="73">
         <f t="shared" si="32"/>
-        <v>82658</v>
+        <v>82410</v>
       </c>
       <c r="M332" s="73">
         <f t="shared" si="33"/>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -26961,10 +26976,10 @@
         <v>46031</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>42</v>
@@ -26982,7 +26997,7 @@
         <v>254</v>
       </c>
       <c r="I333" s="4">
-        <v>79551</v>
+        <v>66708</v>
       </c>
       <c r="J333" s="73">
         <v>248</v>
@@ -26992,11 +27007,11 @@
       </c>
       <c r="L333" s="73">
         <f t="shared" si="32"/>
-        <v>82906</v>
+        <v>82658</v>
       </c>
       <c r="M333" s="73">
         <f t="shared" si="33"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -27004,10 +27019,10 @@
         <v>46031</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>42</v>
@@ -27016,30 +27031,30 @@
         <v>50</v>
       </c>
       <c r="F334" s="73">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G334" s="29">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="H334" s="73">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="I334" s="4">
-        <v>79874</v>
+        <v>66962</v>
       </c>
       <c r="J334" s="73">
-        <v>466</v>
+        <v>248</v>
       </c>
       <c r="K334" s="73">
         <v>1</v>
       </c>
       <c r="L334" s="73">
         <f t="shared" si="32"/>
-        <v>83372</v>
+        <v>82906</v>
       </c>
       <c r="M334" s="73">
         <f t="shared" si="33"/>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -27047,10 +27062,10 @@
         <v>46031</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>42</v>
@@ -27059,30 +27074,30 @@
         <v>50</v>
       </c>
       <c r="F335" s="73">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="G335" s="29">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="H335" s="73">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="I335" s="4">
-        <v>80056</v>
+        <v>67285</v>
       </c>
       <c r="J335" s="73">
-        <v>178</v>
+        <v>466</v>
       </c>
       <c r="K335" s="73">
         <v>1</v>
       </c>
       <c r="L335" s="73">
         <f t="shared" si="32"/>
-        <v>83550</v>
+        <v>83372</v>
       </c>
       <c r="M335" s="73">
         <f t="shared" si="33"/>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -27090,10 +27105,10 @@
         <v>46031</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>42</v>
@@ -27102,30 +27117,30 @@
         <v>50</v>
       </c>
       <c r="F336" s="73">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G336" s="29">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="H336" s="73">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="I336" s="4">
-        <v>80118</v>
+        <v>67467</v>
       </c>
       <c r="J336" s="73">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="K336" s="73">
         <v>1</v>
       </c>
       <c r="L336" s="73">
         <f t="shared" si="32"/>
-        <v>83610</v>
+        <v>83550</v>
       </c>
       <c r="M336" s="73">
         <f t="shared" si="33"/>
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="337" spans="1:13">
@@ -27133,10 +27148,10 @@
         <v>46031</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>42</v>
@@ -27154,7 +27169,7 @@
         <v>62</v>
       </c>
       <c r="I337" s="4">
-        <v>80180</v>
+        <v>67529</v>
       </c>
       <c r="J337" s="73">
         <v>60</v>
@@ -27164,11 +27179,11 @@
       </c>
       <c r="L337" s="73">
         <f t="shared" si="32"/>
-        <v>83670</v>
+        <v>83610</v>
       </c>
       <c r="M337" s="73">
         <f t="shared" si="33"/>
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -27176,10 +27191,10 @@
         <v>46031</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>42</v>
@@ -27188,30 +27203,30 @@
         <v>50</v>
       </c>
       <c r="F338" s="73">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="G338" s="29">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="H338" s="73">
-        <v>551</v>
+        <v>62</v>
       </c>
       <c r="I338" s="4">
-        <v>80731</v>
+        <v>67591</v>
       </c>
       <c r="J338" s="73">
-        <v>538</v>
+        <v>60</v>
       </c>
       <c r="K338" s="73">
         <v>1</v>
       </c>
       <c r="L338" s="73">
         <f t="shared" si="32"/>
-        <v>84208</v>
+        <v>83670</v>
       </c>
       <c r="M338" s="73">
         <f t="shared" si="33"/>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -27219,10 +27234,10 @@
         <v>46031</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>42</v>
@@ -27231,59 +27246,65 @@
         <v>50</v>
       </c>
       <c r="F339" s="73">
-        <v>403</v>
+        <v>269</v>
       </c>
       <c r="G339" s="29">
-        <v>826</v>
-      </c>
-      <c r="H339" s="4">
-        <v>1229</v>
+        <v>282</v>
+      </c>
+      <c r="H339" s="73">
+        <v>551</v>
       </c>
       <c r="I339" s="4">
-        <v>81960</v>
-      </c>
-      <c r="J339" s="4">
-        <v>1006</v>
+        <v>68142</v>
+      </c>
+      <c r="J339" s="73">
+        <v>538</v>
       </c>
       <c r="K339" s="73">
         <v>1</v>
       </c>
       <c r="L339" s="73">
         <f t="shared" si="32"/>
-        <v>85214</v>
+        <v>84208</v>
       </c>
       <c r="M339" s="73">
         <f t="shared" si="33"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="340" spans="1:13">
       <c r="A340" s="28">
         <v>46031</v>
       </c>
-      <c r="B340" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C340" s="75"/>
-      <c r="D340" s="75"/>
-      <c r="E340" s="76"/>
+      <c r="B340" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F340" s="73">
-        <v>0</v>
-      </c>
-      <c r="G340" s="73">
-        <v>9</v>
-      </c>
-      <c r="H340" s="73">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="G340" s="29">
+        <v>826</v>
+      </c>
+      <c r="H340" s="4">
+        <v>1229</v>
       </c>
       <c r="I340" s="4">
-        <v>81969</v>
-      </c>
-      <c r="J340" s="73">
-        <v>0</v>
+        <v>69371</v>
+      </c>
+      <c r="J340" s="4">
+        <v>1006</v>
       </c>
       <c r="K340" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L340" s="73">
         <f t="shared" si="32"/>
@@ -27296,45 +27317,39 @@
     </row>
     <row r="341" spans="1:13">
       <c r="A341" s="28">
-        <v>46032</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>46031</v>
+      </c>
+      <c r="B341" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C341" s="75"/>
+      <c r="D341" s="75"/>
+      <c r="E341" s="76"/>
       <c r="F341" s="73">
-        <v>63</v>
-      </c>
-      <c r="G341" s="29">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="G341" s="73">
+        <v>9</v>
       </c>
       <c r="H341" s="73">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="I341" s="4">
-        <v>82098</v>
+        <v>69380</v>
       </c>
       <c r="J341" s="73">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="K341" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L341" s="73">
         <f t="shared" si="32"/>
-        <v>85340</v>
+        <v>85214</v>
       </c>
       <c r="M341" s="73">
         <f t="shared" si="33"/>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -27342,10 +27357,10 @@
         <v>46032</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>42</v>
@@ -27363,7 +27378,7 @@
         <v>129</v>
       </c>
       <c r="I342" s="4">
-        <v>82227</v>
+        <v>69509</v>
       </c>
       <c r="J342" s="73">
         <v>126</v>
@@ -27373,11 +27388,11 @@
       </c>
       <c r="L342" s="73">
         <f t="shared" si="32"/>
-        <v>85466</v>
+        <v>85340</v>
       </c>
       <c r="M342" s="73">
         <f t="shared" si="33"/>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -27385,10 +27400,10 @@
         <v>46032</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>42</v>
@@ -27397,30 +27412,30 @@
         <v>50</v>
       </c>
       <c r="F343" s="73">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G343" s="29">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="H343" s="73">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="I343" s="4">
-        <v>82478</v>
+        <v>69638</v>
       </c>
       <c r="J343" s="73">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="K343" s="73">
         <v>1</v>
       </c>
       <c r="L343" s="73">
         <f t="shared" si="32"/>
-        <v>85862</v>
+        <v>85466</v>
       </c>
       <c r="M343" s="73">
         <f t="shared" si="33"/>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -27428,10 +27443,10 @@
         <v>46032</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>42</v>
@@ -27449,7 +27464,7 @@
         <v>251</v>
       </c>
       <c r="I344" s="4">
-        <v>82729</v>
+        <v>69889</v>
       </c>
       <c r="J344" s="73">
         <v>396</v>
@@ -27459,40 +27474,46 @@
       </c>
       <c r="L344" s="73">
         <f t="shared" si="32"/>
-        <v>86258</v>
+        <v>85862</v>
       </c>
       <c r="M344" s="73">
         <f t="shared" si="33"/>
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="345" spans="1:13">
       <c r="A345" s="28">
         <v>46032</v>
       </c>
-      <c r="B345" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C345" s="75"/>
-      <c r="D345" s="75"/>
-      <c r="E345" s="76"/>
+      <c r="B345" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F345" s="73">
-        <v>0</v>
-      </c>
-      <c r="G345" s="73">
-        <v>9</v>
+        <v>98</v>
+      </c>
+      <c r="G345" s="29">
+        <v>153</v>
       </c>
       <c r="H345" s="73">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="I345" s="4">
-        <v>82738</v>
+        <v>70140</v>
       </c>
       <c r="J345" s="73">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="K345" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L345" s="73">
         <f t="shared" si="32"/>
@@ -27505,7 +27526,7 @@
     </row>
     <row r="346" spans="1:13">
       <c r="A346" s="28">
-        <v>46033</v>
+        <v>46032</v>
       </c>
       <c r="B346" s="75" t="s">
         <v>33</v>
@@ -27517,13 +27538,13 @@
         <v>0</v>
       </c>
       <c r="G346" s="73">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="H346" s="73">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I346" s="4">
-        <v>82817</v>
+        <v>70149</v>
       </c>
       <c r="J346" s="73">
         <v>0</v>
@@ -27541,353 +27562,820 @@
       </c>
     </row>
     <row r="347" spans="1:13">
-      <c r="A347" s="30">
-        <v>46034</v>
-      </c>
-      <c r="B347" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C347" s="77"/>
-      <c r="D347" s="77"/>
-      <c r="E347" s="78"/>
-      <c r="F347" s="74">
-        <v>0</v>
-      </c>
-      <c r="G347" s="74">
-        <v>61</v>
-      </c>
-      <c r="H347" s="74">
-        <v>61</v>
-      </c>
-      <c r="I347" s="31">
-        <v>82878</v>
-      </c>
-      <c r="J347" s="74">
-        <v>0</v>
-      </c>
-      <c r="K347" s="74">
-        <v>0</v>
+      <c r="A347" s="28">
+        <v>46033</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F347" s="73">
+        <v>30</v>
+      </c>
+      <c r="G347" s="29">
+        <v>32</v>
+      </c>
+      <c r="H347" s="73">
+        <v>62</v>
+      </c>
+      <c r="I347" s="4">
+        <v>70211</v>
+      </c>
+      <c r="J347" s="73">
+        <v>60</v>
+      </c>
+      <c r="K347" s="73">
+        <v>1</v>
       </c>
       <c r="L347" s="73">
         <f t="shared" si="32"/>
-        <v>86258</v>
+        <v>86318</v>
       </c>
       <c r="M347" s="73">
         <f t="shared" si="33"/>
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="348" spans="1:13">
       <c r="A348" s="28">
-        <v>46035</v>
-      </c>
-      <c r="B348" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C348" s="75"/>
-      <c r="D348" s="75"/>
-      <c r="E348" s="76"/>
-      <c r="F348" s="4">
-        <v>12624</v>
-      </c>
-      <c r="G348" s="73">
-        <v>0</v>
-      </c>
-      <c r="H348" s="4">
-        <v>12624</v>
-      </c>
-      <c r="I348" s="31">
-        <v>82878</v>
-      </c>
-      <c r="J348" s="74">
-        <v>0</v>
-      </c>
-      <c r="K348" s="74">
-        <v>0</v>
+        <v>46033</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F348" s="73">
+        <v>44</v>
+      </c>
+      <c r="G348" s="29">
+        <v>96</v>
+      </c>
+      <c r="H348" s="73">
+        <v>140</v>
+      </c>
+      <c r="I348" s="4">
+        <v>70351</v>
+      </c>
+      <c r="J348" s="73">
+        <v>288</v>
+      </c>
+      <c r="K348" s="73">
+        <v>1</v>
       </c>
       <c r="L348" s="73">
         <f t="shared" ref="L348:L352" si="34">J348+L347</f>
-        <v>86258</v>
+        <v>86606</v>
       </c>
       <c r="M348" s="73">
         <f t="shared" ref="M348:M352" si="35">K348+M347</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="349" spans="1:13">
       <c r="A349" s="28">
-        <v>46035</v>
-      </c>
-      <c r="B349" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C349" s="75"/>
-      <c r="D349" s="75"/>
-      <c r="E349" s="76"/>
+        <v>46033</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F349" s="73">
-        <v>0</v>
-      </c>
-      <c r="G349" s="73">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="G349" s="29">
+        <v>39</v>
       </c>
       <c r="H349" s="73">
-        <v>8</v>
-      </c>
-      <c r="I349" s="31">
-        <v>82878</v>
-      </c>
-      <c r="J349" s="74">
-        <v>0</v>
-      </c>
-      <c r="K349" s="74">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="I349" s="4">
+        <v>70427</v>
+      </c>
+      <c r="J349" s="73">
+        <v>74</v>
+      </c>
+      <c r="K349" s="73">
+        <v>1</v>
       </c>
       <c r="L349" s="73">
         <f t="shared" si="34"/>
-        <v>86258</v>
+        <v>86680</v>
       </c>
       <c r="M349" s="73">
         <f t="shared" si="35"/>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="350" spans="1:13">
       <c r="A350" s="28">
-        <v>46036</v>
-      </c>
-      <c r="B350" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C350" s="75"/>
-      <c r="D350" s="75"/>
-      <c r="E350" s="76"/>
+        <v>46033</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F350" s="73">
-        <v>0</v>
-      </c>
-      <c r="G350" s="73">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="G350" s="29">
+        <v>39</v>
       </c>
       <c r="H350" s="73">
-        <v>13</v>
-      </c>
-      <c r="I350" s="31">
-        <v>82878</v>
-      </c>
-      <c r="J350" s="74">
-        <v>0</v>
-      </c>
-      <c r="K350" s="74">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="I350" s="4">
+        <v>70503</v>
+      </c>
+      <c r="J350" s="73">
+        <v>74</v>
+      </c>
+      <c r="K350" s="73">
+        <v>1</v>
       </c>
       <c r="L350" s="73">
         <f t="shared" si="34"/>
-        <v>86258</v>
+        <v>86754</v>
       </c>
       <c r="M350" s="73">
         <f t="shared" si="35"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="351" spans="1:13">
       <c r="A351" s="28">
-        <v>46037</v>
-      </c>
-      <c r="B351" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C351" s="75"/>
-      <c r="D351" s="75"/>
-      <c r="E351" s="76"/>
+        <v>46033</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F351" s="73">
-        <v>0</v>
-      </c>
-      <c r="G351" s="73">
-        <v>8</v>
+        <v>124</v>
+      </c>
+      <c r="G351" s="29">
+        <v>130</v>
       </c>
       <c r="H351" s="73">
-        <v>8</v>
-      </c>
-      <c r="I351" s="31">
-        <v>82878</v>
-      </c>
-      <c r="J351" s="74">
-        <v>0</v>
-      </c>
-      <c r="K351" s="74">
-        <v>0</v>
+        <v>254</v>
+      </c>
+      <c r="I351" s="4">
+        <v>70757</v>
+      </c>
+      <c r="J351" s="73">
+        <v>248</v>
+      </c>
+      <c r="K351" s="73">
+        <v>1</v>
       </c>
       <c r="L351" s="73">
         <f t="shared" si="34"/>
-        <v>86258</v>
+        <v>87002</v>
       </c>
       <c r="M351" s="73">
         <f t="shared" si="35"/>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="352" spans="1:13">
       <c r="A352" s="28">
-        <v>46038</v>
+        <v>46033</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F352" s="73">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="G352" s="29">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="H352" s="73">
-        <v>526</v>
+        <v>254</v>
       </c>
       <c r="I352" s="4">
-        <v>86418</v>
+        <v>71011</v>
       </c>
       <c r="J352" s="73">
-        <v>864</v>
+        <v>248</v>
       </c>
       <c r="K352" s="73">
         <v>1</v>
       </c>
       <c r="L352" s="73">
         <f t="shared" si="34"/>
-        <v>87122</v>
+        <v>87250</v>
       </c>
       <c r="M352" s="73">
         <f t="shared" si="35"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:13">
       <c r="A353" s="28">
-        <v>46038</v>
-      </c>
-      <c r="B353" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C353" s="75"/>
-      <c r="D353" s="75"/>
-      <c r="E353" s="76"/>
+        <v>46033</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F353" s="73">
-        <v>0</v>
-      </c>
-      <c r="G353" s="73">
-        <v>6</v>
+        <v>269</v>
+      </c>
+      <c r="G353" s="29">
+        <v>282</v>
       </c>
       <c r="H353" s="73">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="I353" s="4">
-        <v>86424</v>
+        <v>71562</v>
       </c>
       <c r="J353" s="73">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="K353" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L353" s="73">
         <f t="shared" ref="L353:L355" si="36">J353+L352</f>
-        <v>87122</v>
+        <v>87788</v>
       </c>
       <c r="M353" s="73">
         <f t="shared" ref="M353:M355" si="37">K353+M352</f>
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="354" spans="1:13">
       <c r="A354" s="28">
-        <v>46039</v>
-      </c>
-      <c r="B354" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C354" s="75"/>
-      <c r="D354" s="75"/>
-      <c r="E354" s="76"/>
+        <v>46033</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F354" s="73">
-        <v>0</v>
-      </c>
-      <c r="G354" s="73">
-        <v>7</v>
-      </c>
-      <c r="H354" s="73">
-        <v>7</v>
+        <v>492</v>
+      </c>
+      <c r="G354" s="29">
+        <v>517</v>
+      </c>
+      <c r="H354" s="4">
+        <v>1009</v>
       </c>
       <c r="I354" s="4">
-        <v>86431</v>
+        <v>72571</v>
       </c>
       <c r="J354" s="73">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="K354" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L354" s="73">
         <f t="shared" si="36"/>
-        <v>87122</v>
+        <v>88772</v>
       </c>
       <c r="M354" s="73">
         <f t="shared" si="37"/>
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="355" spans="1:13">
-      <c r="A355" s="30">
-        <v>46040</v>
-      </c>
-      <c r="B355" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C355" s="77"/>
-      <c r="D355" s="77"/>
-      <c r="E355" s="78"/>
-      <c r="F355" s="74">
-        <v>0</v>
-      </c>
-      <c r="G355" s="74">
-        <v>19</v>
-      </c>
-      <c r="H355" s="74">
-        <v>19</v>
-      </c>
-      <c r="I355" s="31">
-        <v>86450</v>
-      </c>
-      <c r="J355" s="74">
-        <v>0</v>
-      </c>
-      <c r="K355" s="74">
+      <c r="A355" s="28">
+        <v>46033</v>
+      </c>
+      <c r="B355" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C355" s="75"/>
+      <c r="D355" s="75"/>
+      <c r="E355" s="76"/>
+      <c r="F355" s="73">
+        <v>0</v>
+      </c>
+      <c r="G355" s="73">
+        <v>2</v>
+      </c>
+      <c r="H355" s="73">
+        <v>2</v>
+      </c>
+      <c r="I355" s="4">
+        <v>72573</v>
+      </c>
+      <c r="J355" s="73">
+        <v>0</v>
+      </c>
+      <c r="K355" s="73">
         <v>0</v>
       </c>
       <c r="L355" s="73">
         <f t="shared" si="36"/>
-        <v>87122</v>
+        <v>88772</v>
       </c>
       <c r="M355" s="73">
         <f t="shared" si="37"/>
-        <v>85</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13">
+      <c r="A356" s="28">
+        <v>46033</v>
+      </c>
+      <c r="B356" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C356" s="75"/>
+      <c r="D356" s="75"/>
+      <c r="E356" s="76"/>
+      <c r="F356" s="73">
+        <v>0</v>
+      </c>
+      <c r="G356" s="73">
+        <v>79</v>
+      </c>
+      <c r="H356" s="73">
+        <v>79</v>
+      </c>
+      <c r="I356" s="4">
+        <v>72652</v>
+      </c>
+      <c r="J356" s="73">
+        <v>0</v>
+      </c>
+      <c r="K356" s="73">
+        <v>0</v>
+      </c>
+      <c r="L356" s="73">
+        <f t="shared" ref="L356:L366" si="38">J356+L355</f>
+        <v>88772</v>
+      </c>
+      <c r="M356" s="73">
+        <f t="shared" ref="M356:M366" si="39">K356+M355</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13">
+      <c r="A357" s="28">
+        <v>46034</v>
+      </c>
+      <c r="B357" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C357" s="75"/>
+      <c r="D357" s="75"/>
+      <c r="E357" s="76"/>
+      <c r="F357" s="73">
+        <v>0</v>
+      </c>
+      <c r="G357" s="73">
+        <v>61</v>
+      </c>
+      <c r="H357" s="73">
+        <v>61</v>
+      </c>
+      <c r="I357" s="4">
+        <v>72713</v>
+      </c>
+      <c r="J357" s="73">
+        <v>0</v>
+      </c>
+      <c r="K357" s="73">
+        <v>0</v>
+      </c>
+      <c r="L357" s="73">
+        <f t="shared" si="38"/>
+        <v>88772</v>
+      </c>
+      <c r="M357" s="73">
+        <f t="shared" si="39"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13">
+      <c r="A358" s="28">
+        <v>46035</v>
+      </c>
+      <c r="B358" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C358" s="75"/>
+      <c r="D358" s="75"/>
+      <c r="E358" s="76"/>
+      <c r="F358" s="4">
+        <v>12624</v>
+      </c>
+      <c r="G358" s="73">
+        <v>0</v>
+      </c>
+      <c r="H358" s="4">
+        <v>12624</v>
+      </c>
+      <c r="I358" s="4">
+        <v>85337</v>
+      </c>
+      <c r="J358" s="73">
+        <v>0</v>
+      </c>
+      <c r="K358" s="73">
+        <v>0</v>
+      </c>
+      <c r="L358" s="73">
+        <f t="shared" si="38"/>
+        <v>88772</v>
+      </c>
+      <c r="M358" s="73">
+        <f t="shared" si="39"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
+      <c r="A359" s="28">
+        <v>46035</v>
+      </c>
+      <c r="B359" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C359" s="75"/>
+      <c r="D359" s="75"/>
+      <c r="E359" s="76"/>
+      <c r="F359" s="73">
+        <v>0</v>
+      </c>
+      <c r="G359" s="73">
+        <v>8</v>
+      </c>
+      <c r="H359" s="73">
+        <v>8</v>
+      </c>
+      <c r="I359" s="4">
+        <v>85345</v>
+      </c>
+      <c r="J359" s="73">
+        <v>0</v>
+      </c>
+      <c r="K359" s="73">
+        <v>0</v>
+      </c>
+      <c r="L359" s="73">
+        <f t="shared" si="38"/>
+        <v>88772</v>
+      </c>
+      <c r="M359" s="73">
+        <f t="shared" si="39"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
+      <c r="A360" s="28">
+        <v>46036</v>
+      </c>
+      <c r="B360" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C360" s="75"/>
+      <c r="D360" s="75"/>
+      <c r="E360" s="76"/>
+      <c r="F360" s="73">
+        <v>0</v>
+      </c>
+      <c r="G360" s="73">
+        <v>13</v>
+      </c>
+      <c r="H360" s="73">
+        <v>13</v>
+      </c>
+      <c r="I360" s="4">
+        <v>85358</v>
+      </c>
+      <c r="J360" s="73">
+        <v>0</v>
+      </c>
+      <c r="K360" s="73">
+        <v>0</v>
+      </c>
+      <c r="L360" s="73">
+        <f t="shared" si="38"/>
+        <v>88772</v>
+      </c>
+      <c r="M360" s="73">
+        <f t="shared" si="39"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
+      <c r="A361" s="28">
+        <v>46037</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F361" s="73">
+        <v>232</v>
+      </c>
+      <c r="G361" s="29">
+        <v>294</v>
+      </c>
+      <c r="H361" s="73">
+        <v>526</v>
+      </c>
+      <c r="I361" s="4">
+        <v>85884</v>
+      </c>
+      <c r="J361" s="73">
+        <v>864</v>
+      </c>
+      <c r="K361" s="73">
+        <v>1</v>
+      </c>
+      <c r="L361" s="73">
+        <f t="shared" si="38"/>
+        <v>89636</v>
+      </c>
+      <c r="M361" s="73">
+        <f t="shared" si="39"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
+      <c r="A362" s="28">
+        <v>46037</v>
+      </c>
+      <c r="B362" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C362" s="75"/>
+      <c r="D362" s="75"/>
+      <c r="E362" s="76"/>
+      <c r="F362" s="73">
+        <v>0</v>
+      </c>
+      <c r="G362" s="73">
+        <v>8</v>
+      </c>
+      <c r="H362" s="73">
+        <v>8</v>
+      </c>
+      <c r="I362" s="4">
+        <v>85892</v>
+      </c>
+      <c r="J362" s="73">
+        <v>0</v>
+      </c>
+      <c r="K362" s="73">
+        <v>0</v>
+      </c>
+      <c r="L362" s="73">
+        <f t="shared" si="38"/>
+        <v>89636</v>
+      </c>
+      <c r="M362" s="73">
+        <f t="shared" si="39"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13">
+      <c r="A363" s="28">
+        <v>46038</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F363" s="73">
+        <v>232</v>
+      </c>
+      <c r="G363" s="29">
+        <v>294</v>
+      </c>
+      <c r="H363" s="73">
+        <v>526</v>
+      </c>
+      <c r="I363" s="4">
+        <v>86418</v>
+      </c>
+      <c r="J363" s="73">
+        <v>864</v>
+      </c>
+      <c r="K363" s="73">
+        <v>1</v>
+      </c>
+      <c r="L363" s="73">
+        <f t="shared" si="38"/>
+        <v>90500</v>
+      </c>
+      <c r="M363" s="73">
+        <f t="shared" si="39"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13">
+      <c r="A364" s="28">
+        <v>46038</v>
+      </c>
+      <c r="B364" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C364" s="75"/>
+      <c r="D364" s="75"/>
+      <c r="E364" s="76"/>
+      <c r="F364" s="73">
+        <v>0</v>
+      </c>
+      <c r="G364" s="73">
+        <v>6</v>
+      </c>
+      <c r="H364" s="73">
+        <v>6</v>
+      </c>
+      <c r="I364" s="4">
+        <v>86424</v>
+      </c>
+      <c r="J364" s="73">
+        <v>0</v>
+      </c>
+      <c r="K364" s="73">
+        <v>0</v>
+      </c>
+      <c r="L364" s="73">
+        <f t="shared" si="38"/>
+        <v>90500</v>
+      </c>
+      <c r="M364" s="73">
+        <f t="shared" si="39"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13">
+      <c r="A365" s="28">
+        <v>46039</v>
+      </c>
+      <c r="B365" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C365" s="75"/>
+      <c r="D365" s="75"/>
+      <c r="E365" s="76"/>
+      <c r="F365" s="73">
+        <v>0</v>
+      </c>
+      <c r="G365" s="73">
+        <v>7</v>
+      </c>
+      <c r="H365" s="73">
+        <v>7</v>
+      </c>
+      <c r="I365" s="4">
+        <v>86431</v>
+      </c>
+      <c r="J365" s="73">
+        <v>0</v>
+      </c>
+      <c r="K365" s="73">
+        <v>0</v>
+      </c>
+      <c r="L365" s="73">
+        <f t="shared" si="38"/>
+        <v>90500</v>
+      </c>
+      <c r="M365" s="73">
+        <f t="shared" si="39"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13">
+      <c r="A366" s="30">
+        <v>46040</v>
+      </c>
+      <c r="B366" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C366" s="77"/>
+      <c r="D366" s="77"/>
+      <c r="E366" s="78"/>
+      <c r="F366" s="74">
+        <v>0</v>
+      </c>
+      <c r="G366" s="74">
+        <v>19</v>
+      </c>
+      <c r="H366" s="74">
+        <v>19</v>
+      </c>
+      <c r="I366" s="31">
+        <v>86450</v>
+      </c>
+      <c r="J366" s="74">
+        <v>0</v>
+      </c>
+      <c r="K366" s="74">
+        <v>0</v>
+      </c>
+      <c r="L366" s="73">
+        <f t="shared" si="38"/>
+        <v>90500</v>
+      </c>
+      <c r="M366" s="73">
+        <f t="shared" si="39"/>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="247">
-    <mergeCell ref="B353:E353"/>
-    <mergeCell ref="B354:E354"/>
+  <mergeCells count="249">
+    <mergeCell ref="B360:E360"/>
+    <mergeCell ref="B362:E362"/>
+    <mergeCell ref="B364:E364"/>
+    <mergeCell ref="B365:E365"/>
+    <mergeCell ref="B366:E366"/>
     <mergeCell ref="B355:E355"/>
-    <mergeCell ref="B340:E340"/>
-    <mergeCell ref="B345:E345"/>
+    <mergeCell ref="B332:E332"/>
+    <mergeCell ref="B341:E341"/>
+    <mergeCell ref="B356:E356"/>
+    <mergeCell ref="B357:E357"/>
+    <mergeCell ref="B358:E358"/>
+    <mergeCell ref="B359:E359"/>
     <mergeCell ref="B346:E346"/>
-    <mergeCell ref="B347:E347"/>
     <mergeCell ref="B320:E320"/>
     <mergeCell ref="B321:E321"/>
     <mergeCell ref="B322:E322"/>
@@ -28105,10 +28593,6 @@
     <mergeCell ref="B295:E295"/>
     <mergeCell ref="B296:E296"/>
     <mergeCell ref="B297:E297"/>
-    <mergeCell ref="B348:E348"/>
-    <mergeCell ref="B349:E349"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B351:E351"/>
     <mergeCell ref="B299:E299"/>
     <mergeCell ref="B300:E300"/>
     <mergeCell ref="B301:E301"/>
@@ -28192,24 +28676,33 @@
     <hyperlink ref="G305" r:id="rId60" display="496" xr:uid="{CE1EC726-F747-4176-9FAA-CCC924835C53}"/>
     <hyperlink ref="G310" r:id="rId61" display="496" xr:uid="{612BA483-DA23-4BD4-A82A-D474FD75E4A1}"/>
     <hyperlink ref="G325" r:id="rId62" display="462" xr:uid="{FCFC1091-5EDC-4DF5-9C90-0460662F3FA3}"/>
-    <hyperlink ref="G329" r:id="rId63" display="298" xr:uid="{F850575B-7DE9-4822-8FBE-6D564CA233E3}"/>
-    <hyperlink ref="G330" r:id="rId64" display="462" xr:uid="{040BADC4-2316-4E8C-BBC3-4FFAAAB42DD4}"/>
-    <hyperlink ref="G332" r:id="rId65" display="130" xr:uid="{701F38CB-3321-4814-9192-61CA5FDC88C0}"/>
-    <hyperlink ref="G333" r:id="rId66" display="130" xr:uid="{DE4CE633-252B-4EF1-84AB-3C8F0A117B41}"/>
-    <hyperlink ref="G334" r:id="rId67" display="190" xr:uid="{4D333353-0368-4E06-9900-AA13870485AF}"/>
-    <hyperlink ref="G335" r:id="rId68" display="93" xr:uid="{07DC400A-1941-4A71-8C3D-D99EED71D887}"/>
-    <hyperlink ref="G336" r:id="rId69" display="32" xr:uid="{1FB3492D-BD2E-4533-B40E-A05827A2B6E4}"/>
-    <hyperlink ref="G337" r:id="rId70" display="32" xr:uid="{91A7EDBA-C4C0-491A-AAD7-8E232F9676B3}"/>
-    <hyperlink ref="G338" r:id="rId71" display="282" xr:uid="{E2E81669-8CF1-419C-A5BA-3352A61F708E}"/>
-    <hyperlink ref="G339" r:id="rId72" display="826" xr:uid="{8079D086-FF38-43C5-A522-EE3091C12A58}"/>
-    <hyperlink ref="G341" r:id="rId73" display="66" xr:uid="{61AAFE17-7601-402B-8E71-14D81AD58CB7}"/>
-    <hyperlink ref="G342" r:id="rId74" display="66" xr:uid="{04026D42-5461-474A-B7DE-38403BD0C699}"/>
-    <hyperlink ref="G343" r:id="rId75" display="153" xr:uid="{FED91E3D-E009-4EAB-9AF4-5B39552C5B2E}"/>
-    <hyperlink ref="G344" r:id="rId76" display="153" xr:uid="{98E30EB0-68DB-4DD6-97CA-14636715BA42}"/>
-    <hyperlink ref="G352" r:id="rId77" display="294" xr:uid="{5638190E-687C-4ABC-B15A-8BBA2F18587D}"/>
+    <hyperlink ref="G329" r:id="rId63" display="298" xr:uid="{F0E45CC2-4156-4273-8EB1-DC3BDF4AFB63}"/>
+    <hyperlink ref="G330" r:id="rId64" display="462" xr:uid="{EDCCCF19-F232-4698-A46B-C6819AB8C2A8}"/>
+    <hyperlink ref="G333" r:id="rId65" display="130" xr:uid="{2833A82D-8B3F-4246-B210-26EAFC2F92C9}"/>
+    <hyperlink ref="G334" r:id="rId66" display="130" xr:uid="{CDC147C2-A450-41AA-BA2D-E67CB864F1F5}"/>
+    <hyperlink ref="G335" r:id="rId67" display="190" xr:uid="{1DFB2F0E-F4A1-4A5A-AA09-28CAD3FF085A}"/>
+    <hyperlink ref="G336" r:id="rId68" display="93" xr:uid="{B2B7489E-9426-4135-9933-A3BE416C1D65}"/>
+    <hyperlink ref="G337" r:id="rId69" display="32" xr:uid="{1C958404-6817-4A74-8B79-63CD0AD49058}"/>
+    <hyperlink ref="G338" r:id="rId70" display="32" xr:uid="{B07F1054-6988-4F7A-80C9-F32CE554EC75}"/>
+    <hyperlink ref="G339" r:id="rId71" display="282" xr:uid="{3F2206CC-33D7-47FA-A15E-0AF47A4D4D12}"/>
+    <hyperlink ref="G340" r:id="rId72" display="826" xr:uid="{50F332D3-ABE9-4D06-909F-E166B5834278}"/>
+    <hyperlink ref="G342" r:id="rId73" display="66" xr:uid="{BF18FF5F-0CBA-454A-8871-38128355A52B}"/>
+    <hyperlink ref="G343" r:id="rId74" display="66" xr:uid="{9CE7613A-F029-47B1-A14F-4D8076FBD551}"/>
+    <hyperlink ref="G344" r:id="rId75" display="153" xr:uid="{F5BD1B42-242B-4A1E-A03A-D90BE712E48E}"/>
+    <hyperlink ref="G345" r:id="rId76" display="153" xr:uid="{7EC9F8B9-3822-4B64-8692-E28797ECE244}"/>
+    <hyperlink ref="G347" r:id="rId77" display="32" xr:uid="{96D04083-4925-4140-A149-B7657BC2D125}"/>
+    <hyperlink ref="G348" r:id="rId78" display="96" xr:uid="{8E6022E4-7B5B-4993-81C7-6F351AA9ED32}"/>
+    <hyperlink ref="G349" r:id="rId79" display="39" xr:uid="{B2BFEA9F-CA10-47DD-AAE0-506717654464}"/>
+    <hyperlink ref="G350" r:id="rId80" display="39" xr:uid="{87A96518-5AAE-416E-8945-DAE692907F84}"/>
+    <hyperlink ref="G351" r:id="rId81" display="130" xr:uid="{799D5A4F-A372-4CBF-96C7-F845EA08B93B}"/>
+    <hyperlink ref="G352" r:id="rId82" display="130" xr:uid="{189C2C5D-2FE1-4EC3-AB4B-DF09736B16DF}"/>
+    <hyperlink ref="G353" r:id="rId83" display="282" xr:uid="{E8C83F92-1A34-4A8B-9473-F1EB89B9B47F}"/>
+    <hyperlink ref="G354" r:id="rId84" display="517" xr:uid="{10E5D9AF-6293-495B-96FA-4A778C9662FB}"/>
+    <hyperlink ref="G361" r:id="rId85" display="294" xr:uid="{CED30346-5FD9-4636-9527-FDE3C4E68EC1}"/>
+    <hyperlink ref="G363" r:id="rId86" display="294" xr:uid="{B2446DA2-22B9-4971-BAF1-D11D82C91345}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId78"/>
+  <drawing r:id="rId87"/>
 </worksheet>
 </file>
 
@@ -28239,22 +28732,22 @@
   <sheetData>
     <row r="2" spans="2:10" ht="17.25">
       <c r="B2" s="36" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75">
@@ -28279,7 +28772,7 @@
         <v>777</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J4">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL国内線*")</f>
@@ -28297,7 +28790,7 @@
         <v>777</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="J5">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL国際線*")</f>
@@ -28315,7 +28808,7 @@
         <v>777</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J6">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JALカード*")</f>
@@ -28333,7 +28826,7 @@
         <v>777</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J7">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JALモバイル*")</f>
@@ -28351,7 +28844,7 @@
         <v>777</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J8">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JAL Wellness &amp; Travel*")</f>
@@ -28369,7 +28862,7 @@
         <v>777</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J9">
         <f>SUMIFS(F3:F30058,D3:D30058, "*JALマイレージパーク*")</f>
@@ -28387,7 +28880,7 @@
         <v>777</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J10">
         <f>SUMIFS(F3:F30058,D3:D30058, "*その他*")</f>
@@ -28405,7 +28898,7 @@
         <v>777</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J11">
         <f>SUM(J4:J10)</f>
@@ -28561,13 +29054,13 @@
         <v>46039</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F24" s="47">
         <v>5</v>
@@ -28583,13 +29076,13 @@
         <v>46037</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F25" s="47">
         <v>1</v>
@@ -28605,13 +29098,13 @@
         <v>46035</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F26" s="47">
         <v>40</v>
@@ -28627,13 +29120,13 @@
         <v>46034</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F27" s="47">
         <v>20</v>
@@ -28649,13 +29142,13 @@
         <v>46033</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F28" s="47">
         <v>30</v>
@@ -28674,13 +29167,13 @@
         <v>46033</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F29" s="47">
         <v>40</v>
@@ -28695,13 +29188,13 @@
         <v>46032</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F30" s="47">
         <v>10</v>
@@ -28716,13 +29209,13 @@
         <v>46030</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F31" s="47">
         <v>5</v>
@@ -28737,13 +29230,13 @@
         <v>46016</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F32" s="47">
         <v>5</v>
@@ -28758,13 +29251,13 @@
         <v>46014</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F33" s="47">
         <v>5</v>
@@ -28779,13 +29272,13 @@
         <v>46012</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F34" s="47">
         <v>1</v>
@@ -28800,13 +29293,13 @@
         <v>46012</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F35" s="47">
         <v>5</v>
@@ -28821,13 +29314,13 @@
         <v>46011</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F36" s="47">
         <v>5</v>
@@ -28842,13 +29335,13 @@
         <v>46008</v>
       </c>
       <c r="C37" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>156</v>
-      </c>
       <c r="E37" s="47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F37" s="47">
         <v>1</v>
@@ -28863,13 +29356,13 @@
         <v>46006</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F38" s="47">
         <v>1</v>
@@ -28884,13 +29377,13 @@
         <v>46002</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F39" s="47">
         <v>10</v>
@@ -28905,13 +29398,13 @@
         <v>45996</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F40" s="47">
         <v>45</v>
@@ -28926,13 +29419,13 @@
         <v>45995</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F41" s="47">
         <v>5</v>
@@ -28947,13 +29440,13 @@
         <v>45994</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F42" s="47">
         <v>5</v>
@@ -28968,13 +29461,13 @@
         <v>45990</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F43" s="47">
         <v>5</v>
@@ -28989,13 +29482,13 @@
         <v>45989</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F44" s="47">
         <v>5</v>
@@ -29010,13 +29503,13 @@
         <v>45988</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F45" s="47">
         <v>18</v>
@@ -29031,13 +29524,13 @@
         <v>45988</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F46" s="47">
         <v>5</v>
@@ -29052,13 +29545,13 @@
         <v>45987</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F47" s="47">
         <v>5</v>
@@ -29073,13 +29566,13 @@
         <v>45985</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F48" s="47">
         <v>5</v>
@@ -29094,13 +29587,13 @@
         <v>45983</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F49" s="47">
         <v>5</v>
@@ -29115,13 +29608,13 @@
         <v>45982</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F50" s="47">
         <v>1</v>
@@ -29136,13 +29629,13 @@
         <v>45978</v>
       </c>
       <c r="C51" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="47" t="s">
-        <v>156</v>
-      </c>
       <c r="E51" s="47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F51" s="47">
         <v>1</v>
@@ -29157,13 +29650,13 @@
         <v>45976</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F52" s="47">
         <v>1</v>
@@ -29178,13 +29671,13 @@
         <v>45972</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F53" s="47">
         <v>20</v>
@@ -29199,13 +29692,13 @@
         <v>45960</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F54" s="47">
         <v>10</v>
@@ -29220,13 +29713,13 @@
         <v>45956</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F55" s="47">
         <v>5</v>
@@ -29241,13 +29734,13 @@
         <v>45955</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F56" s="47">
         <v>5</v>
@@ -29262,13 +29755,13 @@
         <v>45953</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F57" s="47">
         <v>5</v>
@@ -29283,13 +29776,13 @@
         <v>45952</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F58" s="47">
         <v>1</v>
@@ -29304,13 +29797,13 @@
         <v>45951</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F59" s="47">
         <v>10</v>
@@ -29325,13 +29818,13 @@
         <v>45947</v>
       </c>
       <c r="C60" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="47" t="s">
-        <v>156</v>
-      </c>
       <c r="E60" s="47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F60" s="47">
         <v>1</v>
@@ -29346,13 +29839,13 @@
         <v>45945</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F61" s="47">
         <v>1</v>
@@ -29367,13 +29860,13 @@
         <v>45943</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F62" s="47">
         <v>5</v>
@@ -29388,13 +29881,13 @@
         <v>45941</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F63" s="47">
         <v>15</v>
@@ -29409,13 +29902,13 @@
         <v>45941</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F64" s="47">
         <v>5</v>
@@ -29430,13 +29923,13 @@
         <v>45937</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F65" s="47">
         <v>35</v>
@@ -29451,13 +29944,13 @@
         <v>45936</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F66" s="47">
         <v>5</v>
@@ -29472,13 +29965,13 @@
         <v>45934</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F67" s="47">
         <v>5</v>
@@ -29493,13 +29986,13 @@
         <v>45930</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F68" s="47">
         <v>45</v>
@@ -29514,13 +30007,13 @@
         <v>45929</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E69" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F69" s="47">
         <v>45</v>
@@ -29535,13 +30028,13 @@
         <v>45928</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F70" s="47">
         <v>35</v>
@@ -29556,13 +30049,13 @@
         <v>45919</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E71" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F71" s="47">
         <v>5</v>
@@ -29577,13 +30070,13 @@
         <v>45917</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E72" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F72" s="47">
         <v>5</v>
@@ -29598,13 +30091,13 @@
         <v>45916</v>
       </c>
       <c r="C73" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="47" t="s">
-        <v>156</v>
-      </c>
       <c r="E73" s="47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F73" s="47">
         <v>1</v>
@@ -29619,13 +30112,13 @@
         <v>45915</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F74" s="47">
         <v>1</v>
@@ -29640,13 +30133,13 @@
         <v>45911</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F75" s="47">
         <v>5</v>
@@ -29661,13 +30154,13 @@
         <v>45905</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E76" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F76" s="47">
         <v>5</v>
@@ -29682,13 +30175,13 @@
         <v>45903</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F77" s="47">
         <v>5</v>
@@ -29703,13 +30196,13 @@
         <v>45893</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F78" s="47">
         <v>5</v>
@@ -29724,13 +30217,13 @@
         <v>45892</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E79" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F79" s="47">
         <v>5</v>
@@ -29745,13 +30238,13 @@
         <v>45888</v>
       </c>
       <c r="C80" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="47" t="s">
-        <v>156</v>
-      </c>
       <c r="E80" s="47" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F80" s="47">
         <v>1</v>
@@ -29766,13 +30259,13 @@
         <v>45884</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F81" s="47">
         <v>1</v>
@@ -29787,13 +30280,13 @@
         <v>45877</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E82" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F82" s="47">
         <v>10</v>
@@ -29808,13 +30301,13 @@
         <v>45874</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F83" s="34">
         <v>5</v>
@@ -29829,13 +30322,13 @@
         <v>45873</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F84" s="34">
         <v>5</v>
@@ -29850,13 +30343,13 @@
         <v>45867</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F85" s="34">
         <v>5</v>
@@ -29871,13 +30364,13 @@
         <v>45862</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F86" s="34">
         <v>5</v>
@@ -29892,13 +30385,13 @@
         <v>45838</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F87" s="34">
         <v>5</v>
@@ -29913,13 +30406,13 @@
         <v>45836</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F88" s="34">
         <v>5</v>
@@ -29934,13 +30427,13 @@
         <v>45789</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F89" s="34">
         <v>5</v>
@@ -29955,13 +30448,13 @@
         <v>45786</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F90" s="34">
         <v>5</v>
@@ -29976,13 +30469,13 @@
         <v>45729</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F91" s="34">
         <v>10</v>
@@ -29997,13 +30490,13 @@
         <v>45684</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F92" s="34">
         <v>5</v>
@@ -30018,13 +30511,13 @@
         <v>45682</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D93" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F93" s="34">
         <v>5</v>
@@ -30039,13 +30532,13 @@
         <v>45652</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F94" s="34">
         <v>5</v>
@@ -30060,13 +30553,13 @@
         <v>45649</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F95" s="34">
         <v>5</v>
@@ -30081,13 +30574,13 @@
         <v>45648</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F96" s="34">
         <v>5</v>
@@ -30102,13 +30595,13 @@
         <v>45614</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D97" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F97" s="34">
         <v>5</v>
@@ -30123,13 +30616,13 @@
         <v>45613</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F98" s="34">
         <v>5</v>
@@ -30144,13 +30637,13 @@
         <v>45592</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D99" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F99" s="34">
         <v>5</v>
@@ -30165,13 +30658,13 @@
         <v>45591</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D100" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F100" s="34">
         <v>5</v>
@@ -30186,13 +30679,13 @@
         <v>45514</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D101" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F101" s="34">
         <v>5</v>
@@ -30207,13 +30700,13 @@
         <v>45513</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F102" s="34">
         <v>5</v>
@@ -30228,13 +30721,13 @@
         <v>45335</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F103" s="34">
         <v>20</v>
@@ -30249,13 +30742,13 @@
         <v>45334</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F104" s="34">
         <v>20</v>
@@ -30270,13 +30763,13 @@
         <v>45291</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F105" s="34">
         <v>30</v>
@@ -30291,13 +30784,13 @@
         <v>45291</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D106" s="71" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F106" s="71">
         <v>10</v>
@@ -30482,8 +30975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EF3C4E-F452-4BBC-81DB-9BE6F59D48AA}">
   <dimension ref="A1:M333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G198" sqref="G198"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30494,43 +30987,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="17" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1">
@@ -30541,32 +31034,32 @@
         <v>45926</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D2" s="12">
         <v>305</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F2" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H2" s="13">
         <v>0.375</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="23">
         <v>13320</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M2" s="66"/>
     </row>
@@ -30578,32 +31071,32 @@
         <v>45926</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D3" s="12">
         <v>3563</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F3" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H3" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="23">
         <v>12963</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -30615,32 +31108,32 @@
         <v>45926</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D4" s="12">
         <v>3564</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F4" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H4" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="23">
         <v>12963</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M4" s="16"/>
     </row>
@@ -30652,32 +31145,32 @@
         <v>45926</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D5" s="12">
         <v>3629</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F5" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H5" s="13">
         <v>0.57986111111111116</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="23">
         <v>6171</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M5" s="16"/>
     </row>
@@ -30689,32 +31182,32 @@
         <v>45926</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D6" s="12">
         <v>3630</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F6" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H6" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="23">
         <v>9410</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M6" s="16"/>
     </row>
@@ -30726,32 +31219,32 @@
         <v>45926</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D7" s="24">
         <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F7" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H7" s="13">
         <v>0.73263888888888884</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="23">
         <v>10591</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M7" s="16"/>
     </row>
@@ -30763,32 +31256,32 @@
         <v>45926</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D8" s="24">
         <v>60</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F8" s="13">
         <v>0.76736111111111116</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H8" s="13">
         <v>0.84027777777777779</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="23">
         <v>16965</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -30800,32 +31293,32 @@
         <v>45927</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D9" s="12">
         <v>51</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F9" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H9" s="13">
         <v>0.36805555555555558</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="23">
         <v>16965</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M9" s="16"/>
     </row>
@@ -30837,32 +31330,32 @@
         <v>45927</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D10" s="12">
         <v>605</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F10" s="13">
         <v>0.39930555555555558</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H10" s="13">
         <v>0.44097222222222221</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="23">
         <v>6180</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M10" s="16"/>
     </row>
@@ -30874,32 +31367,32 @@
         <v>45927</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D11" s="12">
         <v>743</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F11" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H11" s="13">
         <v>0.54513888888888884</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="23">
         <v>6583</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M11" s="16"/>
     </row>
@@ -30911,32 +31404,32 @@
         <v>45927</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D12" s="12">
         <v>744</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F12" s="13">
         <v>0.56597222222222221</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H12" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="23">
         <v>6583</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M12" s="16"/>
     </row>
@@ -30948,32 +31441,32 @@
         <v>45927</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D13" s="12">
         <v>834</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F13" s="13">
         <v>0.61111111111111116</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H13" s="13">
         <v>0.63194444444444442</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="23">
         <v>9020</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M13" s="16"/>
     </row>
@@ -30985,32 +31478,32 @@
         <v>45927</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D14" s="12">
         <v>897</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F14" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H14" s="13">
         <v>0.67013888888888884</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="23">
         <v>5434</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M14" s="16"/>
     </row>
@@ -31022,32 +31515,32 @@
         <v>45927</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D15" s="12">
         <v>898</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F15" s="13">
         <v>0.69444444444444442</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H15" s="13">
         <v>0.71180555555555558</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="23">
         <v>5434</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M15" s="16"/>
     </row>
@@ -31059,32 +31552,32 @@
         <v>45927</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D16" s="12">
         <v>566</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F16" s="13">
         <v>0.74652777777777779</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H16" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="23">
         <v>6290</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -31096,32 +31589,32 @@
         <v>45927</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D17" s="12">
         <v>62</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F17" s="13">
         <v>0.81597222222222221</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H17" s="13">
         <v>0.89236111111111116</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="23">
         <v>10591</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -31133,32 +31626,32 @@
         <v>45928</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D18" s="12">
         <v>3681</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F18" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H18" s="13">
         <v>0.34375</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="23">
         <v>13860</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -31170,32 +31663,32 @@
         <v>45928</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D19" s="12">
         <v>3831</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F19" s="13">
         <v>0.3923611111111111</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H19" s="13">
         <v>0.40625</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="23">
         <v>5989</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -31207,32 +31700,32 @@
         <v>45928</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D20" s="12">
         <v>3830</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F20" s="13">
         <v>0.42708333333333331</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H20" s="13">
         <v>0.44097222222222221</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="23">
         <v>5989</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -31244,32 +31737,32 @@
         <v>45928</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D21" s="12">
         <v>3841</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F21" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H21" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="23">
         <v>10450</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -31281,32 +31774,32 @@
         <v>45928</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D22" s="12">
         <v>3711</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H22" s="13">
         <v>0.51736111111111116</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="23">
         <v>8580</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -31318,32 +31811,32 @@
         <v>45928</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D23" s="12">
         <v>3716</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F23" s="13">
         <v>0.53819444444444442</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H23" s="13">
         <v>0.57291666666666663</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="23">
         <v>15310</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M23" s="16"/>
     </row>
@@ -31355,32 +31848,32 @@
         <v>45928</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D24" s="12">
         <v>617</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F24" s="13">
         <v>0.61458333333333337</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H24" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="23">
         <v>5883</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M24" s="16"/>
     </row>
@@ -31392,32 +31885,32 @@
         <v>45928</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D25" s="12">
         <v>622</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F25" s="13">
         <v>0.68402777777777779</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H25" s="13">
         <v>0.72569444444444442</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="23">
         <v>5883</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M25" s="16"/>
     </row>
@@ -31429,32 +31922,32 @@
         <v>45928</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D26" s="12">
         <v>918</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F26" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H26" s="13">
         <v>0.88888888888888884</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="23">
         <v>22580</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M26" s="16"/>
     </row>
@@ -31466,19 +31959,19 @@
         <v>45934</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D27" s="12">
         <v>333</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F27" s="13">
         <v>0.80208333333333337</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H27" s="13">
         <v>0.88194444444444442</v>
@@ -31489,7 +31982,7 @@
         <v>13320</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M27" s="16"/>
     </row>
@@ -31501,32 +31994,32 @@
         <v>45935</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D28" s="12">
         <v>51</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F28" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H28" s="13">
         <v>0.37152777777777779</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="23">
         <v>11130</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M28" s="16"/>
     </row>
@@ -31538,32 +32031,32 @@
         <v>45935</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D29" s="12">
         <v>605</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F29" s="13">
         <v>0.40277777777777779</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H29" s="13">
         <v>0.44444444444444442</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="23">
         <v>6180</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M29" s="16"/>
     </row>
@@ -31575,32 +32068,32 @@
         <v>45935</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D30" s="12">
         <v>743</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F30" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H30" s="13">
         <v>0.54513888888888884</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="23">
         <v>6583</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M30" s="16"/>
     </row>
@@ -31612,32 +32105,32 @@
         <v>45935</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D31" s="12">
         <v>744</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F31" s="13">
         <v>0.56944444444444442</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H31" s="13">
         <v>0.59027777777777779</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="23">
         <v>5883</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M31" s="16"/>
     </row>
@@ -31649,32 +32142,32 @@
         <v>45935</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D32" s="12">
         <v>834</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F32" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H32" s="13">
         <v>0.63888888888888884</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="23">
         <v>9570</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M32" s="16"/>
     </row>
@@ -31686,32 +32179,32 @@
         <v>45935</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D33" s="12">
         <v>564</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F33" s="13">
         <v>0.70486111111111116</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H33" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="23">
         <v>6290</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M33" s="16"/>
     </row>
@@ -31723,32 +32216,32 @@
         <v>45935</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D34" s="12">
         <v>920</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F34" s="13">
         <v>0.81944444444444442</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H34" s="13">
         <v>0.91666666666666663</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="23">
         <v>22030</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M34" s="16"/>
     </row>
@@ -31760,19 +32253,19 @@
         <v>45890</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D35" s="12">
         <v>487</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F35" s="13">
         <v>0.84375</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H35" s="13">
         <v>0.89583333333333337</v>
@@ -31783,7 +32276,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M35" s="16"/>
     </row>
@@ -31795,19 +32288,19 @@
         <v>45891</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D36" s="12">
         <v>482</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F36" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H36" s="13">
         <v>0.69791666666666663</v>
@@ -31818,7 +32311,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M36" s="16"/>
     </row>
@@ -31830,19 +32323,19 @@
         <v>45902</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D37" s="12">
         <v>317</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F37" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H37" s="13">
         <v>0.57638888888888884</v>
@@ -31853,7 +32346,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M37" s="16"/>
     </row>
@@ -31865,19 +32358,19 @@
         <v>45903</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D38" s="12">
         <v>300</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F38" s="13">
         <v>0.29166666666666669</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H38" s="13">
         <v>0.3611111111111111</v>
@@ -31888,7 +32381,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M38" s="16"/>
     </row>
@@ -31900,19 +32393,19 @@
         <v>45949</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D39" s="12">
         <v>491</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F39" s="13">
         <v>0.3125</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H39" s="13">
         <v>0.375</v>
@@ -31923,7 +32416,7 @@
         <v>20700</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M39" s="16"/>
     </row>
@@ -31935,19 +32428,19 @@
         <v>45949</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D40" s="12">
         <v>492</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F40" s="13">
         <v>0.40277777777777779</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H40" s="13">
         <v>0.45833333333333331</v>
@@ -31958,7 +32451,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M40" s="16"/>
     </row>
@@ -31970,17 +32463,17 @@
         <v>45589</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D41" s="12">
         <v>319</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="27"/>
@@ -31989,7 +32482,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M41" s="16"/>
     </row>
@@ -32001,17 +32494,17 @@
         <v>45590</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D42" s="12">
         <v>318</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="27"/>
@@ -32020,7 +32513,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M42" s="16"/>
     </row>
@@ -32032,17 +32525,17 @@
         <v>45611</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D43" s="12">
         <v>434</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="27"/>
@@ -32051,7 +32544,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M43" s="16"/>
     </row>
@@ -32063,17 +32556,17 @@
         <v>45612</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D44" s="12">
         <v>431</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="27"/>
@@ -32082,7 +32575,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M44" s="16"/>
     </row>
@@ -32094,17 +32587,17 @@
         <v>45650</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D45" s="12">
         <v>335</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="27"/>
@@ -32113,7 +32606,7 @@
         <v>17640</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M45" s="16"/>
     </row>
@@ -32125,17 +32618,17 @@
         <v>45646</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D46" s="12">
         <v>431</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="27"/>
@@ -32144,7 +32637,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M46" s="16"/>
     </row>
@@ -32156,17 +32649,17 @@
         <v>45647</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D47" s="12">
         <v>432</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="27"/>
@@ -32175,7 +32668,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M47" s="16"/>
     </row>
@@ -32187,17 +32680,17 @@
         <v>45680</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D48" s="12">
         <v>307</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="27"/>
@@ -32206,7 +32699,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -32218,17 +32711,17 @@
         <v>45682</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D49" s="12">
         <v>306</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="27"/>
@@ -32237,7 +32730,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M49" s="16"/>
     </row>
@@ -32249,17 +32742,17 @@
         <v>45727</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D50" s="12">
         <v>330</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="27"/>
@@ -32268,7 +32761,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M50" s="16"/>
     </row>
@@ -32280,17 +32773,17 @@
         <v>45727</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D51" s="12">
         <v>305</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="27"/>
@@ -32299,7 +32792,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M51" s="16"/>
     </row>
@@ -32311,17 +32804,17 @@
         <v>45860</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D52" s="12">
         <v>307</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="27"/>
@@ -32330,7 +32823,7 @@
         <v>13320</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M52" s="16"/>
     </row>
@@ -32342,17 +32835,17 @@
         <v>45865</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D53" s="12">
         <v>300</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="27"/>
@@ -32361,7 +32854,7 @@
         <v>13320</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M53" s="16"/>
     </row>
@@ -32373,17 +32866,17 @@
         <v>45871</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D54" s="12">
         <v>307</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="27"/>
@@ -32392,7 +32885,7 @@
         <v>22845</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M54" s="16"/>
     </row>
@@ -32404,17 +32897,17 @@
         <v>45872</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D55" s="12">
         <v>300</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="27"/>
@@ -32423,7 +32916,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M55" s="16"/>
     </row>
@@ -32435,17 +32928,17 @@
         <v>45875</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D56" s="12">
         <v>307</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="27"/>
@@ -32454,7 +32947,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M56" s="16"/>
     </row>
@@ -32466,17 +32959,17 @@
         <v>45875</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D57" s="12">
         <v>300</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="27"/>
@@ -32485,7 +32978,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M57" s="16"/>
     </row>
@@ -32497,17 +32990,17 @@
         <v>45916</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D58" s="12">
         <v>307</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="27"/>
@@ -32516,7 +33009,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M58" s="16"/>
     </row>
@@ -32528,17 +33021,17 @@
         <v>45918</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D59" s="12">
         <v>302</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="27"/>
@@ -32547,7 +33040,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M59" s="16"/>
     </row>
@@ -32559,19 +33052,19 @@
         <v>45994</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D60" s="12">
         <v>901</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F60" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H60" s="13">
         <v>0.38541666666666669</v>
@@ -32582,7 +33075,7 @@
         <v>10590</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M60" s="16"/>
     </row>
@@ -32594,19 +33087,19 @@
         <v>45994</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F61" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H61" s="13">
         <v>0.43402777777777779</v>
@@ -32617,7 +33110,7 @@
         <v>4640</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M61" s="16"/>
     </row>
@@ -32629,19 +33122,19 @@
         <v>45994</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F62" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H62" s="13">
         <v>0.47916666666666669</v>
@@ -32652,7 +33145,7 @@
         <v>6400</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M62" s="16"/>
     </row>
@@ -32664,19 +33157,19 @@
         <v>45994</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F63" s="13">
         <v>0.52777777777777779</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H63" s="13">
         <v>0.57291666666666663</v>
@@ -32687,7 +33180,7 @@
         <v>4640</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M63" s="16"/>
     </row>
@@ -32699,19 +33192,19 @@
         <v>45994</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F64" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H64" s="13">
         <v>0.63888888888888884</v>
@@ -32722,7 +33215,7 @@
         <v>4400</v>
       </c>
       <c r="L64" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M64" s="16"/>
     </row>
@@ -32734,19 +33227,19 @@
         <v>45994</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F65" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H65" s="13">
         <v>0.67708333333333337</v>
@@ -32757,7 +33250,7 @@
         <v>5500</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M65" s="16"/>
     </row>
@@ -32769,19 +33262,19 @@
         <v>45994</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F66" s="13">
         <v>0.70138888888888884</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H66" s="13">
         <v>0.71875</v>
@@ -32792,7 +33285,7 @@
         <v>5500</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M66" s="16"/>
     </row>
@@ -32804,19 +33297,19 @@
         <v>45994</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F67" s="13">
         <v>0.76041666666666663</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H67" s="13">
         <v>0.79513888888888884</v>
@@ -32827,7 +33320,7 @@
         <v>4640</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M67" s="16"/>
     </row>
@@ -32839,19 +33332,19 @@
         <v>45994</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D68" s="12">
         <v>920</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F68" s="13">
         <v>0.82986111111111116</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H68" s="13">
         <v>0.92013888888888884</v>
@@ -32862,7 +33355,7 @@
         <v>10590</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M68" s="16"/>
     </row>
@@ -32874,17 +33367,17 @@
         <v>45939</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D69" s="12">
         <v>325</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="27"/>
@@ -32893,7 +33386,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M69" s="16"/>
     </row>
@@ -32905,17 +33398,17 @@
         <v>45941</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D70" s="12">
         <v>310</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="27"/>
@@ -32924,7 +33417,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M70" s="16"/>
     </row>
@@ -32936,19 +33429,19 @@
         <v>46052</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D71" s="12">
         <v>325</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F71" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H71" s="13">
         <v>0.38541666666666669</v>
@@ -32970,19 +33463,19 @@
         <v>46054</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D72" s="12">
         <v>310</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F72" s="13">
         <v>0.51736111111111116</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H72" s="13">
         <v>0.60763888888888884</v>
@@ -33003,15 +33496,15 @@
         <v>45932</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="27"/>
@@ -33020,7 +33513,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M73" s="16"/>
     </row>
@@ -33032,15 +33525,15 @@
         <v>45951</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="12" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="27"/>
@@ -33049,7 +33542,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M74" s="16"/>
     </row>
@@ -33061,15 +33554,15 @@
         <v>45953</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="27"/>
@@ -33078,7 +33571,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M75" s="16"/>
     </row>
@@ -33090,15 +33583,15 @@
         <v>45953</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="27"/>
@@ -33107,7 +33600,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M76" s="16"/>
     </row>
@@ -33119,17 +33612,17 @@
         <v>46030</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F77" s="13">
         <v>0.78819444444444442</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H77" s="13">
         <v>0.87847222222222221</v>
@@ -33140,7 +33633,7 @@
         <v>8810</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M77" s="16"/>
     </row>
@@ -33152,17 +33645,17 @@
         <v>46031</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F78" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H78" s="13">
         <v>0.375</v>
@@ -33173,7 +33666,7 @@
         <v>10800</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M78" s="16"/>
     </row>
@@ -33185,17 +33678,17 @@
         <v>46031</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F79" s="13">
         <v>0.40625</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H79" s="13">
         <v>0.4513888888888889</v>
@@ -33206,7 +33699,7 @@
         <v>4640</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M79" s="16"/>
     </row>
@@ -33218,17 +33711,17 @@
         <v>46031</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F80" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H80" s="13">
         <v>0.52083333333333337</v>
@@ -33239,7 +33732,7 @@
         <v>4640</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M80" s="16"/>
     </row>
@@ -33251,17 +33744,17 @@
         <v>46031</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F81" s="13">
         <v>0.58333333333333337</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H81" s="13">
         <v>0.60763888888888884</v>
@@ -33272,7 +33765,7 @@
         <v>4640</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M81" s="16"/>
     </row>
@@ -33284,17 +33777,17 @@
         <v>46031</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F82" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H82" s="13">
         <v>0.66319444444444442</v>
@@ -33305,7 +33798,7 @@
         <v>4640</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M82" s="16"/>
     </row>
@@ -33317,17 +33810,17 @@
         <v>46031</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F83" s="13">
         <v>0.69444444444444442</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H83" s="13">
         <v>0.73263888888888884</v>
@@ -33338,7 +33831,7 @@
         <v>4640</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M83" s="16"/>
     </row>
@@ -33350,17 +33843,17 @@
         <v>46031</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F84" s="13">
         <v>0.76041666666666663</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H84" s="13">
         <v>0.79513888888888884</v>
@@ -33371,7 +33864,7 @@
         <v>7500</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M84" s="16"/>
     </row>
@@ -33383,17 +33876,17 @@
         <v>46031</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F85" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H85" s="13">
         <v>0.89236111111111116</v>
@@ -33404,7 +33897,7 @@
         <v>8050</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M85" s="16"/>
     </row>
@@ -33416,17 +33909,17 @@
         <v>46032</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F86" s="13">
         <v>0.30555555555555558</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H86" s="13">
         <v>0.33333333333333331</v>
@@ -33437,7 +33930,7 @@
         <v>6490</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M86" s="16"/>
     </row>
@@ -33449,17 +33942,17 @@
         <v>46032</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F87" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H87" s="13">
         <v>0.58333333333333337</v>
@@ -33470,7 +33963,7 @@
         <v>6490</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M87" s="16"/>
     </row>
@@ -33482,17 +33975,17 @@
         <v>46032</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F88" s="13">
         <v>0.59722222222222221</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H88" s="13">
         <v>0.63541666666666663</v>
@@ -33503,7 +33996,7 @@
         <v>6710</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M88" s="16"/>
     </row>
@@ -33515,17 +34008,17 @@
         <v>46032</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F89" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H89" s="13">
         <v>0.70486111111111116</v>
@@ -33536,7 +34029,7 @@
         <v>6710</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M89" s="16"/>
     </row>
@@ -33548,17 +34041,17 @@
         <v>46033</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F90" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H90" s="13">
         <v>0.375</v>
@@ -33569,7 +34062,7 @@
         <v>9150</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M90" s="16"/>
     </row>
@@ -33581,17 +34074,17 @@
         <v>46033</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F91" s="13">
         <v>0.40625</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H91" s="13">
         <v>0.4513888888888889</v>
@@ -33602,7 +34095,7 @@
         <v>5740</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M91" s="16"/>
     </row>
@@ -33614,17 +34107,17 @@
         <v>46033</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F92" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H92" s="13">
         <v>0.52083333333333337</v>
@@ -33635,7 +34128,7 @@
         <v>5740</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M92" s="16"/>
     </row>
@@ -33647,17 +34140,17 @@
         <v>46033</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F93" s="13">
         <v>0.55208333333333337</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H93" s="13">
         <v>0.57986111111111116</v>
@@ -33668,7 +34161,7 @@
         <v>12340</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M93" s="16"/>
     </row>
@@ -33680,17 +34173,17 @@
         <v>46033</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F94" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H94" s="13">
         <v>0.625</v>
@@ -33701,7 +34194,7 @@
         <v>12340</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M94" s="16"/>
     </row>
@@ -33713,17 +34206,17 @@
         <v>46033</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F95" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H95" s="13">
         <v>0.67708333333333337</v>
@@ -33734,7 +34227,7 @@
         <v>10910</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M95" s="16"/>
     </row>
@@ -33746,17 +34239,17 @@
         <v>46033</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F96" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H96" s="13">
         <v>0.72222222222222221</v>
@@ -33767,7 +34260,7 @@
         <v>4640</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M96" s="16"/>
     </row>
@@ -33779,17 +34272,17 @@
         <v>46033</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F97" s="13">
         <v>0.79166666666666663</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H97" s="13">
         <v>0.88194444444444442</v>
@@ -33800,7 +34293,7 @@
         <v>10590</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M97" s="16"/>
     </row>
@@ -33812,17 +34305,17 @@
         <v>46046</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F98" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H98" s="13">
         <v>0.38541666666666669</v>
@@ -33843,17 +34336,17 @@
         <v>46046</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F99" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H99" s="13">
         <v>0.49305555555555558</v>
@@ -33874,17 +34367,17 @@
         <v>46046</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F100" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H100" s="13">
         <v>0.55555555555555558</v>
@@ -33905,17 +34398,17 @@
         <v>46046</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F101" s="13">
         <v>0.59375</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H101" s="13">
         <v>0.63541666666666663</v>
@@ -33936,17 +34429,17 @@
         <v>46046</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F102" s="13">
         <v>0.65625</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H102" s="13">
         <v>0.70138888888888884</v>
@@ -33967,17 +34460,17 @@
         <v>46046</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F103" s="13">
         <v>0.87152777777777779</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H103" s="13">
         <v>0.96180555555555558</v>
@@ -33998,15 +34491,15 @@
         <v>45981</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="12" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="27"/>
@@ -34015,7 +34508,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M104" s="16"/>
     </row>
@@ -34027,15 +34520,15 @@
         <v>45983</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="27"/>
@@ -34044,7 +34537,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M105" s="16"/>
     </row>
@@ -34056,15 +34549,15 @@
         <v>45985</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="27"/>
@@ -34073,7 +34566,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M106" s="16"/>
     </row>
@@ -34085,15 +34578,15 @@
         <v>45986</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="27"/>
@@ -34102,7 +34595,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M107" s="16"/>
     </row>
@@ -34114,15 +34607,15 @@
         <v>45987</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="27"/>
@@ -34131,7 +34624,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M108" s="16"/>
     </row>
@@ -34143,15 +34636,15 @@
         <v>45988</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="27"/>
@@ -34160,7 +34653,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M109" s="16"/>
     </row>
@@ -34172,15 +34665,15 @@
         <v>45992</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="27"/>
@@ -34189,7 +34682,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M110" s="16"/>
     </row>
@@ -34201,15 +34694,15 @@
         <v>45993</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="27"/>
@@ -34218,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M111" s="16"/>
     </row>
@@ -34230,19 +34723,19 @@
         <v>46059</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D112" s="12">
         <v>303</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F112" s="13">
         <v>0.2673611111111111</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H112" s="13">
         <v>0.35416666666666669</v>
@@ -34263,19 +34756,19 @@
         <v>46059</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D113" s="12">
         <v>3581</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F113" s="13">
         <v>0.37847222222222221</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H113" s="13">
         <v>0.41319444444444442</v>
@@ -34296,19 +34789,19 @@
         <v>46059</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D114" s="12">
         <v>3582</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F114" s="13">
         <v>0.43402777777777779</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H114" s="13">
         <v>0.47916666666666669</v>
@@ -34329,17 +34822,17 @@
         <v>46059</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F115" s="13">
         <v>0.49305555555555558</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H115" s="13">
         <v>0.52777777777777779</v>
@@ -34360,17 +34853,17 @@
         <v>46059</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F116" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H116" s="13">
         <v>0.58333333333333337</v>
@@ -34391,19 +34884,19 @@
         <v>46059</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D117" s="12">
         <v>3653</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F117" s="13">
         <v>0.59722222222222221</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H117" s="13">
         <v>0.63541666666666663</v>
@@ -34424,19 +34917,19 @@
         <v>46059</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D118" s="12">
         <v>3654</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F118" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H118" s="13">
         <v>0.70486111111111116</v>
@@ -34457,19 +34950,19 @@
         <v>46059</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D119" s="12">
         <v>63</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F119" s="13">
         <v>0.73263888888888884</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H119" s="13">
         <v>0.80902777777777779</v>
@@ -34490,19 +34983,19 @@
         <v>46059</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D120" s="12">
         <v>62</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F120" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H120" s="13">
         <v>0.89236111111111116</v>
@@ -34525,13 +35018,13 @@
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F121" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H121" s="13">
         <v>0.34722222222222221</v>
@@ -34552,19 +35045,19 @@
         <v>46060</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D122" s="12">
         <v>3831</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F122" s="13">
         <v>0.3923611111111111</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H122" s="13">
         <v>0.40625</v>
@@ -34585,19 +35078,19 @@
         <v>46060</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D123" s="12">
         <v>3830</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F123" s="13">
         <v>0.42708333333333331</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H123" s="13">
         <v>0.44097222222222221</v>
@@ -34620,13 +35113,13 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F124" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H124" s="13">
         <v>0.47916666666666669</v>
@@ -34649,13 +35142,13 @@
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F125" s="13">
         <v>0.5</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H125" s="13">
         <v>0.51736111111111116</v>
@@ -34678,13 +35171,13 @@
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F126" s="13">
         <v>0.53819444444444442</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H126" s="13">
         <v>0.57291666666666663</v>
@@ -34707,13 +35200,13 @@
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F127" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H127" s="13">
         <v>0.64236111111111116</v>
@@ -34736,13 +35229,13 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F128" s="13">
         <v>0.67013888888888884</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H128" s="13">
         <v>0.70486111111111116</v>
@@ -34765,13 +35258,13 @@
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F129" s="13">
         <v>0.72222222222222221</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H129" s="13">
         <v>0.74652777777777779</v>
@@ -34794,13 +35287,13 @@
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F130" s="13">
         <v>0.76736111111111116</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H130" s="13">
         <v>0.79513888888888884</v>
@@ -34821,19 +35314,19 @@
         <v>46060</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D131" s="12">
         <v>62</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F131" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H131" s="13">
         <v>0.89236111111111116</v>
@@ -34856,13 +35349,13 @@
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F132" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H132" s="13">
         <v>0.37847222222222221</v>
@@ -34883,19 +35376,19 @@
         <v>46061</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D133" s="12">
         <v>873</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F133" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H133" s="13">
         <v>0.43402777777777779</v>
@@ -34916,19 +35409,19 @@
         <v>46061</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D134" s="12">
         <v>874</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F134" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H134" s="13">
         <v>0.4826388888888889</v>
@@ -34949,19 +35442,19 @@
         <v>46061</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D135" s="12">
         <v>559</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F135" s="13">
         <v>0.50694444444444442</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H135" s="13">
         <v>0.54861111111111116</v>
@@ -34984,13 +35477,13 @@
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F136" s="13">
         <v>0.57291666666666663</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H136" s="13">
         <v>0.60763888888888884</v>
@@ -35013,13 +35506,13 @@
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F137" s="13">
         <v>0.625</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H137" s="13">
         <v>0.67013888888888884</v>
@@ -35042,13 +35535,13 @@
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F138" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H138" s="13">
         <v>0.76388888888888884</v>
@@ -35071,13 +35564,13 @@
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F139" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H139" s="13">
         <v>0.83680555555555558</v>
@@ -35100,13 +35593,13 @@
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F140" s="13">
         <v>0.87152777777777779</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H140" s="13">
         <v>0.96180555555555558</v>
@@ -35127,19 +35620,19 @@
         <v>46063</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D141" s="12">
         <v>331</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F141" s="13">
         <v>0.77777777777777779</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H141" s="13">
         <v>0.86111111111111116</v>
@@ -35160,19 +35653,19 @@
         <v>46064</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D142" s="12">
         <v>51</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F142" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H142" s="13">
         <v>0.37847222222222221</v>
@@ -35195,13 +35688,13 @@
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F143" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H143" s="13">
         <v>0.4548611111111111</v>
@@ -35224,13 +35717,13 @@
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F144" s="13">
         <v>0.4826388888888889</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H144" s="13">
         <v>0.52430555555555558</v>
@@ -35251,19 +35744,19 @@
         <v>46064</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D145" s="12">
         <v>727</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F145" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H145" s="13">
         <v>0.67708333333333337</v>
@@ -35286,13 +35779,13 @@
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F146" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H146" s="13">
         <v>0.71875</v>
@@ -35313,19 +35806,19 @@
         <v>46064</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D147" s="12">
         <v>974</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F147" s="13">
         <v>0.80902777777777779</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H147" s="13">
         <v>0.91666666666666663</v>
@@ -35346,19 +35839,19 @@
         <v>46074</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D148" s="12">
         <v>325</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F148" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H148" s="13">
         <v>0.74652777777777779</v>
@@ -35371,7 +35864,7 @@
       </c>
       <c r="L148" s="16"/>
       <c r="M148" s="16" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:13" hidden="1">
@@ -35382,19 +35875,19 @@
         <v>46074</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D149" s="12">
         <v>3639</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F149" s="13">
         <v>0.80208333333333337</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H149" s="13">
         <v>0.83333333333333337</v>
@@ -35415,19 +35908,19 @@
         <v>46074</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D150" s="12">
         <v>3642</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F150" s="13">
         <v>0.85763888888888884</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H150" s="13">
         <v>0.89583333333333337</v>
@@ -35448,19 +35941,19 @@
         <v>46075</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D151" s="12">
         <v>51</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F151" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H151" s="13">
         <v>0.37847222222222221</v>
@@ -35483,13 +35976,13 @@
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F152" s="13">
         <v>0.44791666666666669</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H152" s="13">
         <v>0.49305555555555558</v>
@@ -35512,13 +36005,13 @@
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F153" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H153" s="13">
         <v>0.5625</v>
@@ -35539,19 +36032,19 @@
         <v>46075</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D154" s="12">
         <v>563</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F154" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H154" s="13">
         <v>0.64236111111111116</v>
@@ -35572,19 +36065,19 @@
         <v>46075</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D155" s="12">
         <v>897</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F155" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H155" s="13">
         <v>0.67708333333333337</v>
@@ -35605,19 +36098,19 @@
         <v>46075</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D156" s="12">
         <v>898</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F156" s="13">
         <v>0.70138888888888884</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H156" s="13">
         <v>0.71875</v>
@@ -35638,19 +36131,19 @@
         <v>46075</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D157" s="12">
         <v>839</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F157" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H157" s="13">
         <v>0.76041666666666663</v>
@@ -35671,19 +36164,19 @@
         <v>46075</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D158" s="12">
         <v>974</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F158" s="13">
         <v>0.80902777777777779</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H158" s="13">
         <v>0.91666666666666663</v>
@@ -35704,19 +36197,19 @@
         <v>46078</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D159" s="12">
         <v>303</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F159" s="13">
         <v>0.2673611111111111</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H159" s="13">
         <v>0.35416666666666669</v>
@@ -35737,19 +36230,19 @@
         <v>46078</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D160" s="12">
         <v>3581</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F160" s="13">
         <v>0.37847222222222221</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H160" s="13">
         <v>0.41319444444444442</v>
@@ -35770,19 +36263,19 @@
         <v>46078</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D161" s="12">
         <v>3582</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F161" s="13">
         <v>0.43402777777777779</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H161" s="13">
         <v>0.47916666666666669</v>
@@ -35803,19 +36296,19 @@
         <v>46078</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D162" s="12">
         <v>57</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F162" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H162" s="13">
         <v>0.625</v>
@@ -35836,19 +36329,19 @@
         <v>46078</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D163" s="12">
         <v>565</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F163" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H163" s="13">
         <v>0.69097222222222221</v>
@@ -35869,19 +36362,19 @@
         <v>46078</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D164" s="12">
         <v>564</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F164" s="13">
         <v>0.71875</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H164" s="13">
         <v>0.75347222222222221</v>
@@ -35902,19 +36395,19 @@
         <v>46078</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D165" s="12">
         <v>920</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F165" s="13">
         <v>0.82986111111111116</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H165" s="13">
         <v>0.92013888888888884</v>
@@ -35935,15 +36428,15 @@
         <v>46012</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="27"/>
@@ -35952,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="L166" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M166" s="16"/>
     </row>
@@ -35964,15 +36457,15 @@
         <v>46013</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="27"/>
@@ -35981,7 +36474,7 @@
         <v>0</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M167" s="16"/>
     </row>
@@ -35993,15 +36486,15 @@
         <v>46009</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="27"/>
@@ -36010,7 +36503,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M168" s="16"/>
     </row>
@@ -36022,15 +36515,15 @@
         <v>46010</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H169" s="13"/>
       <c r="I169" s="27"/>
@@ -36039,7 +36532,7 @@
         <v>0</v>
       </c>
       <c r="L169" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M169" s="16"/>
     </row>
@@ -36051,15 +36544,15 @@
         <v>46037</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="27"/>
@@ -36068,7 +36561,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M170" s="16"/>
     </row>
@@ -36080,15 +36573,15 @@
         <v>46037</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H171" s="13"/>
       <c r="I171" s="27"/>
@@ -36097,7 +36590,7 @@
         <v>0</v>
       </c>
       <c r="L171" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M171" s="16"/>
     </row>
@@ -36109,15 +36602,15 @@
         <v>46028</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="12" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="27"/>
@@ -36126,7 +36619,7 @@
         <v>0</v>
       </c>
       <c r="L172" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M172" s="16"/>
     </row>
@@ -36138,15 +36631,15 @@
         <v>46030</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H173" s="13"/>
       <c r="I173" s="27"/>
@@ -36155,7 +36648,7 @@
         <v>0</v>
       </c>
       <c r="L173" s="16" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M173" s="16"/>
     </row>
@@ -36167,19 +36660,19 @@
         <v>46091</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F174" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H174" s="13">
         <v>0.38194444444444442</v>
@@ -36200,19 +36693,19 @@
         <v>46091</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F175" s="13">
         <v>0.40625</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H175" s="13">
         <v>0.44791666666666669</v>
@@ -36233,19 +36726,19 @@
         <v>46091</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F176" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H176" s="13">
         <v>0.54513888888888884</v>
@@ -36266,19 +36759,19 @@
         <v>46091</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F177" s="13">
         <v>0.56597222222222221</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H177" s="13">
         <v>0.58680555555555558</v>
@@ -36299,19 +36792,19 @@
         <v>46091</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F178" s="13">
         <v>0.61111111111111116</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H178" s="13">
         <v>0.63541666666666663</v>
@@ -36332,19 +36825,19 @@
         <v>46091</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F179" s="13">
         <v>0.65625</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H179" s="13">
         <v>0.67361111111111116</v>
@@ -36365,19 +36858,19 @@
         <v>46091</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F180" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H180" s="13">
         <v>0.71527777777777779</v>
@@ -36398,19 +36891,19 @@
         <v>46091</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F181" s="13">
         <v>0.73611111111111116</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H181" s="13">
         <v>0.75694444444444442</v>
@@ -36431,19 +36924,19 @@
         <v>46091</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F182" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H182" s="13">
         <v>0.82638888888888884</v>
@@ -36464,19 +36957,19 @@
         <v>46091</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F183" s="13">
         <v>0.86805555555555558</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H183" s="13">
         <v>0.96180555555555558</v>
@@ -38123,7 +38616,7 @@
     </row>
     <row r="290" spans="10:11">
       <c r="J290" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K290" s="11">
         <f>SUM(テーブル4[料金])</f>
@@ -38132,7 +38625,7 @@
     </row>
     <row r="291" spans="10:11">
       <c r="J291" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K291">
         <f>COUNTA(テーブル4[料金])*5</f>
@@ -38150,7 +38643,7 @@
     </row>
     <row r="293" spans="10:11">
       <c r="J293" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K293" s="42">
         <f>K290/K291</f>
@@ -38159,28 +38652,28 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="25" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B305" s="25" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E305" s="25" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F305" s="25" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G305" s="25" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H305" s="25" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -38188,25 +38681,25 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C306">
         <v>51</v>
       </c>
       <c r="D306" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E306" s="26">
         <v>0.2986111111111111</v>
       </c>
       <c r="F306" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G306" s="26">
         <v>0.36805555555555558</v>
       </c>
       <c r="H306" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -38214,25 +38707,25 @@
         <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C307">
         <v>873</v>
       </c>
       <c r="D307" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E307" s="26">
         <v>0.41319444444444442</v>
       </c>
       <c r="F307" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G307" s="26">
         <v>0.43402777777777779</v>
       </c>
       <c r="H307" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -38240,25 +38733,25 @@
         <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C308">
         <v>874</v>
       </c>
       <c r="D308" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E308" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="F308" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G308" s="26">
         <v>0.4826388888888889</v>
       </c>
       <c r="H308" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -38266,25 +38759,25 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C309">
         <v>609</v>
       </c>
       <c r="D309" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E309" s="26">
         <v>0.53472222222222221</v>
       </c>
       <c r="F309" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G309" s="26">
         <v>0.57291666666666663</v>
       </c>
       <c r="H309" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -38292,25 +38785,25 @@
         <v>5</v>
       </c>
       <c r="B310" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C310">
         <v>614</v>
       </c>
       <c r="D310" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E310" s="26">
         <v>0.60069444444444442</v>
       </c>
       <c r="F310" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G310" s="26">
         <v>0.64583333333333337</v>
       </c>
       <c r="H310" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -38318,25 +38811,25 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C311">
         <v>567</v>
       </c>
       <c r="D311" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E311" s="26">
         <v>0.67361111111111116</v>
       </c>
       <c r="F311" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G311" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="H311" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -38344,25 +38837,25 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C312">
         <v>566</v>
       </c>
       <c r="D312" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E312" s="26">
         <v>0.73611111111111116</v>
       </c>
       <c r="F312" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G312" s="26">
         <v>0.77430555555555558</v>
       </c>
       <c r="H312" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -38370,51 +38863,51 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C313">
         <v>920</v>
       </c>
       <c r="D313" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E313" s="26">
         <v>0.80902777777777779</v>
       </c>
       <c r="F313" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G313" s="26">
         <v>0.91666666666666663</v>
       </c>
       <c r="H313" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="25" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B316" s="25" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G316" s="25" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H316" s="25" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -38422,25 +38915,25 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C317">
         <v>51</v>
       </c>
       <c r="D317" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E317" s="26">
         <v>0.2986111111111111</v>
       </c>
       <c r="F317" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G317" s="26">
         <v>0.36805555555555558</v>
       </c>
       <c r="H317" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -38448,25 +38941,25 @@
         <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C318">
         <v>605</v>
       </c>
       <c r="D318" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E318" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="F318" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G318" s="26">
         <v>0.43402777777777779</v>
       </c>
       <c r="H318" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -38474,25 +38967,25 @@
         <v>3</v>
       </c>
       <c r="B319" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C319">
         <v>743</v>
       </c>
       <c r="D319" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E319" s="26">
         <v>0.52430555555555558</v>
       </c>
       <c r="F319" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G319" s="26">
         <v>0.54513888888888884</v>
       </c>
       <c r="H319" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -38500,25 +38993,25 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C320">
         <v>744</v>
       </c>
       <c r="D320" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E320" s="26">
         <v>0.56597222222222221</v>
       </c>
       <c r="F320" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G320" s="26">
         <v>0.58680555555555558</v>
       </c>
       <c r="H320" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -38526,25 +39019,25 @@
         <v>5</v>
       </c>
       <c r="B321" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C321">
         <v>834</v>
       </c>
       <c r="D321" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E321" s="26">
         <v>0.61111111111111116</v>
       </c>
       <c r="F321" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G321" s="26">
         <v>0.63194444444444442</v>
       </c>
       <c r="H321" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -38552,25 +39045,25 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C322">
         <v>564</v>
       </c>
       <c r="D322" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E322" s="26">
         <v>0.69791666666666663</v>
       </c>
       <c r="F322" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G322" s="26">
         <v>0.73611111111111116</v>
       </c>
       <c r="H322" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -38578,25 +39071,25 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C323">
         <v>920</v>
       </c>
       <c r="D323" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E323" s="26">
         <v>0.80902777777777779</v>
       </c>
       <c r="F323" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G323" s="26">
         <v>0.91666666666666663</v>
       </c>
       <c r="H323" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="14.25">
@@ -38604,25 +39097,25 @@
         <v>1</v>
       </c>
       <c r="B325" s="51" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C325" s="51">
         <v>901</v>
       </c>
       <c r="D325" s="51" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E325" s="52">
         <v>0.27083333333333331</v>
       </c>
       <c r="F325" s="51" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G325" s="52">
         <v>0.375</v>
       </c>
       <c r="H325" s="53" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I325" s="54"/>
     </row>
@@ -38631,25 +39124,25 @@
         <v>2</v>
       </c>
       <c r="B326" s="56" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C326" s="56">
         <v>605</v>
       </c>
       <c r="D326" s="56" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E326" s="57">
         <v>0.39930555555555558</v>
       </c>
       <c r="F326" s="56" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G326" s="57">
         <v>0.44097222222222221</v>
       </c>
       <c r="H326" s="56" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I326" s="58"/>
     </row>
@@ -38658,25 +39151,25 @@
         <v>3</v>
       </c>
       <c r="B327" s="51" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C327" s="51">
         <v>743</v>
       </c>
       <c r="D327" s="51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E327" s="52">
         <v>0.52430555555555558</v>
       </c>
       <c r="F327" s="51" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G327" s="52">
         <v>0.54513888888888884</v>
       </c>
       <c r="H327" s="51" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I327" s="54"/>
     </row>
@@ -38685,25 +39178,25 @@
         <v>4</v>
       </c>
       <c r="B328" s="56" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C328" s="56">
         <v>744</v>
       </c>
       <c r="D328" s="56" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E328" s="57">
         <v>0.56597222222222221</v>
       </c>
       <c r="F328" s="56" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G328" s="57">
         <v>0.58680555555555558</v>
       </c>
       <c r="H328" s="56" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="I328" s="58"/>
     </row>
@@ -38712,25 +39205,25 @@
         <v>5</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C329" s="51">
         <v>834</v>
       </c>
       <c r="D329" s="51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E329" s="52">
         <v>0.61111111111111116</v>
       </c>
       <c r="F329" s="51" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G329" s="52">
         <v>0.63194444444444442</v>
       </c>
       <c r="H329" s="51" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I329" s="54"/>
     </row>
@@ -38739,25 +39232,25 @@
         <v>6</v>
       </c>
       <c r="B330" s="56" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C330" s="56">
         <v>897</v>
       </c>
       <c r="D330" s="56" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E330" s="57">
         <v>0.65277777777777779</v>
       </c>
       <c r="F330" s="56" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G330" s="57">
         <v>0.67013888888888884</v>
       </c>
       <c r="H330" s="56" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="I330" s="58"/>
     </row>
@@ -38766,25 +39259,25 @@
         <v>7</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C331" s="51">
         <v>898</v>
       </c>
       <c r="D331" s="51" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E331" s="52">
         <v>0.69444444444444442</v>
       </c>
       <c r="F331" s="51" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G331" s="52">
         <v>0.71180555555555558</v>
       </c>
       <c r="H331" s="51" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I331" s="54"/>
     </row>
@@ -38793,25 +39286,25 @@
         <v>8</v>
       </c>
       <c r="B332" s="56" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C332" s="56">
         <v>572</v>
       </c>
       <c r="D332" s="56" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E332" s="57">
         <v>0.74652777777777779</v>
       </c>
       <c r="F332" s="56" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G332" s="57">
         <v>0.78472222222222221</v>
       </c>
       <c r="H332" s="56" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I332" s="58"/>
     </row>
@@ -38820,25 +39313,25 @@
         <v>9</v>
       </c>
       <c r="B333" s="60" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C333" s="60">
         <v>920</v>
       </c>
       <c r="D333" s="60" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E333" s="61">
         <v>0.8125</v>
       </c>
       <c r="F333" s="60" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G333" s="61">
         <v>0.91666666666666663</v>
       </c>
       <c r="H333" s="60" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I333" s="62"/>
     </row>

--- a/data/20251229_LSP管理.xlsx
+++ b/data/20251229_LSP管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiraizumitatsuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83EAEC79-9122-4C19-8D3D-B1B36D6C31F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BBC8B9-6EC4-40B1-8238-91FE25497E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイル管理" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="計画" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LSP管理!$B$2:$G$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LSP管理!$B$2:$G$127</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="266">
   <si>
     <t>日付</t>
   </si>
@@ -8255,257 +8255,266 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>LSP管理!$B$3:$B$108</c:f>
+              <c:f>LSP管理!$B$3:$B$127</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="106"/>
-                <c:pt idx="21">
+                <c:ptCount val="125"/>
+                <c:pt idx="37">
+                  <c:v>46044</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46041</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>46039</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>46037</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>46035</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
                   <c:v>46034</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="44">
                   <c:v>46033</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="45">
                   <c:v>46033</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="46">
                   <c:v>46032</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>46030</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>46016</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>46014</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>46012</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>46012</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
                   <c:v>46011</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="53">
                   <c:v>46008</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="54">
                   <c:v>46006</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="55">
                   <c:v>46002</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="56">
                   <c:v>45996</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="57">
                   <c:v>45995</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="58">
                   <c:v>45994</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="59">
                   <c:v>45990</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>45989</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>45988</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>45988</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>45987</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>45985</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>45983</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>45982</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>45978</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>45976</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>45972</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>45960</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>45956</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>45955</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>45953</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>45952</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>45951</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>45947</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>45945</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>45943</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>45941</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>45941</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>45937</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="82">
                   <c:v>45936</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="83">
                   <c:v>45934</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="84">
                   <c:v>45930</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="85">
                   <c:v>45929</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="86">
                   <c:v>45928</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="87">
                   <c:v>45919</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="88">
                   <c:v>45917</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="89">
                   <c:v>45916</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="90">
                   <c:v>45915</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="91">
                   <c:v>45911</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="92">
                   <c:v>45905</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="93">
                   <c:v>45903</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="94">
                   <c:v>45893</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="95">
                   <c:v>45892</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="96">
                   <c:v>45888</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="97">
                   <c:v>45884</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="98">
                   <c:v>45877</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="99">
                   <c:v>45874</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="100">
                   <c:v>45873</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="101">
                   <c:v>45867</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="102">
                   <c:v>45862</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="103">
                   <c:v>45838</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="104">
                   <c:v>45836</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="105">
                   <c:v>45789</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="106">
                   <c:v>45786</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="107">
                   <c:v>45729</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="108">
                   <c:v>45684</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="109">
                   <c:v>45682</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="110">
                   <c:v>45652</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="111">
                   <c:v>45649</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="112">
                   <c:v>45648</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="113">
                   <c:v>45614</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="114">
                   <c:v>45613</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="115">
                   <c:v>45592</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="116">
                   <c:v>45591</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="117">
                   <c:v>45514</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="118">
                   <c:v>45513</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="119">
                   <c:v>45335</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="120">
                   <c:v>45334</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="121">
                   <c:v>45291</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="122">
                   <c:v>45291</c:v>
                 </c:pt>
               </c:numCache>
@@ -8513,320 +8522,377 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LSP管理!$G$3:$G$108</c:f>
+              <c:f>LSP管理!$G$3:$G$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="125"/>
                 <c:pt idx="0">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>777</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
                   <c:v>772</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
                   <c:v>771</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="43">
                   <c:v>731</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="44">
                   <c:v>711</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="45">
                   <c:v>681</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="46">
                   <c:v>641</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="47">
                   <c:v>631</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="48">
                   <c:v>626</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="49">
                   <c:v>621</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="50">
                   <c:v>616</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="51">
                   <c:v>615</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="52">
                   <c:v>610</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="53">
                   <c:v>605</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="54">
                   <c:v>604</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="55">
                   <c:v>603</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="56">
                   <c:v>593</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="57">
                   <c:v>548</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="58">
                   <c:v>543</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="59">
                   <c:v>538</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
                   <c:v>533</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="61">
                   <c:v>528</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="62">
                   <c:v>510</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="63">
                   <c:v>505</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="64">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="65">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="66">
                   <c:v>490</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="67">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="68">
                   <c:v>488</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="69">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="70">
                   <c:v>467</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="71">
                   <c:v>457</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="72">
                   <c:v>452</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="73">
                   <c:v>447</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="74">
                   <c:v>442</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="75">
                   <c:v>441</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="76">
                   <c:v>431</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="77">
                   <c:v>430</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="78">
                   <c:v>429</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="79">
                   <c:v>424</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="80">
                   <c:v>409</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="81">
                   <c:v>404</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="82">
                   <c:v>369</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="83">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="84">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="85">
                   <c:v>314</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="86">
                   <c:v>269</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="87">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="88">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="89">
                   <c:v>224</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="90">
                   <c:v>223</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="91">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="92">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="93">
                   <c:v>212</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="94">
                   <c:v>207</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="95">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="96">
                   <c:v>197</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="97">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="98">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="99">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="100">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="101">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="102">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="103">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="104">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="105">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="106">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="107">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="108">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="109">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="110">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="111">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="112">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="113">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="114">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="115">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="116">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="117">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="118">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="119">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="120">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="121">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="122">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -9287,7 +9353,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>585</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70</c:v>
@@ -9296,7 +9362,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -13330,13 +13396,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13366,13 +13432,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13405,13 +13471,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13880,7 +13946,7 @@
   <autoFilter ref="A1:M279" xr:uid="{3FCDC422-27B5-482E-BFE7-6645FF3F845A}">
     <filterColumn colId="1">
       <filters blank="1">
-        <dateGroupItem year="2026" month="3" dateTimeGrouping="month"/>
+        <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">
@@ -14193,11 +14259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57836D-5153-486D-8B76-48FAFDDE1EA1}">
-  <dimension ref="A1:O366"/>
+  <dimension ref="A1:O373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B348" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L354" sqref="L354:M366"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B345" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="O366" sqref="O366"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -28361,91 +28427,426 @@
         <v>94</v>
       </c>
     </row>
+    <row r="367" spans="1:13">
+      <c r="A367" s="28">
+        <v>46041</v>
+      </c>
+      <c r="B367" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C367" s="75"/>
+      <c r="D367" s="75"/>
+      <c r="E367" s="76"/>
+      <c r="F367" s="73">
+        <v>0</v>
+      </c>
+      <c r="G367" s="73">
+        <v>16</v>
+      </c>
+      <c r="H367" s="73">
+        <v>16</v>
+      </c>
+      <c r="I367" s="4">
+        <v>92548</v>
+      </c>
+      <c r="J367" s="73">
+        <v>0</v>
+      </c>
+      <c r="K367" s="73">
+        <v>0</v>
+      </c>
+      <c r="L367" s="73">
+        <f t="shared" ref="L367:L373" si="40">J367+L366</f>
+        <v>90500</v>
+      </c>
+      <c r="M367" s="73">
+        <f t="shared" ref="M367:M373" si="41">K367+M366</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13">
+      <c r="A368" s="28">
+        <v>46042</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F368" s="73">
+        <v>624</v>
+      </c>
+      <c r="G368" s="29">
+        <v>705</v>
+      </c>
+      <c r="H368" s="4">
+        <v>1329</v>
+      </c>
+      <c r="I368" s="4">
+        <v>93877</v>
+      </c>
+      <c r="J368" s="4">
+        <v>1648</v>
+      </c>
+      <c r="K368" s="73">
+        <v>1</v>
+      </c>
+      <c r="L368" s="73">
+        <f t="shared" si="40"/>
+        <v>92148</v>
+      </c>
+      <c r="M368" s="73">
+        <f t="shared" si="41"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13">
+      <c r="A369" s="28">
+        <v>46042</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F369" s="73">
+        <v>624</v>
+      </c>
+      <c r="G369" s="29">
+        <v>705</v>
+      </c>
+      <c r="H369" s="4">
+        <v>1329</v>
+      </c>
+      <c r="I369" s="4">
+        <v>95206</v>
+      </c>
+      <c r="J369" s="4">
+        <v>1648</v>
+      </c>
+      <c r="K369" s="73">
+        <v>1</v>
+      </c>
+      <c r="L369" s="73">
+        <f t="shared" si="40"/>
+        <v>93796</v>
+      </c>
+      <c r="M369" s="73">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13">
+      <c r="A370" s="28">
+        <v>46042</v>
+      </c>
+      <c r="B370" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C370" s="75"/>
+      <c r="D370" s="75"/>
+      <c r="E370" s="76"/>
+      <c r="F370" s="73">
+        <v>0</v>
+      </c>
+      <c r="G370" s="73">
+        <v>6</v>
+      </c>
+      <c r="H370" s="73">
+        <v>6</v>
+      </c>
+      <c r="I370" s="4">
+        <v>95212</v>
+      </c>
+      <c r="J370" s="73">
+        <v>0</v>
+      </c>
+      <c r="K370" s="73">
+        <v>0</v>
+      </c>
+      <c r="L370" s="73">
+        <f t="shared" si="40"/>
+        <v>93796</v>
+      </c>
+      <c r="M370" s="73">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13">
+      <c r="A371" s="28">
+        <v>46043</v>
+      </c>
+      <c r="B371" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C371" s="75"/>
+      <c r="D371" s="75"/>
+      <c r="E371" s="76"/>
+      <c r="F371" s="73">
+        <v>0</v>
+      </c>
+      <c r="G371" s="73">
+        <v>9</v>
+      </c>
+      <c r="H371" s="73">
+        <v>9</v>
+      </c>
+      <c r="I371" s="4">
+        <v>95221</v>
+      </c>
+      <c r="J371" s="73">
+        <v>0</v>
+      </c>
+      <c r="K371" s="73">
+        <v>0</v>
+      </c>
+      <c r="L371" s="73">
+        <f t="shared" si="40"/>
+        <v>93796</v>
+      </c>
+      <c r="M371" s="73">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
+      <c r="A372" s="28">
+        <v>46044</v>
+      </c>
+      <c r="B372" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C372" s="75"/>
+      <c r="D372" s="75"/>
+      <c r="E372" s="76"/>
+      <c r="F372" s="73">
+        <v>0</v>
+      </c>
+      <c r="G372" s="73">
+        <v>8</v>
+      </c>
+      <c r="H372" s="73">
+        <v>8</v>
+      </c>
+      <c r="I372" s="4">
+        <v>95229</v>
+      </c>
+      <c r="J372" s="73">
+        <v>0</v>
+      </c>
+      <c r="K372" s="73">
+        <v>0</v>
+      </c>
+      <c r="L372" s="73">
+        <f t="shared" si="40"/>
+        <v>93796</v>
+      </c>
+      <c r="M372" s="73">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13">
+      <c r="A373" s="30">
+        <v>46045</v>
+      </c>
+      <c r="B373" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C373" s="77"/>
+      <c r="D373" s="77"/>
+      <c r="E373" s="78"/>
+      <c r="F373" s="74">
+        <v>0</v>
+      </c>
+      <c r="G373" s="74">
+        <v>13</v>
+      </c>
+      <c r="H373" s="74">
+        <v>13</v>
+      </c>
+      <c r="I373" s="31">
+        <v>95242</v>
+      </c>
+      <c r="J373" s="74">
+        <v>0</v>
+      </c>
+      <c r="K373" s="74">
+        <v>0</v>
+      </c>
+      <c r="L373" s="73">
+        <f t="shared" si="40"/>
+        <v>93796</v>
+      </c>
+      <c r="M373" s="73">
+        <f t="shared" si="41"/>
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="249">
-    <mergeCell ref="B360:E360"/>
-    <mergeCell ref="B362:E362"/>
-    <mergeCell ref="B364:E364"/>
-    <mergeCell ref="B365:E365"/>
-    <mergeCell ref="B366:E366"/>
-    <mergeCell ref="B355:E355"/>
-    <mergeCell ref="B332:E332"/>
-    <mergeCell ref="B341:E341"/>
-    <mergeCell ref="B356:E356"/>
-    <mergeCell ref="B357:E357"/>
-    <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B359:E359"/>
-    <mergeCell ref="B346:E346"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B323:E323"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="B331:E331"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B264:E264"/>
-    <mergeCell ref="B266:E266"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="B238:E238"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="B250:E250"/>
-    <mergeCell ref="B251:E251"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="B257:E257"/>
-    <mergeCell ref="B259:E259"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B261:E261"/>
-    <mergeCell ref="B241:E241"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B247:E247"/>
-    <mergeCell ref="B248:E248"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:E234"/>
-    <mergeCell ref="B235:E235"/>
-    <mergeCell ref="B236:E236"/>
-    <mergeCell ref="B237:E237"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B201:E201"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="B203:E203"/>
-    <mergeCell ref="B204:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B206:E206"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
+  <mergeCells count="254">
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="B370:E370"/>
+    <mergeCell ref="B371:E371"/>
+    <mergeCell ref="B372:E372"/>
+    <mergeCell ref="B373:E373"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B303:E303"/>
+    <mergeCell ref="B304:E304"/>
+    <mergeCell ref="B306:E306"/>
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B299:E299"/>
+    <mergeCell ref="B300:E300"/>
+    <mergeCell ref="B301:E301"/>
+    <mergeCell ref="B302:E302"/>
+    <mergeCell ref="B314:E314"/>
+    <mergeCell ref="B315:E315"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B317:E317"/>
+    <mergeCell ref="B318:E318"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="B295:E295"/>
+    <mergeCell ref="B296:E296"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:E281"/>
+    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B283:E283"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B286:E286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B288:E288"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B71:E71"/>
     <mergeCell ref="B103:E103"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B85:E85"/>
@@ -28470,148 +28871,89 @@
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B187:E187"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="B282:E282"/>
-    <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B286:E286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B288:E288"/>
-    <mergeCell ref="B289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="B295:E295"/>
-    <mergeCell ref="B296:E296"/>
-    <mergeCell ref="B297:E297"/>
-    <mergeCell ref="B299:E299"/>
-    <mergeCell ref="B300:E300"/>
-    <mergeCell ref="B301:E301"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B314:E314"/>
-    <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B317:E317"/>
-    <mergeCell ref="B318:E318"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B303:E303"/>
-    <mergeCell ref="B304:E304"/>
-    <mergeCell ref="B306:E306"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B311:E311"/>
-    <mergeCell ref="B312:E312"/>
-    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="B203:E203"/>
+    <mergeCell ref="B204:E204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B206:E206"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:E234"/>
+    <mergeCell ref="B235:E235"/>
+    <mergeCell ref="B236:E236"/>
+    <mergeCell ref="B237:E237"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B264:E264"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B251:E251"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="B259:E259"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="B241:E241"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B247:E247"/>
+    <mergeCell ref="B248:E248"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B360:E360"/>
+    <mergeCell ref="B362:E362"/>
+    <mergeCell ref="B364:E364"/>
+    <mergeCell ref="B365:E365"/>
+    <mergeCell ref="B366:E366"/>
+    <mergeCell ref="B355:E355"/>
+    <mergeCell ref="B332:E332"/>
+    <mergeCell ref="B341:E341"/>
+    <mergeCell ref="B356:E356"/>
+    <mergeCell ref="B357:E357"/>
+    <mergeCell ref="B358:E358"/>
+    <mergeCell ref="B359:E359"/>
+    <mergeCell ref="B346:E346"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G56" r:id="rId1" display="106" xr:uid="{91711D96-DEE6-4487-B096-595B3971FA7B}"/>
@@ -28700,19 +29042,21 @@
     <hyperlink ref="G354" r:id="rId84" display="517" xr:uid="{10E5D9AF-6293-495B-96FA-4A778C9662FB}"/>
     <hyperlink ref="G361" r:id="rId85" display="294" xr:uid="{CED30346-5FD9-4636-9527-FDE3C4E68EC1}"/>
     <hyperlink ref="G363" r:id="rId86" display="294" xr:uid="{B2446DA2-22B9-4971-BAF1-D11D82C91345}"/>
+    <hyperlink ref="G368" r:id="rId87" display="705" xr:uid="{514EE229-7928-4872-9D12-495AF1767B7B}"/>
+    <hyperlink ref="G369" r:id="rId88" display="705" xr:uid="{E8218822-BCA8-4F26-A683-B0ED923D72FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId87"/>
+  <drawing r:id="rId89"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF582C36-6AED-433D-BA75-169649376AF6}">
-  <dimension ref="B2:J126"/>
+  <dimension ref="B2:J145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -28757,8 +29101,8 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="35">
-        <f t="shared" ref="G3:G104" si="0">G4+F3</f>
-        <v>777</v>
+        <f t="shared" ref="G3:G123" si="0">G4+F3</f>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15">
@@ -28769,14 +29113,14 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I4" t="s">
         <v>160</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(F3:F30058,D3:D30058, "*JAL国内線*")</f>
-        <v>585</v>
+        <f>SUMIFS(F3:F30077,D3:D30077, "*JAL国内線*")</f>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15">
@@ -28787,13 +29131,13 @@
       <c r="F5" s="47"/>
       <c r="G5" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I5" t="s">
         <v>161</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(F3:F30058,D3:D30058, "*JAL国際線*")</f>
+        <f>SUMIFS(F3:F30077,D3:D30077, "*JAL国際線*")</f>
         <v>70</v>
       </c>
     </row>
@@ -28805,13 +29149,13 @@
       <c r="F6" s="47"/>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I6" t="s">
         <v>162</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(F3:F30058,D3:D30058, "*JALカード*")</f>
+        <f>SUMIFS(F3:F30077,D3:D30077, "*JALカード*")</f>
         <v>80</v>
       </c>
     </row>
@@ -28823,14 +29167,14 @@
       <c r="F7" s="47"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I7" t="s">
         <v>163</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(F3:F30058,D3:D30058, "*JALモバイル*")</f>
-        <v>5</v>
+        <f>SUMIFS(F3:F30077,D3:D30077, "*JALモバイル*")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15">
@@ -28841,13 +29185,13 @@
       <c r="F8" s="47"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>164</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(F3:F30058,D3:D30058, "*JAL Wellness &amp; Travel*")</f>
+        <f>SUMIFS(F3:F30077,D3:D30077, "*JAL Wellness &amp; Travel*")</f>
         <v>6</v>
       </c>
     </row>
@@ -28859,13 +29203,13 @@
       <c r="F9" s="47"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>165</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(F3:F30058,D3:D30058, "*JALマイレージパーク*")</f>
+        <f>SUMIFS(F3:F30077,D3:D30077, "*JALマイレージパーク*")</f>
         <v>3</v>
       </c>
     </row>
@@ -28877,13 +29221,13 @@
       <c r="F10" s="47"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>166</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(F3:F30058,D3:D30058, "*その他*")</f>
+        <f>SUMIFS(F3:F30077,D3:D30077, "*その他*")</f>
         <v>28</v>
       </c>
     </row>
@@ -28895,14 +29239,14 @@
       <c r="F11" s="47"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>167</v>
       </c>
       <c r="J11">
         <f>SUM(J4:J10)</f>
-        <v>777</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15">
@@ -28913,7 +29257,7 @@
       <c r="F12" s="47"/>
       <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I12" s="32"/>
     </row>
@@ -28925,7 +29269,7 @@
       <c r="F13" s="47"/>
       <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I13" s="32"/>
     </row>
@@ -28937,7 +29281,7 @@
       <c r="F14" s="47"/>
       <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I14" s="32"/>
     </row>
@@ -28949,7 +29293,7 @@
       <c r="F15" s="47"/>
       <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I15" s="32"/>
     </row>
@@ -28961,11 +29305,11 @@
       <c r="F16" s="47"/>
       <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I16" s="32"/>
     </row>
-    <row r="17" spans="2:10" ht="15">
+    <row r="17" spans="2:9" ht="15">
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -28973,11 +29317,11 @@
       <c r="F17" s="47"/>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="2:10" ht="15">
+    <row r="18" spans="2:9" ht="15">
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -28985,11 +29329,11 @@
       <c r="F18" s="47"/>
       <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="2:10" ht="15">
+    <row r="19" spans="2:9" ht="15">
       <c r="B19" s="46"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -28997,11 +29341,11 @@
       <c r="F19" s="47"/>
       <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="2:10" ht="15">
+    <row r="20" spans="2:9" ht="15">
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -29009,11 +29353,11 @@
       <c r="F20" s="47"/>
       <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="2:10" ht="15">
+    <row r="21" spans="2:9" ht="15">
       <c r="B21" s="46"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
@@ -29021,11 +29365,11 @@
       <c r="F21" s="47"/>
       <c r="G21" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="2:10" ht="15">
+    <row r="22" spans="2:9" ht="15">
       <c r="B22" s="46"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -29033,11 +29377,11 @@
       <c r="F22" s="47"/>
       <c r="G22" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="2:10" ht="15">
+    <row r="23" spans="2:9" ht="15">
       <c r="B23" s="46"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -29045,357 +29389,205 @@
       <c r="F23" s="47"/>
       <c r="G23" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="2:10" ht="17.25">
-      <c r="B24" s="46">
-        <v>46039</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="47">
-        <v>5</v>
-      </c>
+    <row r="24" spans="2:9" ht="15">
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="35">
         <f t="shared" si="0"/>
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="2:10" ht="17.25">
-      <c r="B25" s="46">
-        <v>46037</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="47">
-        <v>1</v>
-      </c>
+    <row r="25" spans="2:9" ht="15">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="35">
         <f t="shared" si="0"/>
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="2:10" ht="17.25">
-      <c r="B26" s="46">
-        <v>46035</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="47">
-        <v>40</v>
-      </c>
+    <row r="26" spans="2:9" ht="15">
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="35">
         <f t="shared" si="0"/>
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="2:10" ht="17.25">
-      <c r="B27" s="46">
-        <v>46034</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="47">
-        <v>20</v>
-      </c>
+    <row r="27" spans="2:9" ht="15">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="35">
         <f t="shared" si="0"/>
-        <v>731</v>
+        <v>793</v>
       </c>
       <c r="I27" s="32"/>
     </row>
-    <row r="28" spans="2:10" ht="17.25">
-      <c r="B28" s="46">
-        <v>46033</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="47">
-        <v>30</v>
-      </c>
+    <row r="28" spans="2:9" ht="15">
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="35">
         <f t="shared" si="0"/>
-        <v>711</v>
-      </c>
-      <c r="J28">
-        <f>SUM(J4:J11)</f>
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="17.25">
-      <c r="B29" s="46">
-        <v>46033</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="47">
-        <v>40</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="2:9" ht="15">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="35">
         <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="17.25">
-      <c r="B30" s="46">
-        <v>46032</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="47">
-        <v>10</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="2:9" ht="15">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="35">
         <f t="shared" si="0"/>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="17.25">
-      <c r="B31" s="46">
-        <v>46030</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="47">
-        <v>5</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="2:9" ht="15">
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="35">
         <f t="shared" si="0"/>
-        <v>631</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="17.25">
-      <c r="B32" s="46">
-        <v>46016</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="47">
-        <v>5</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="2:9" ht="15">
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="35">
         <f t="shared" si="0"/>
-        <v>626</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="17.25">
-      <c r="B33" s="46">
-        <v>46014</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="47">
-        <v>5</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="2:10" ht="15">
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="35">
         <f t="shared" si="0"/>
-        <v>621</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="17.25">
-      <c r="B34" s="46">
-        <v>46012</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="47">
-        <v>1</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="2:10" ht="15">
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="35">
         <f t="shared" si="0"/>
-        <v>616</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="17.25">
-      <c r="B35" s="46">
-        <v>46012</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="47">
-        <v>5</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="2:10" ht="15">
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="35">
         <f t="shared" si="0"/>
-        <v>615</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="17.25">
-      <c r="B36" s="46">
-        <v>46011</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="47">
-        <v>5</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="2:10" ht="15">
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="35">
         <f t="shared" si="0"/>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="17.25">
-      <c r="B37" s="46">
-        <v>46008</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="47">
-        <v>1</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="2:10" ht="15">
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="35">
         <f t="shared" si="0"/>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="17.25">
-      <c r="B38" s="46">
-        <v>46006</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="47">
-        <v>1</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="2:10" ht="15">
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="35">
         <f t="shared" si="0"/>
-        <v>604</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="17.25">
-      <c r="B39" s="46">
-        <v>46002</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" s="47">
-        <v>10</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="2:10" ht="15">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="35">
         <f t="shared" si="0"/>
-        <v>603</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="17.25">
+        <v>793</v>
+      </c>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="2:10" ht="17.25">
       <c r="B40" s="46">
-        <v>45996</v>
+        <v>46044</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>168</v>
@@ -29407,37 +29599,39 @@
         <v>169</v>
       </c>
       <c r="F40" s="47">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G40" s="35">
         <f t="shared" si="0"/>
-        <v>593</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="17.25">
+        <v>793</v>
+      </c>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="2:10" ht="17.25">
       <c r="B41" s="46">
-        <v>45995</v>
+        <v>46041</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F41" s="47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="35">
         <f t="shared" si="0"/>
-        <v>548</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="17.25">
+        <v>783</v>
+      </c>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="2:10" ht="17.25">
       <c r="B42" s="46">
-        <v>45994</v>
+        <v>46040</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>168</v>
@@ -29453,12 +29647,13 @@
       </c>
       <c r="G42" s="35">
         <f t="shared" si="0"/>
-        <v>543</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="17.25">
+        <v>782</v>
+      </c>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="2:10" ht="17.25">
       <c r="B43" s="46">
-        <v>45990</v>
+        <v>46039</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>168</v>
@@ -29474,54 +29669,57 @@
       </c>
       <c r="G43" s="35">
         <f t="shared" si="0"/>
-        <v>538</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="17.25">
+        <v>777</v>
+      </c>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="2:10" ht="17.25">
       <c r="B44" s="46">
-        <v>45989</v>
+        <v>46037</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F44" s="47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="35">
         <f t="shared" si="0"/>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="17.25">
+        <v>772</v>
+      </c>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="2:10" ht="17.25">
       <c r="B45" s="46">
-        <v>45988</v>
+        <v>46035</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F45" s="47">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G45" s="35">
         <f t="shared" si="0"/>
-        <v>528</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="17.25">
+        <v>771</v>
+      </c>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.25">
       <c r="B46" s="46">
-        <v>45988</v>
+        <v>46034</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>168</v>
@@ -29533,37 +29731,42 @@
         <v>169</v>
       </c>
       <c r="F46" s="47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G46" s="35">
         <f t="shared" si="0"/>
-        <v>510</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="17.25">
+        <v>731</v>
+      </c>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.25">
       <c r="B47" s="46">
-        <v>45987</v>
+        <v>46033</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F47" s="47">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G47" s="35">
-        <f>G48+F47</f>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="17.25">
+        <f t="shared" si="0"/>
+        <v>711</v>
+      </c>
+      <c r="J47">
+        <f>SUM(J4:J11)</f>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="17.25">
       <c r="B48" s="46">
-        <v>45985</v>
+        <v>46033</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>168</v>
@@ -29575,16 +29778,16 @@
         <v>169</v>
       </c>
       <c r="F48" s="47">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G48" s="35">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="17.25">
       <c r="B49" s="46">
-        <v>45983</v>
+        <v>46032</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>168</v>
@@ -29596,121 +29799,121 @@
         <v>169</v>
       </c>
       <c r="F49" s="47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G49" s="35">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="17.25">
       <c r="B50" s="46">
-        <v>45982</v>
+        <v>46030</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F50" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="35">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="17.25">
       <c r="B51" s="46">
-        <v>45978</v>
+        <v>46016</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F51" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" s="35">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="17.25">
       <c r="B52" s="46">
-        <v>45976</v>
+        <v>46014</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F52" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52" s="35">
-        <f>G53+F52</f>
-        <v>488</v>
+        <f t="shared" si="0"/>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="17.25">
       <c r="B53" s="46">
-        <v>45972</v>
+        <v>46012</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>170</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F53" s="47">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G53" s="35">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="17.25">
       <c r="B54" s="46">
-        <v>45960</v>
+        <v>46012</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F54" s="47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G54" s="35">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="17.25">
       <c r="B55" s="46">
-        <v>45956</v>
+        <v>46011</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>168</v>
@@ -29726,75 +29929,75 @@
       </c>
       <c r="G55" s="35">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="17.25">
       <c r="B56" s="46">
-        <v>45955</v>
+        <v>46008</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F56" s="47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56" s="35">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="17.25">
       <c r="B57" s="46">
-        <v>45953</v>
+        <v>46006</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F57" s="47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57" s="35">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="17.25">
       <c r="B58" s="46">
-        <v>45952</v>
+        <v>46002</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>170</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F58" s="47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G58" s="35">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="17.25">
       <c r="B59" s="46">
-        <v>45951</v>
+        <v>45996</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>168</v>
@@ -29806,58 +30009,58 @@
         <v>169</v>
       </c>
       <c r="F59" s="47">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G59" s="35">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="17.25">
       <c r="B60" s="46">
-        <v>45947</v>
+        <v>45995</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F60" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" s="35">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="17.25">
       <c r="B61" s="46">
-        <v>45945</v>
+        <v>45994</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F61" s="47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61" s="35">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="17.25">
       <c r="B62" s="46">
-        <v>45943</v>
+        <v>45990</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>168</v>
@@ -29873,54 +30076,54 @@
       </c>
       <c r="G62" s="35">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="17.25">
       <c r="B63" s="46">
-        <v>45941</v>
+        <v>45989</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F63" s="47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G63" s="35">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="17.25">
       <c r="B64" s="46">
-        <v>45941</v>
+        <v>45988</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F64" s="47">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G64" s="35">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="17.25">
       <c r="B65" s="46">
-        <v>45937</v>
+        <v>45988</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>168</v>
@@ -29932,16 +30135,16 @@
         <v>169</v>
       </c>
       <c r="F65" s="47">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G65" s="35">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="17.25">
       <c r="B66" s="46">
-        <v>45936</v>
+        <v>45987</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>168</v>
@@ -29956,1014 +30159,1413 @@
         <v>5</v>
       </c>
       <c r="G66" s="35">
+        <f>G67+F66</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="17.25">
+      <c r="B67" s="46">
+        <v>45985</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="47">
+        <v>5</v>
+      </c>
+      <c r="G67" s="35">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="17.25">
+      <c r="B68" s="46">
+        <v>45983</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="47">
+        <v>5</v>
+      </c>
+      <c r="G68" s="35">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="17.25">
+      <c r="B69" s="46">
+        <v>45982</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="47">
+        <v>1</v>
+      </c>
+      <c r="G69" s="35">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="17.25">
+      <c r="B70" s="46">
+        <v>45978</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="47">
+        <v>1</v>
+      </c>
+      <c r="G70" s="35">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="17.25">
+      <c r="B71" s="46">
+        <v>45976</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="47">
+        <v>1</v>
+      </c>
+      <c r="G71" s="35">
+        <f>G72+F71</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="17.25">
+      <c r="B72" s="46">
+        <v>45972</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="47">
+        <v>20</v>
+      </c>
+      <c r="G72" s="35">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="17.25">
+      <c r="B73" s="46">
+        <v>45960</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="47">
+        <v>10</v>
+      </c>
+      <c r="G73" s="35">
+        <f t="shared" si="0"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="17.25">
+      <c r="B74" s="46">
+        <v>45956</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="47">
+        <v>5</v>
+      </c>
+      <c r="G74" s="35">
+        <f t="shared" si="0"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="17.25">
+      <c r="B75" s="46">
+        <v>45955</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" s="47">
+        <v>5</v>
+      </c>
+      <c r="G75" s="35">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="17.25">
+      <c r="B76" s="46">
+        <v>45953</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="47">
+        <v>5</v>
+      </c>
+      <c r="G76" s="35">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="17.25">
+      <c r="B77" s="46">
+        <v>45952</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="47">
+        <v>1</v>
+      </c>
+      <c r="G77" s="35">
+        <f t="shared" si="0"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="17.25">
+      <c r="B78" s="46">
+        <v>45951</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="47">
+        <v>10</v>
+      </c>
+      <c r="G78" s="35">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="17.25">
+      <c r="B79" s="46">
+        <v>45947</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" s="47">
+        <v>1</v>
+      </c>
+      <c r="G79" s="35">
+        <f t="shared" si="0"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="17.25">
+      <c r="B80" s="46">
+        <v>45945</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" s="47">
+        <v>1</v>
+      </c>
+      <c r="G80" s="35">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="17.25">
+      <c r="B81" s="46">
+        <v>45943</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" s="47">
+        <v>5</v>
+      </c>
+      <c r="G81" s="35">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="17.25">
+      <c r="B82" s="46">
+        <v>45941</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="47">
+        <v>15</v>
+      </c>
+      <c r="G82" s="35">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="17.25">
+      <c r="B83" s="46">
+        <v>45941</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="47">
+        <v>5</v>
+      </c>
+      <c r="G83" s="35">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="17.25">
+      <c r="B84" s="46">
+        <v>45937</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" s="47">
+        <v>35</v>
+      </c>
+      <c r="G84" s="35">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="17.25">
+      <c r="B85" s="46">
+        <v>45936</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" s="47">
+        <v>5</v>
+      </c>
+      <c r="G85" s="35">
         <f t="shared" si="0"/>
         <v>369</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="17.25">
-      <c r="B67" s="46">
+    <row r="86" spans="2:7" ht="17.25">
+      <c r="B86" s="46">
         <v>45934</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C86" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D86" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E86" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F86" s="47">
         <v>5</v>
       </c>
-      <c r="G67" s="35">
+      <c r="G86" s="35">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="17.25">
-      <c r="B68" s="46">
+    <row r="87" spans="2:7" ht="17.25">
+      <c r="B87" s="46">
         <v>45930</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C87" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="47" t="s">
+      <c r="D87" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E87" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F87" s="47">
         <v>45</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G87" s="35">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="17.25">
-      <c r="B69" s="46">
+    <row r="88" spans="2:7" ht="17.25">
+      <c r="B88" s="46">
         <v>45929</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C88" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="47" t="s">
+      <c r="D88" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E69" s="47" t="s">
+      <c r="E88" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F88" s="47">
         <v>45</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G88" s="35">
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="17.25">
-      <c r="B70" s="46">
+    <row r="89" spans="2:7" ht="17.25">
+      <c r="B89" s="46">
         <v>45928</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C89" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D89" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E89" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F89" s="47">
         <v>35</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G89" s="35">
         <f t="shared" si="0"/>
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="17.25">
-      <c r="B71" s="46">
+    <row r="90" spans="2:7" ht="17.25">
+      <c r="B90" s="46">
         <v>45919</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C90" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="47" t="s">
+      <c r="D90" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E71" s="47" t="s">
+      <c r="E90" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F90" s="47">
         <v>5</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G90" s="35">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="17.25">
-      <c r="B72" s="46">
+    <row r="91" spans="2:7" ht="17.25">
+      <c r="B91" s="46">
         <v>45917</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C91" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="47" t="s">
+      <c r="D91" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E72" s="47" t="s">
+      <c r="E91" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F91" s="47">
         <v>5</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G91" s="35">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="17.25">
-      <c r="B73" s="46">
+    <row r="92" spans="2:7" ht="17.25">
+      <c r="B92" s="46">
         <v>45916</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C92" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="47" t="s">
+      <c r="D92" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E73" s="47" t="s">
+      <c r="E92" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F92" s="47">
         <v>1</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G92" s="35">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="17.25">
-      <c r="B74" s="46">
+    <row r="93" spans="2:7" ht="17.25">
+      <c r="B93" s="46">
         <v>45915</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C93" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="47" t="s">
+      <c r="D93" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E74" s="47" t="s">
+      <c r="E93" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F74" s="47">
+      <c r="F93" s="47">
         <v>1</v>
       </c>
-      <c r="G74" s="35">
+      <c r="G93" s="35">
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="17.25">
-      <c r="B75" s="46">
+    <row r="94" spans="2:7" ht="17.25">
+      <c r="B94" s="46">
         <v>45911</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C94" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D94" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="47" t="s">
+      <c r="E94" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F94" s="47">
         <v>5</v>
       </c>
-      <c r="G75" s="35">
+      <c r="G94" s="35">
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="17.25">
-      <c r="B76" s="46">
+    <row r="95" spans="2:7" ht="17.25">
+      <c r="B95" s="46">
         <v>45905</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C95" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="47" t="s">
+      <c r="D95" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E95" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F95" s="47">
         <v>5</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G95" s="35">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="17.25">
-      <c r="B77" s="46">
+    <row r="96" spans="2:7" ht="17.25">
+      <c r="B96" s="46">
         <v>45903</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C96" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D96" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E77" s="47" t="s">
+      <c r="E96" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F77" s="47">
+      <c r="F96" s="47">
         <v>5</v>
       </c>
-      <c r="G77" s="35">
+      <c r="G96" s="35">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="17.25">
-      <c r="B78" s="46">
+    <row r="97" spans="2:7" ht="17.25">
+      <c r="B97" s="46">
         <v>45893</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C97" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="47" t="s">
+      <c r="D97" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E97" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F78" s="47">
+      <c r="F97" s="47">
         <v>5</v>
       </c>
-      <c r="G78" s="35">
+      <c r="G97" s="35">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="17.25">
-      <c r="B79" s="46">
+    <row r="98" spans="2:7" ht="17.25">
+      <c r="B98" s="46">
         <v>45892</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C98" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D98" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E79" s="47" t="s">
+      <c r="E98" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F79" s="47">
+      <c r="F98" s="47">
         <v>5</v>
       </c>
-      <c r="G79" s="35">
+      <c r="G98" s="35">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="17.25">
-      <c r="B80" s="46">
+    <row r="99" spans="2:7" ht="17.25">
+      <c r="B99" s="46">
         <v>45888</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C99" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D80" s="47" t="s">
+      <c r="D99" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E80" s="47" t="s">
+      <c r="E99" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="47">
+      <c r="F99" s="47">
         <v>1</v>
       </c>
-      <c r="G80" s="35">
+      <c r="G99" s="35">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="17.25">
-      <c r="B81" s="46">
+    <row r="100" spans="2:7" ht="17.25">
+      <c r="B100" s="46">
         <v>45884</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C100" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D100" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="47" t="s">
+      <c r="E100" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F81" s="47">
+      <c r="F100" s="47">
         <v>1</v>
       </c>
-      <c r="G81" s="35">
+      <c r="G100" s="35">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="17.25">
-      <c r="B82" s="46">
+    <row r="101" spans="2:7" ht="17.25">
+      <c r="B101" s="46">
         <v>45877</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C101" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D101" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="47" t="s">
+      <c r="E101" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F82" s="47">
+      <c r="F101" s="47">
         <v>10</v>
       </c>
-      <c r="G82" s="35">
+      <c r="G101" s="35">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="16.5">
-      <c r="B83" s="48">
+    <row r="102" spans="2:7" ht="16.5">
+      <c r="B102" s="48">
         <v>45874</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C102" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D102" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E102" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F102" s="34">
         <v>5</v>
       </c>
-      <c r="G83" s="35">
+      <c r="G102" s="35">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="16.5">
-      <c r="B84" s="48">
+    <row r="103" spans="2:7" ht="16.5">
+      <c r="B103" s="48">
         <v>45873</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C103" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D103" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E103" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F103" s="34">
         <v>5</v>
       </c>
-      <c r="G84" s="35">
+      <c r="G103" s="35">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="16.5">
-      <c r="B85" s="48">
+    <row r="104" spans="2:7" ht="16.5">
+      <c r="B104" s="48">
         <v>45867</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C104" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D104" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E104" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F104" s="34">
         <v>5</v>
       </c>
-      <c r="G85" s="35">
+      <c r="G104" s="35">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="16.5">
-      <c r="B86" s="48">
+    <row r="105" spans="2:7" ht="16.5">
+      <c r="B105" s="48">
         <v>45862</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C105" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D105" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E105" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F105" s="34">
         <v>5</v>
       </c>
-      <c r="G86" s="35">
+      <c r="G105" s="35">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="16.5">
-      <c r="B87" s="48">
+    <row r="106" spans="2:7" ht="16.5">
+      <c r="B106" s="48">
         <v>45838</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C106" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D106" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E106" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F106" s="34">
         <v>5</v>
       </c>
-      <c r="G87" s="35">
+      <c r="G106" s="35">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="16.5">
-      <c r="B88" s="48">
+    <row r="107" spans="2:7" ht="16.5">
+      <c r="B107" s="48">
         <v>45836</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C107" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D107" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E107" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F107" s="34">
         <v>5</v>
       </c>
-      <c r="G88" s="35">
+      <c r="G107" s="35">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="16.5">
-      <c r="B89" s="48">
+    <row r="108" spans="2:7" ht="16.5">
+      <c r="B108" s="48">
         <v>45789</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C108" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="34" t="s">
+      <c r="D108" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E108" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F108" s="34">
         <v>5</v>
       </c>
-      <c r="G89" s="35">
+      <c r="G108" s="35">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="16.5">
-      <c r="B90" s="48">
+    <row r="109" spans="2:7" ht="16.5">
+      <c r="B109" s="48">
         <v>45786</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C109" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="D109" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E90" s="34" t="s">
+      <c r="E109" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F109" s="34">
         <v>5</v>
       </c>
-      <c r="G90" s="35">
+      <c r="G109" s="35">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="16.5">
-      <c r="B91" s="48">
+    <row r="110" spans="2:7" ht="16.5">
+      <c r="B110" s="48">
         <v>45729</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C110" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="D110" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E91" s="34" t="s">
+      <c r="E110" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F110" s="34">
         <v>10</v>
       </c>
-      <c r="G91" s="35">
+      <c r="G110" s="35">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="16.5">
-      <c r="B92" s="48">
+    <row r="111" spans="2:7" ht="16.5">
+      <c r="B111" s="48">
         <v>45684</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C111" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D111" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="34" t="s">
+      <c r="E111" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="34">
+      <c r="F111" s="34">
         <v>5</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G111" s="35">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="16.5">
-      <c r="B93" s="48">
+    <row r="112" spans="2:7" ht="16.5">
+      <c r="B112" s="48">
         <v>45682</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C112" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D112" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E93" s="34" t="s">
+      <c r="E112" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F112" s="34">
         <v>5</v>
       </c>
-      <c r="G93" s="35">
-        <f>G94+F93</f>
+      <c r="G112" s="35">
+        <f>G113+F112</f>
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="16.5">
-      <c r="B94" s="48">
+    <row r="113" spans="2:7" ht="16.5">
+      <c r="B113" s="48">
         <v>45652</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C113" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D113" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="34" t="s">
+      <c r="E113" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F94" s="34">
+      <c r="F113" s="34">
         <v>5</v>
       </c>
-      <c r="G94" s="35">
+      <c r="G113" s="35">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="16.5">
-      <c r="B95" s="48">
+    <row r="114" spans="2:7" ht="16.5">
+      <c r="B114" s="48">
         <v>45649</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C114" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D114" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E114" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="34">
+      <c r="F114" s="34">
         <v>5</v>
       </c>
-      <c r="G95" s="35">
+      <c r="G114" s="35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="16.5">
-      <c r="B96" s="48">
+    <row r="115" spans="2:7" ht="16.5">
+      <c r="B115" s="48">
         <v>45648</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C115" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D96" s="34" t="s">
+      <c r="D115" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E115" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F96" s="34">
+      <c r="F115" s="34">
         <v>5</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G115" s="35">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="16.5">
-      <c r="B97" s="48">
+    <row r="116" spans="2:7" ht="16.5">
+      <c r="B116" s="48">
         <v>45614</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C116" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="34" t="s">
+      <c r="D116" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E97" s="34" t="s">
+      <c r="E116" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F116" s="34">
         <v>5</v>
       </c>
-      <c r="G97" s="35">
+      <c r="G116" s="35">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="16.5">
-      <c r="B98" s="48">
+    <row r="117" spans="2:7" ht="16.5">
+      <c r="B117" s="48">
         <v>45613</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C117" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D117" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E117" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F117" s="34">
         <v>5</v>
       </c>
-      <c r="G98" s="35">
+      <c r="G117" s="35">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="16.5">
-      <c r="B99" s="48">
+    <row r="118" spans="2:7" ht="16.5">
+      <c r="B118" s="48">
         <v>45592</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C118" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="D118" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E118" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F99" s="34">
+      <c r="F118" s="34">
         <v>5</v>
       </c>
-      <c r="G99" s="35">
+      <c r="G118" s="35">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="16.5">
-      <c r="B100" s="48">
+    <row r="119" spans="2:7" ht="16.5">
+      <c r="B119" s="48">
         <v>45591</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C119" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D119" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E119" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="34">
+      <c r="F119" s="34">
         <v>5</v>
       </c>
-      <c r="G100" s="35">
+      <c r="G119" s="35">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="16.5">
-      <c r="B101" s="48">
+    <row r="120" spans="2:7" ht="16.5">
+      <c r="B120" s="48">
         <v>45514</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C120" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="D120" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E101" s="34" t="s">
+      <c r="E120" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F101" s="34">
+      <c r="F120" s="34">
         <v>5</v>
       </c>
-      <c r="G101" s="35">
+      <c r="G120" s="35">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="16.5">
-      <c r="B102" s="48">
+    <row r="121" spans="2:7" ht="16.5">
+      <c r="B121" s="48">
         <v>45513</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C121" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="D121" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E121" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="F102" s="34">
+      <c r="F121" s="34">
         <v>5</v>
       </c>
-      <c r="G102" s="35">
+      <c r="G121" s="35">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="16.5">
-      <c r="B103" s="48">
+    <row r="122" spans="2:7" ht="16.5">
+      <c r="B122" s="48">
         <v>45335</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C122" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D103" s="34" t="s">
+      <c r="D122" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="E103" s="34" t="s">
+      <c r="E122" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F103" s="34">
+      <c r="F122" s="34">
         <v>20</v>
       </c>
-      <c r="G103" s="35">
+      <c r="G122" s="35">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="16.5">
-      <c r="B104" s="48">
+    <row r="123" spans="2:7" ht="16.5">
+      <c r="B123" s="48">
         <v>45334</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C123" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="D123" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E123" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="34">
+      <c r="F123" s="34">
         <v>20</v>
       </c>
-      <c r="G104" s="35">
+      <c r="G123" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="16.5">
-      <c r="B105" s="48">
+    <row r="124" spans="2:7" ht="16.5">
+      <c r="B124" s="48">
         <v>45291</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C124" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D105" s="34" t="s">
+      <c r="D124" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="E105" s="34" t="s">
+      <c r="E124" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F105" s="34">
+      <c r="F124" s="34">
         <v>30</v>
       </c>
-      <c r="G105" s="35">
-        <f>G106+F105</f>
+      <c r="G124" s="35">
+        <f>G125+F124</f>
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="16.5">
-      <c r="B106" s="70">
+    <row r="125" spans="2:7" ht="16.5">
+      <c r="B125" s="70">
         <v>45291</v>
       </c>
-      <c r="C106" s="71" t="s">
+      <c r="C125" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="D106" s="71" t="s">
+      <c r="D125" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E106" s="71" t="s">
+      <c r="E125" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="F106" s="71">
+      <c r="F125" s="71">
         <v>10</v>
       </c>
-      <c r="G106" s="72">
-        <f>F106</f>
+      <c r="G125" s="72">
+        <f>F125</f>
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="15.75">
-      <c r="B107" s="36"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="35"/>
-    </row>
-    <row r="108" spans="2:7" ht="15.75">
-      <c r="B108" s="36"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="35"/>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="35"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="35"/>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-    </row>
-    <row r="125" spans="2:7">
-      <c r="B125" s="35"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
+    <row r="126" spans="2:7" ht="15.75">
+      <c r="B126" s="36"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="47"/>
       <c r="G126" s="35"/>
     </row>
+    <row r="127" spans="2:7" ht="15.75">
+      <c r="B127" s="36"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="35"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="35"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="35"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:G108" xr:uid="{FF582C36-6AED-433D-BA75-169649376AF6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G108">
-      <sortCondition ref="G2:G108"/>
+  <autoFilter ref="B2:G127" xr:uid="{FF582C36-6AED-433D-BA75-169649376AF6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G127">
+      <sortCondition ref="G2:G127"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30975,8 +31577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EF3C4E-F452-4BBC-81DB-9BE6F59D48AA}">
   <dimension ref="A1:M333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -33455,7 +34057,7 @@
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -34715,7 +35317,7 @@
       </c>
       <c r="M111" s="16"/>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:13">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -34748,7 +35350,7 @@
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -34781,7 +35383,7 @@
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -34814,7 +35416,7 @@
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -34845,7 +35447,7 @@
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -34876,7 +35478,7 @@
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -34909,7 +35511,7 @@
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -34942,7 +35544,7 @@
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119" s="15">
         <v>118</v>
       </c>
@@ -34975,7 +35577,7 @@
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -35008,7 +35610,7 @@
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -35037,7 +35639,7 @@
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -35070,7 +35672,7 @@
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:13">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -35103,7 +35705,7 @@
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -35132,7 +35734,7 @@
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -35161,7 +35763,7 @@
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -35190,7 +35792,7 @@
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="1:13" hidden="1">
+    <row r="127" spans="1:13">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -35219,7 +35821,7 @@
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="1:13" hidden="1">
+    <row r="128" spans="1:13">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -35248,7 +35850,7 @@
       <c r="L128" s="16"/>
       <c r="M128" s="16"/>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -35277,7 +35879,7 @@
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -35306,7 +35908,7 @@
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -35339,7 +35941,7 @@
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -35368,7 +35970,7 @@
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -35401,7 +36003,7 @@
       <c r="L133" s="16"/>
       <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -35434,7 +36036,7 @@
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -35467,7 +36069,7 @@
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -35496,7 +36098,7 @@
       <c r="L136" s="16"/>
       <c r="M136" s="16"/>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -35525,7 +36127,7 @@
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -35554,7 +36156,7 @@
       <c r="L138" s="16"/>
       <c r="M138" s="16"/>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -35583,7 +36185,7 @@
       <c r="L139" s="16"/>
       <c r="M139" s="16"/>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -35612,7 +36214,7 @@
       <c r="L140" s="16"/>
       <c r="M140" s="16"/>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -35645,7 +36247,7 @@
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -35678,7 +36280,7 @@
       <c r="L142" s="16"/>
       <c r="M142" s="16"/>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -35707,7 +36309,7 @@
       <c r="L143" s="16"/>
       <c r="M143" s="16"/>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -35736,7 +36338,7 @@
       <c r="L144" s="16"/>
       <c r="M144" s="16"/>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:13">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -35769,7 +36371,7 @@
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:13">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -35798,7 +36400,7 @@
       <c r="L146" s="16"/>
       <c r="M146" s="16"/>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -35831,7 +36433,7 @@
       <c r="L147" s="16"/>
       <c r="M147" s="16"/>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -35867,7 +36469,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:13">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -35900,7 +36502,7 @@
       <c r="L149" s="16"/>
       <c r="M149" s="16"/>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -35933,7 +36535,7 @@
       <c r="L150" s="16"/>
       <c r="M150" s="16"/>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -35966,7 +36568,7 @@
       <c r="L151" s="16"/>
       <c r="M151" s="16"/>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -35995,7 +36597,7 @@
       <c r="L152" s="16"/>
       <c r="M152" s="16"/>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -36024,7 +36626,7 @@
       <c r="L153" s="16"/>
       <c r="M153" s="16"/>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -36057,7 +36659,7 @@
       <c r="L154" s="16"/>
       <c r="M154" s="16"/>
     </row>
-    <row r="155" spans="1:13" hidden="1">
+    <row r="155" spans="1:13">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -36090,7 +36692,7 @@
       <c r="L155" s="16"/>
       <c r="M155" s="16"/>
     </row>
-    <row r="156" spans="1:13" hidden="1">
+    <row r="156" spans="1:13">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -36123,7 +36725,7 @@
       <c r="L156" s="16"/>
       <c r="M156" s="16"/>
     </row>
-    <row r="157" spans="1:13" hidden="1">
+    <row r="157" spans="1:13">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -36156,7 +36758,7 @@
       <c r="L157" s="16"/>
       <c r="M157" s="16"/>
     </row>
-    <row r="158" spans="1:13" hidden="1">
+    <row r="158" spans="1:13">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -36189,7 +36791,7 @@
       <c r="L158" s="16"/>
       <c r="M158" s="16"/>
     </row>
-    <row r="159" spans="1:13" hidden="1">
+    <row r="159" spans="1:13">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -36222,7 +36824,7 @@
       <c r="L159" s="16"/>
       <c r="M159" s="16"/>
     </row>
-    <row r="160" spans="1:13" hidden="1">
+    <row r="160" spans="1:13">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -36255,7 +36857,7 @@
       <c r="L160" s="16"/>
       <c r="M160" s="16"/>
     </row>
-    <row r="161" spans="1:13" hidden="1">
+    <row r="161" spans="1:13">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -36288,7 +36890,7 @@
       <c r="L161" s="16"/>
       <c r="M161" s="16"/>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -36321,7 +36923,7 @@
       <c r="L162" s="16"/>
       <c r="M162" s="16"/>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -36354,7 +36956,7 @@
       <c r="L163" s="16"/>
       <c r="M163" s="16"/>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -36387,7 +36989,7 @@
       <c r="L164" s="16"/>
       <c r="M164" s="16"/>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -36652,7 +37254,7 @@
       </c>
       <c r="M173" s="16"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -36685,7 +37287,7 @@
       <c r="L174" s="16"/>
       <c r="M174" s="16"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -36718,7 +37320,7 @@
       <c r="L175" s="16"/>
       <c r="M175" s="16"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -36751,7 +37353,7 @@
       <c r="L176" s="16"/>
       <c r="M176" s="16"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -36784,7 +37386,7 @@
       <c r="L177" s="16"/>
       <c r="M177" s="16"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -36817,7 +37419,7 @@
       <c r="L178" s="16"/>
       <c r="M178" s="16"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -36850,7 +37452,7 @@
       <c r="L179" s="16"/>
       <c r="M179" s="16"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -36883,7 +37485,7 @@
       <c r="L180" s="16"/>
       <c r="M180" s="16"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -36916,7 +37518,7 @@
       <c r="L181" s="16"/>
       <c r="M181" s="16"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -36949,7 +37551,7 @@
       <c r="L182" s="16"/>
       <c r="M182" s="16"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -36982,37 +37584,65 @@
       <c r="L183" s="16"/>
       <c r="M183" s="16"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="14"/>
-      <c r="C184" s="12"/>
+      <c r="B184" s="43">
+        <v>46049</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="13"/>
+      <c r="E184" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F184" s="13">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H184" s="13">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="I184" s="27"/>
       <c r="J184" s="16"/>
-      <c r="K184" s="23"/>
+      <c r="K184" s="23">
+        <v>0</v>
+      </c>
       <c r="L184" s="16"/>
       <c r="M184" s="16"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="14"/>
-      <c r="C185" s="12"/>
+      <c r="B185" s="43">
+        <v>46050</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="13"/>
+      <c r="E185" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F185" s="13">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H185" s="13">
+        <v>0.56597222222222221</v>
+      </c>
       <c r="I185" s="27"/>
       <c r="J185" s="16"/>
-      <c r="K185" s="23"/>
+      <c r="K185" s="23">
+        <v>0</v>
+      </c>
       <c r="L185" s="16"/>
       <c r="M185" s="16"/>
     </row>
@@ -37020,16 +37650,30 @@
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="14"/>
-      <c r="C186" s="12"/>
+      <c r="B186" s="43">
+        <v>46055</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="13"/>
+      <c r="E186" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F186" s="13">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H186" s="13">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="I186" s="27"/>
       <c r="J186" s="16"/>
-      <c r="K186" s="23"/>
+      <c r="K186" s="23">
+        <v>0</v>
+      </c>
       <c r="L186" s="16"/>
       <c r="M186" s="16"/>
     </row>
@@ -37037,16 +37681,30 @@
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="14"/>
-      <c r="C187" s="12"/>
+      <c r="B187" s="43">
+        <v>46057</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="13"/>
+      <c r="E187" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F187" s="13">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H187" s="13">
+        <v>0.56597222222222221</v>
+      </c>
       <c r="I187" s="27"/>
       <c r="J187" s="16"/>
-      <c r="K187" s="23"/>
+      <c r="K187" s="23">
+        <v>0</v>
+      </c>
       <c r="L187" s="16"/>
       <c r="M187" s="16"/>
     </row>
@@ -37054,16 +37712,30 @@
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="14"/>
-      <c r="C188" s="12"/>
+      <c r="B188" s="43">
+        <v>46062</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="13"/>
+      <c r="E188" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F188" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H188" s="13">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="I188" s="27"/>
       <c r="J188" s="16"/>
-      <c r="K188" s="23"/>
+      <c r="K188" s="23">
+        <v>0</v>
+      </c>
       <c r="L188" s="16"/>
       <c r="M188" s="16"/>
     </row>
@@ -37071,16 +37743,30 @@
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="14"/>
-      <c r="C189" s="12"/>
+      <c r="B189" s="43">
+        <v>46057</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="13"/>
+      <c r="E189" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F189" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H189" s="13">
+        <v>0.35069444444444442</v>
+      </c>
       <c r="I189" s="27"/>
       <c r="J189" s="16"/>
-      <c r="K189" s="23"/>
+      <c r="K189" s="23">
+        <v>0</v>
+      </c>
       <c r="L189" s="16"/>
       <c r="M189" s="16"/>
     </row>
@@ -38629,7 +39315,7 @@
       </c>
       <c r="K291">
         <f>COUNTA(テーブル4[料金])*5</f>
-        <v>910</v>
+        <v>940</v>
       </c>
     </row>
     <row r="292" spans="10:11">
@@ -38638,7 +39324,7 @@
       </c>
       <c r="K292">
         <f>COUNTA(テーブル4[料金])</f>
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="293" spans="10:11">
@@ -38647,7 +39333,7 @@
       </c>
       <c r="K293" s="42">
         <f>K290/K291</f>
-        <v>1377.9428571428571</v>
+        <v>1333.9659574468085</v>
       </c>
     </row>
     <row r="305" spans="1:8">

--- a/data/20251229_LSP管理.xlsx
+++ b/data/20251229_LSP管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiraizumitatsuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BBC8B9-6EC4-40B1-8238-91FE25497E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4C65F3-A701-4D7A-89BD-85DC127F464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイル管理" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="266">
   <si>
     <t>日付</t>
   </si>
@@ -13945,7 +13945,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3FCDC422-27B5-482E-BFE7-6645FF3F845A}" name="テーブル4" displayName="テーブル4" ref="A1:M279" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M279" xr:uid="{3FCDC422-27B5-482E-BFE7-6645FF3F845A}">
     <filterColumn colId="1">
-      <filters blank="1">
+      <filters>
         <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
@@ -14259,11 +14259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57836D-5153-486D-8B76-48FAFDDE1EA1}">
-  <dimension ref="A1:O373"/>
+  <dimension ref="A1:O375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B345" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O366" sqref="O366"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M378" sqref="M378"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -28698,13 +28698,91 @@
         <v>96</v>
       </c>
     </row>
+    <row r="374" spans="1:13">
+      <c r="A374" s="28">
+        <v>46046</v>
+      </c>
+      <c r="B374" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C374" s="75"/>
+      <c r="D374" s="75"/>
+      <c r="E374" s="76"/>
+      <c r="F374" s="73">
+        <v>0</v>
+      </c>
+      <c r="G374" s="73">
+        <v>27</v>
+      </c>
+      <c r="H374" s="73">
+        <v>27</v>
+      </c>
+      <c r="I374" s="4">
+        <v>95269</v>
+      </c>
+      <c r="J374" s="73">
+        <v>0</v>
+      </c>
+      <c r="K374" s="73">
+        <v>0</v>
+      </c>
+      <c r="L374" s="73">
+        <f t="shared" ref="L374:L375" si="42">J374+L373</f>
+        <v>93796</v>
+      </c>
+      <c r="M374" s="73">
+        <f t="shared" ref="M374:M375" si="43">K374+M373</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13">
+      <c r="A375" s="30">
+        <v>46047</v>
+      </c>
+      <c r="B375" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C375" s="77"/>
+      <c r="D375" s="77"/>
+      <c r="E375" s="78"/>
+      <c r="F375" s="74">
+        <v>0</v>
+      </c>
+      <c r="G375" s="74">
+        <v>71</v>
+      </c>
+      <c r="H375" s="74">
+        <v>71</v>
+      </c>
+      <c r="I375" s="31">
+        <v>95340</v>
+      </c>
+      <c r="J375" s="74">
+        <v>0</v>
+      </c>
+      <c r="K375" s="74">
+        <v>0</v>
+      </c>
+      <c r="L375" s="73">
+        <f t="shared" si="42"/>
+        <v>93796</v>
+      </c>
+      <c r="M375" s="73">
+        <f t="shared" si="43"/>
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="254">
-    <mergeCell ref="B367:E367"/>
-    <mergeCell ref="B370:E370"/>
-    <mergeCell ref="B371:E371"/>
-    <mergeCell ref="B372:E372"/>
-    <mergeCell ref="B373:E373"/>
+  <mergeCells count="256">
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B331:E331"/>
     <mergeCell ref="B319:E319"/>
     <mergeCell ref="B303:E303"/>
     <mergeCell ref="B304:E304"/>
@@ -28932,15 +29010,8 @@
     <mergeCell ref="B245:E245"/>
     <mergeCell ref="B247:E247"/>
     <mergeCell ref="B248:E248"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B323:E323"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B374:E374"/>
+    <mergeCell ref="B375:E375"/>
     <mergeCell ref="B360:E360"/>
     <mergeCell ref="B362:E362"/>
     <mergeCell ref="B364:E364"/>
@@ -28954,6 +29025,11 @@
     <mergeCell ref="B358:E358"/>
     <mergeCell ref="B359:E359"/>
     <mergeCell ref="B346:E346"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="B370:E370"/>
+    <mergeCell ref="B371:E371"/>
+    <mergeCell ref="B372:E372"/>
+    <mergeCell ref="B373:E373"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G56" r:id="rId1" display="106" xr:uid="{91711D96-DEE6-4487-B096-595B3971FA7B}"/>
@@ -29055,7 +29131,7 @@
   <dimension ref="B2:J145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
@@ -31577,8 +31653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EF3C4E-F452-4BBC-81DB-9BE6F59D48AA}">
   <dimension ref="A1:M333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="Q139" sqref="Q139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34927,7 +35003,9 @@
       <c r="K98" s="23">
         <v>10590</v>
       </c>
-      <c r="L98" s="16"/>
+      <c r="L98" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="M98" s="16"/>
     </row>
     <row r="99" spans="1:13" hidden="1">
@@ -34958,7 +35036,9 @@
       <c r="K99" s="23">
         <v>5740</v>
       </c>
-      <c r="L99" s="16"/>
+      <c r="L99" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="M99" s="16"/>
     </row>
     <row r="100" spans="1:13" hidden="1">
@@ -34989,7 +35069,9 @@
       <c r="K100" s="23">
         <v>5740</v>
       </c>
-      <c r="L100" s="16"/>
+      <c r="L100" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="M100" s="16"/>
     </row>
     <row r="101" spans="1:13" hidden="1">
@@ -35020,7 +35102,9 @@
       <c r="K101" s="23">
         <v>9040</v>
       </c>
-      <c r="L101" s="16"/>
+      <c r="L101" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="M101" s="16"/>
     </row>
     <row r="102" spans="1:13" hidden="1">
@@ -35051,7 +35135,9 @@
       <c r="K102" s="23">
         <v>9040</v>
       </c>
-      <c r="L102" s="16"/>
+      <c r="L102" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="M102" s="16"/>
     </row>
     <row r="103" spans="1:13" hidden="1">
@@ -35082,7 +35168,9 @@
       <c r="K103" s="23">
         <v>10590</v>
       </c>
-      <c r="L103" s="16"/>
+      <c r="L103" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="M103" s="16"/>
     </row>
     <row r="104" spans="1:13" hidden="1">
@@ -37744,7 +37832,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="43">
-        <v>46057</v>
+        <v>46063</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>190</v>
@@ -37770,7 +37858,7 @@
       <c r="L189" s="16"/>
       <c r="M189" s="16"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -37787,7 +37875,7 @@
       <c r="L190" s="16"/>
       <c r="M190" s="16"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -37804,7 +37892,7 @@
       <c r="L191" s="16"/>
       <c r="M191" s="16"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -37821,7 +37909,7 @@
       <c r="L192" s="16"/>
       <c r="M192" s="16"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -37838,7 +37926,7 @@
       <c r="L193" s="16"/>
       <c r="M193" s="16"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -37855,7 +37943,7 @@
       <c r="L194" s="16"/>
       <c r="M194" s="16"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -37872,7 +37960,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -37889,7 +37977,7 @@
       <c r="L196" s="16"/>
       <c r="M196" s="16"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -37906,7 +37994,7 @@
       <c r="L197" s="16"/>
       <c r="M197" s="16"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -37923,7 +38011,7 @@
       <c r="L198" s="16"/>
       <c r="M198" s="16"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -37940,7 +38028,7 @@
       <c r="L199" s="16"/>
       <c r="M199" s="16"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -37957,7 +38045,7 @@
       <c r="L200" s="16"/>
       <c r="M200" s="16"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -37974,7 +38062,7 @@
       <c r="L201" s="16"/>
       <c r="M201" s="16"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -37991,7 +38079,7 @@
       <c r="L202" s="16"/>
       <c r="M202" s="16"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -38008,7 +38096,7 @@
       <c r="L203" s="16"/>
       <c r="M203" s="16"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -38025,7 +38113,7 @@
       <c r="L204" s="16"/>
       <c r="M204" s="16"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -38042,7 +38130,7 @@
       <c r="L205" s="16"/>
       <c r="M205" s="16"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -38059,7 +38147,7 @@
       <c r="L206" s="16"/>
       <c r="M206" s="16"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -38076,7 +38164,7 @@
       <c r="L207" s="16"/>
       <c r="M207" s="16"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -38093,7 +38181,7 @@
       <c r="L208" s="16"/>
       <c r="M208" s="16"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -38110,7 +38198,7 @@
       <c r="L209" s="16"/>
       <c r="M209" s="16"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -38127,7 +38215,7 @@
       <c r="L210" s="16"/>
       <c r="M210" s="16"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -38144,7 +38232,7 @@
       <c r="L211" s="16"/>
       <c r="M211" s="16"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -38161,7 +38249,7 @@
       <c r="L212" s="16"/>
       <c r="M212" s="16"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -38178,7 +38266,7 @@
       <c r="L213" s="16"/>
       <c r="M213" s="16"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -38195,7 +38283,7 @@
       <c r="L214" s="16"/>
       <c r="M214" s="16"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -38212,7 +38300,7 @@
       <c r="L215" s="16"/>
       <c r="M215" s="16"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -38229,7 +38317,7 @@
       <c r="L216" s="16"/>
       <c r="M216" s="16"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -38246,7 +38334,7 @@
       <c r="L217" s="16"/>
       <c r="M217" s="16"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -38263,7 +38351,7 @@
       <c r="L218" s="16"/>
       <c r="M218" s="16"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -38280,7 +38368,7 @@
       <c r="L219" s="16"/>
       <c r="M219" s="16"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -38297,7 +38385,7 @@
       <c r="L220" s="16"/>
       <c r="M220" s="16"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -38314,7 +38402,7 @@
       <c r="L221" s="16"/>
       <c r="M221" s="16"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -38331,7 +38419,7 @@
       <c r="L222" s="16"/>
       <c r="M222" s="16"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -38348,7 +38436,7 @@
       <c r="L223" s="16"/>
       <c r="M223" s="16"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -38365,7 +38453,7 @@
       <c r="L224" s="16"/>
       <c r="M224" s="16"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -38382,7 +38470,7 @@
       <c r="L225" s="16"/>
       <c r="M225" s="16"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -38399,7 +38487,7 @@
       <c r="L226" s="16"/>
       <c r="M226" s="16"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -38416,7 +38504,7 @@
       <c r="L227" s="16"/>
       <c r="M227" s="16"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -38433,7 +38521,7 @@
       <c r="L228" s="16"/>
       <c r="M228" s="16"/>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -38450,7 +38538,7 @@
       <c r="L229" s="16"/>
       <c r="M229" s="16"/>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -38467,7 +38555,7 @@
       <c r="L230" s="16"/>
       <c r="M230" s="16"/>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -38484,7 +38572,7 @@
       <c r="L231" s="16"/>
       <c r="M231" s="16"/>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -38501,7 +38589,7 @@
       <c r="L232" s="16"/>
       <c r="M232" s="16"/>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -38518,7 +38606,7 @@
       <c r="L233" s="16"/>
       <c r="M233" s="16"/>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -38535,7 +38623,7 @@
       <c r="L234" s="16"/>
       <c r="M234" s="16"/>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -38552,7 +38640,7 @@
       <c r="L235" s="16"/>
       <c r="M235" s="16"/>
     </row>
-    <row r="236" spans="1:13" ht="14.25">
+    <row r="236" spans="1:13" ht="14.25" hidden="1">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -38569,7 +38657,7 @@
       <c r="L236" s="16"/>
       <c r="M236" s="16"/>
     </row>
-    <row r="237" spans="1:13" ht="14.25">
+    <row r="237" spans="1:13" ht="14.25" hidden="1">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -38586,7 +38674,7 @@
       <c r="L237" s="16"/>
       <c r="M237" s="16"/>
     </row>
-    <row r="238" spans="1:13" ht="14.25">
+    <row r="238" spans="1:13" ht="14.25" hidden="1">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -38603,7 +38691,7 @@
       <c r="L238" s="16"/>
       <c r="M238" s="16"/>
     </row>
-    <row r="239" spans="1:13" ht="14.25">
+    <row r="239" spans="1:13" ht="14.25" hidden="1">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -38620,7 +38708,7 @@
       <c r="L239" s="16"/>
       <c r="M239" s="16"/>
     </row>
-    <row r="240" spans="1:13" ht="14.25">
+    <row r="240" spans="1:13" ht="14.25" hidden="1">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -38637,7 +38725,7 @@
       <c r="L240" s="16"/>
       <c r="M240" s="16"/>
     </row>
-    <row r="241" spans="1:13" ht="14.25">
+    <row r="241" spans="1:13" ht="14.25" hidden="1">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -38654,7 +38742,7 @@
       <c r="L241" s="16"/>
       <c r="M241" s="16"/>
     </row>
-    <row r="242" spans="1:13" ht="14.25">
+    <row r="242" spans="1:13" ht="14.25" hidden="1">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -38671,7 +38759,7 @@
       <c r="L242" s="16"/>
       <c r="M242" s="16"/>
     </row>
-    <row r="243" spans="1:13" ht="14.25">
+    <row r="243" spans="1:13" ht="14.25" hidden="1">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -38688,7 +38776,7 @@
       <c r="L243" s="16"/>
       <c r="M243" s="16"/>
     </row>
-    <row r="244" spans="1:13" ht="14.25">
+    <row r="244" spans="1:13" ht="14.25" hidden="1">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -38705,7 +38793,7 @@
       <c r="L244" s="16"/>
       <c r="M244" s="16"/>
     </row>
-    <row r="245" spans="1:13" ht="14.25">
+    <row r="245" spans="1:13" ht="14.25" hidden="1">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -38722,7 +38810,7 @@
       <c r="L245" s="16"/>
       <c r="M245" s="16"/>
     </row>
-    <row r="246" spans="1:13" ht="14.25">
+    <row r="246" spans="1:13" ht="14.25" hidden="1">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -38739,7 +38827,7 @@
       <c r="L246" s="16"/>
       <c r="M246" s="16"/>
     </row>
-    <row r="247" spans="1:13" ht="14.25">
+    <row r="247" spans="1:13" ht="14.25" hidden="1">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -38756,7 +38844,7 @@
       <c r="L247" s="16"/>
       <c r="M247" s="16"/>
     </row>
-    <row r="248" spans="1:13" ht="14.25">
+    <row r="248" spans="1:13" ht="14.25" hidden="1">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -38773,7 +38861,7 @@
       <c r="L248" s="16"/>
       <c r="M248" s="16"/>
     </row>
-    <row r="249" spans="1:13" ht="14.25">
+    <row r="249" spans="1:13" ht="14.25" hidden="1">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -38790,7 +38878,7 @@
       <c r="L249" s="16"/>
       <c r="M249" s="16"/>
     </row>
-    <row r="250" spans="1:13" ht="14.25">
+    <row r="250" spans="1:13" ht="14.25" hidden="1">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -38807,7 +38895,7 @@
       <c r="L250" s="16"/>
       <c r="M250" s="16"/>
     </row>
-    <row r="251" spans="1:13" ht="14.25">
+    <row r="251" spans="1:13" ht="14.25" hidden="1">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -38824,7 +38912,7 @@
       <c r="L251" s="16"/>
       <c r="M251" s="16"/>
     </row>
-    <row r="252" spans="1:13" ht="14.25">
+    <row r="252" spans="1:13" ht="14.25" hidden="1">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -38841,7 +38929,7 @@
       <c r="L252" s="16"/>
       <c r="M252" s="16"/>
     </row>
-    <row r="253" spans="1:13" ht="14.25">
+    <row r="253" spans="1:13" ht="14.25" hidden="1">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -38858,7 +38946,7 @@
       <c r="L253" s="16"/>
       <c r="M253" s="16"/>
     </row>
-    <row r="254" spans="1:13" ht="14.25">
+    <row r="254" spans="1:13" ht="14.25" hidden="1">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -38875,7 +38963,7 @@
       <c r="L254" s="16"/>
       <c r="M254" s="16"/>
     </row>
-    <row r="255" spans="1:13" ht="14.25">
+    <row r="255" spans="1:13" ht="14.25" hidden="1">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -38892,7 +38980,7 @@
       <c r="L255" s="16"/>
       <c r="M255" s="16"/>
     </row>
-    <row r="256" spans="1:13" ht="14.25">
+    <row r="256" spans="1:13" ht="14.25" hidden="1">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -38909,7 +38997,7 @@
       <c r="L256" s="16"/>
       <c r="M256" s="16"/>
     </row>
-    <row r="257" spans="1:13" ht="14.25">
+    <row r="257" spans="1:13" ht="14.25" hidden="1">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -38926,7 +39014,7 @@
       <c r="L257" s="16"/>
       <c r="M257" s="16"/>
     </row>
-    <row r="258" spans="1:13" ht="14.25">
+    <row r="258" spans="1:13" ht="14.25" hidden="1">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -38943,7 +39031,7 @@
       <c r="L258" s="16"/>
       <c r="M258" s="16"/>
     </row>
-    <row r="259" spans="1:13" ht="14.25">
+    <row r="259" spans="1:13" ht="14.25" hidden="1">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -38960,7 +39048,7 @@
       <c r="L259" s="16"/>
       <c r="M259" s="16"/>
     </row>
-    <row r="260" spans="1:13" ht="14.25">
+    <row r="260" spans="1:13" ht="14.25" hidden="1">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -38977,7 +39065,7 @@
       <c r="L260" s="16"/>
       <c r="M260" s="16"/>
     </row>
-    <row r="261" spans="1:13" ht="14.25">
+    <row r="261" spans="1:13" ht="14.25" hidden="1">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -38994,7 +39082,7 @@
       <c r="L261" s="16"/>
       <c r="M261" s="16"/>
     </row>
-    <row r="262" spans="1:13" ht="14.25">
+    <row r="262" spans="1:13" ht="14.25" hidden="1">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -39011,7 +39099,7 @@
       <c r="L262" s="16"/>
       <c r="M262" s="16"/>
     </row>
-    <row r="263" spans="1:13" ht="14.25">
+    <row r="263" spans="1:13" ht="14.25" hidden="1">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -39028,7 +39116,7 @@
       <c r="L263" s="16"/>
       <c r="M263" s="16"/>
     </row>
-    <row r="264" spans="1:13" ht="14.25">
+    <row r="264" spans="1:13" ht="14.25" hidden="1">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -39045,7 +39133,7 @@
       <c r="L264" s="16"/>
       <c r="M264" s="16"/>
     </row>
-    <row r="265" spans="1:13" ht="14.25">
+    <row r="265" spans="1:13" ht="14.25" hidden="1">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -39062,7 +39150,7 @@
       <c r="L265" s="16"/>
       <c r="M265" s="16"/>
     </row>
-    <row r="266" spans="1:13" ht="14.25">
+    <row r="266" spans="1:13" ht="14.25" hidden="1">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -39079,7 +39167,7 @@
       <c r="L266" s="16"/>
       <c r="M266" s="16"/>
     </row>
-    <row r="267" spans="1:13" ht="14.25">
+    <row r="267" spans="1:13" ht="14.25" hidden="1">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -39096,7 +39184,7 @@
       <c r="L267" s="16"/>
       <c r="M267" s="16"/>
     </row>
-    <row r="268" spans="1:13" ht="14.25">
+    <row r="268" spans="1:13" ht="14.25" hidden="1">
       <c r="A268" s="15">
         <v>267</v>
       </c>
@@ -39113,7 +39201,7 @@
       <c r="L268" s="16"/>
       <c r="M268" s="16"/>
     </row>
-    <row r="269" spans="1:13" ht="14.25">
+    <row r="269" spans="1:13" ht="14.25" hidden="1">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -39130,7 +39218,7 @@
       <c r="L269" s="16"/>
       <c r="M269" s="16"/>
     </row>
-    <row r="270" spans="1:13" ht="14.25">
+    <row r="270" spans="1:13" ht="14.25" hidden="1">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -39147,7 +39235,7 @@
       <c r="L270" s="16"/>
       <c r="M270" s="16"/>
     </row>
-    <row r="271" spans="1:13" ht="14.25">
+    <row r="271" spans="1:13" ht="14.25" hidden="1">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -39164,7 +39252,7 @@
       <c r="L271" s="16"/>
       <c r="M271" s="16"/>
     </row>
-    <row r="272" spans="1:13" ht="14.25">
+    <row r="272" spans="1:13" ht="14.25" hidden="1">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -39181,7 +39269,7 @@
       <c r="L272" s="16"/>
       <c r="M272" s="16"/>
     </row>
-    <row r="273" spans="1:13" ht="14.25">
+    <row r="273" spans="1:13" ht="14.25" hidden="1">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -39198,7 +39286,7 @@
       <c r="L273" s="16"/>
       <c r="M273" s="16"/>
     </row>
-    <row r="274" spans="1:13" ht="14.25">
+    <row r="274" spans="1:13" ht="14.25" hidden="1">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -39215,7 +39303,7 @@
       <c r="L274" s="16"/>
       <c r="M274" s="16"/>
     </row>
-    <row r="275" spans="1:13" ht="14.25">
+    <row r="275" spans="1:13" ht="14.25" hidden="1">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -39232,7 +39320,7 @@
       <c r="L275" s="16"/>
       <c r="M275" s="16"/>
     </row>
-    <row r="276" spans="1:13" ht="14.25">
+    <row r="276" spans="1:13" ht="14.25" hidden="1">
       <c r="A276" s="15">
         <v>275</v>
       </c>
@@ -39249,7 +39337,7 @@
       <c r="L276" s="16"/>
       <c r="M276" s="16"/>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -39266,7 +39354,7 @@
       <c r="L277" s="16"/>
       <c r="M277" s="16"/>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" hidden="1">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -39283,7 +39371,7 @@
       <c r="L278" s="16"/>
       <c r="M278" s="16"/>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" hidden="1">
       <c r="A279" s="15">
         <v>278</v>
       </c>

--- a/data/20251229_LSP管理.xlsx
+++ b/data/20251229_LSP管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiraizumitatsuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4C65F3-A701-4D7A-89BD-85DC127F464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CECFE27-779C-45F5-98DB-9A8200C956A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイル管理" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="273">
   <si>
     <t>日付</t>
   </si>
@@ -516,6 +516,27 @@
     <t>JL0184</t>
   </si>
   <si>
+    <t>NU0864</t>
+  </si>
+  <si>
+    <t>南大東-沖縄</t>
+  </si>
+  <si>
+    <t>NU0863</t>
+  </si>
+  <si>
+    <t>沖縄-南大東</t>
+  </si>
+  <si>
+    <t>NU0558</t>
+  </si>
+  <si>
+    <t>NU0557</t>
+  </si>
+  <si>
+    <t>JL0922</t>
+  </si>
+  <si>
     <t>積算日</t>
   </si>
   <si>
@@ -555,22 +576,22 @@
     <t>合計</t>
   </si>
   <si>
+    <t>ライフスタイルサービス</t>
+  </si>
+  <si>
+    <t>JALマイレージパーク利用</t>
+  </si>
+  <si>
     <t>航空</t>
   </si>
   <si>
     <t>JAL国内線利用</t>
   </si>
   <si>
-    <t>ライフスタイルサービス</t>
-  </si>
-  <si>
     <t>JAL Wellness &amp; Travel利用</t>
   </si>
   <si>
     <t>JALカード利用</t>
-  </si>
-  <si>
-    <t>JALマイレージパーク利用</t>
   </si>
   <si>
     <t>JMB eliteチャレンジ（カード）</t>
@@ -1993,7 +2014,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>67624</c:v>
+                  <c:v>73128</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32672</c:v>
@@ -2005,7 +2026,7 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4360</c:v>
+                  <c:v>4527</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
@@ -8259,6 +8280,9 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="125"/>
+                <c:pt idx="36">
+                  <c:v>46047</c:v>
+                </c:pt>
                 <c:pt idx="37">
                   <c:v>46044</c:v>
                 </c:pt>
@@ -8527,115 +8551,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="125"/>
                 <c:pt idx="0">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>793</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>793</c:v>
@@ -9368,7 +9392,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28</c:v>
@@ -14259,11 +14283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57836D-5153-486D-8B76-48FAFDDE1EA1}">
-  <dimension ref="A1:O375"/>
+  <dimension ref="A1:O383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M378" sqref="M378"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B366" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L386" sqref="L386"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -14663,7 +14687,7 @@
       </c>
       <c r="O12" s="11">
         <f>SUMIFS(H2:H30000, B2:B30000, "*JL*")+SUMIFS(H11:H30000, B11:B30000, "*NU*")</f>
-        <v>67624</v>
+        <v>73128</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -14835,7 +14859,7 @@
       </c>
       <c r="O16">
         <f>SUMIFS(H11:H30000, B11:B30000, "*ＷＥＬＬＮＥＳＳ*")</f>
-        <v>4360</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -15077,7 +15101,7 @@
       <c r="N21" s="32"/>
       <c r="O21">
         <f>SUM(O12:O18)</f>
-        <v>83687</v>
+        <v>89358</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -28662,31 +28686,31 @@
       </c>
     </row>
     <row r="373" spans="1:13">
-      <c r="A373" s="30">
+      <c r="A373" s="28">
         <v>46045</v>
       </c>
-      <c r="B373" s="77" t="s">
+      <c r="B373" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C373" s="77"/>
-      <c r="D373" s="77"/>
-      <c r="E373" s="78"/>
-      <c r="F373" s="74">
-        <v>0</v>
-      </c>
-      <c r="G373" s="74">
+      <c r="C373" s="75"/>
+      <c r="D373" s="75"/>
+      <c r="E373" s="76"/>
+      <c r="F373" s="73">
+        <v>0</v>
+      </c>
+      <c r="G373" s="73">
         <v>13</v>
       </c>
-      <c r="H373" s="74">
+      <c r="H373" s="73">
         <v>13</v>
       </c>
-      <c r="I373" s="31">
+      <c r="I373" s="4">
         <v>95242</v>
       </c>
-      <c r="J373" s="74">
-        <v>0</v>
-      </c>
-      <c r="K373" s="74">
+      <c r="J373" s="73">
+        <v>0</v>
+      </c>
+      <c r="K373" s="73">
         <v>0</v>
       </c>
       <c r="L373" s="73">
@@ -28702,78 +28726,414 @@
       <c r="A374" s="28">
         <v>46046</v>
       </c>
-      <c r="B374" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C374" s="75"/>
-      <c r="D374" s="75"/>
-      <c r="E374" s="76"/>
+      <c r="B374" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F374" s="73">
-        <v>0</v>
-      </c>
-      <c r="G374" s="73">
-        <v>27</v>
+        <v>113</v>
+      </c>
+      <c r="G374" s="29">
+        <v>119</v>
       </c>
       <c r="H374" s="73">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="I374" s="4">
-        <v>95269</v>
+        <v>95474</v>
       </c>
       <c r="J374" s="73">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="K374" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L374" s="73">
         <f t="shared" ref="L374:L375" si="42">J374+L373</f>
-        <v>93796</v>
+        <v>94022</v>
       </c>
       <c r="M374" s="73">
         <f t="shared" ref="M374:M375" si="43">K374+M373</f>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="375" spans="1:13">
-      <c r="A375" s="30">
-        <v>46047</v>
-      </c>
-      <c r="B375" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C375" s="77"/>
-      <c r="D375" s="77"/>
-      <c r="E375" s="78"/>
-      <c r="F375" s="74">
-        <v>0</v>
-      </c>
-      <c r="G375" s="74">
-        <v>71</v>
-      </c>
-      <c r="H375" s="74">
-        <v>71</v>
-      </c>
-      <c r="I375" s="31">
-        <v>95340</v>
-      </c>
-      <c r="J375" s="74">
-        <v>0</v>
-      </c>
-      <c r="K375" s="74">
-        <v>0</v>
+      <c r="A375" s="28">
+        <v>46046</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F375" s="73">
+        <v>113</v>
+      </c>
+      <c r="G375" s="29">
+        <v>119</v>
+      </c>
+      <c r="H375" s="73">
+        <v>232</v>
+      </c>
+      <c r="I375" s="4">
+        <v>95706</v>
+      </c>
+      <c r="J375" s="73">
+        <v>226</v>
+      </c>
+      <c r="K375" s="73">
+        <v>1</v>
       </c>
       <c r="L375" s="73">
         <f t="shared" si="42"/>
-        <v>93796</v>
+        <v>94248</v>
       </c>
       <c r="M375" s="73">
         <f t="shared" si="43"/>
-        <v>96</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13">
+      <c r="A376" s="28">
+        <v>46046</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F376" s="73">
+        <v>89</v>
+      </c>
+      <c r="G376" s="29">
+        <v>93</v>
+      </c>
+      <c r="H376" s="73">
+        <v>182</v>
+      </c>
+      <c r="I376" s="4">
+        <v>95888</v>
+      </c>
+      <c r="J376" s="73">
+        <v>178</v>
+      </c>
+      <c r="K376" s="73">
+        <v>1</v>
+      </c>
+      <c r="L376" s="73">
+        <f t="shared" ref="L376:L383" si="44">J376+L375</f>
+        <v>94426</v>
+      </c>
+      <c r="M376" s="73">
+        <f t="shared" ref="M376:M383" si="45">K376+M375</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13">
+      <c r="A377" s="28">
+        <v>46046</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F377" s="73">
+        <v>89</v>
+      </c>
+      <c r="G377" s="29">
+        <v>93</v>
+      </c>
+      <c r="H377" s="73">
+        <v>182</v>
+      </c>
+      <c r="I377" s="4">
+        <v>96070</v>
+      </c>
+      <c r="J377" s="73">
+        <v>178</v>
+      </c>
+      <c r="K377" s="73">
+        <v>1</v>
+      </c>
+      <c r="L377" s="73">
+        <f t="shared" si="44"/>
+        <v>94604</v>
+      </c>
+      <c r="M377" s="73">
+        <f t="shared" si="45"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13">
+      <c r="A378" s="28">
+        <v>46046</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F378" s="73">
+        <v>492</v>
+      </c>
+      <c r="G378" s="29">
+        <v>517</v>
+      </c>
+      <c r="H378" s="4">
+        <v>1009</v>
+      </c>
+      <c r="I378" s="4">
+        <v>97079</v>
+      </c>
+      <c r="J378" s="73">
+        <v>984</v>
+      </c>
+      <c r="K378" s="73">
+        <v>1</v>
+      </c>
+      <c r="L378" s="73">
+        <f t="shared" si="44"/>
+        <v>95588</v>
+      </c>
+      <c r="M378" s="73">
+        <f t="shared" si="45"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13">
+      <c r="A379" s="28">
+        <v>46046</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F379" s="73">
+        <v>492</v>
+      </c>
+      <c r="G379" s="29">
+        <v>517</v>
+      </c>
+      <c r="H379" s="4">
+        <v>1009</v>
+      </c>
+      <c r="I379" s="4">
+        <v>98088</v>
+      </c>
+      <c r="J379" s="73">
+        <v>984</v>
+      </c>
+      <c r="K379" s="73">
+        <v>1</v>
+      </c>
+      <c r="L379" s="73">
+        <f t="shared" si="44"/>
+        <v>96572</v>
+      </c>
+      <c r="M379" s="73">
+        <f t="shared" si="45"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13">
+      <c r="A380" s="28">
+        <v>46046</v>
+      </c>
+      <c r="B380" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C380" s="75"/>
+      <c r="D380" s="75"/>
+      <c r="E380" s="76"/>
+      <c r="F380" s="73">
+        <v>0</v>
+      </c>
+      <c r="G380" s="73">
+        <v>27</v>
+      </c>
+      <c r="H380" s="73">
+        <v>27</v>
+      </c>
+      <c r="I380" s="4">
+        <v>98115</v>
+      </c>
+      <c r="J380" s="73">
+        <v>0</v>
+      </c>
+      <c r="K380" s="73">
+        <v>0</v>
+      </c>
+      <c r="L380" s="73">
+        <f t="shared" si="44"/>
+        <v>96572</v>
+      </c>
+      <c r="M380" s="73">
+        <f t="shared" si="45"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13">
+      <c r="A381" s="28">
+        <v>46047</v>
+      </c>
+      <c r="B381" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C381" s="75"/>
+      <c r="D381" s="75"/>
+      <c r="E381" s="76"/>
+      <c r="F381" s="73">
+        <v>0</v>
+      </c>
+      <c r="G381" s="73">
+        <v>118</v>
+      </c>
+      <c r="H381" s="73">
+        <v>118</v>
+      </c>
+      <c r="I381" s="4">
+        <v>98233</v>
+      </c>
+      <c r="J381" s="73">
+        <v>0</v>
+      </c>
+      <c r="K381" s="73">
+        <v>0</v>
+      </c>
+      <c r="L381" s="73">
+        <f t="shared" si="44"/>
+        <v>96572</v>
+      </c>
+      <c r="M381" s="73">
+        <f t="shared" si="45"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13">
+      <c r="A382" s="28">
+        <v>46047</v>
+      </c>
+      <c r="B382" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C382" s="75"/>
+      <c r="D382" s="75"/>
+      <c r="E382" s="76"/>
+      <c r="F382" s="73">
+        <v>0</v>
+      </c>
+      <c r="G382" s="73">
+        <v>71</v>
+      </c>
+      <c r="H382" s="73">
+        <v>71</v>
+      </c>
+      <c r="I382" s="4">
+        <v>98304</v>
+      </c>
+      <c r="J382" s="73">
+        <v>0</v>
+      </c>
+      <c r="K382" s="73">
+        <v>0</v>
+      </c>
+      <c r="L382" s="73">
+        <f t="shared" si="44"/>
+        <v>96572</v>
+      </c>
+      <c r="M382" s="73">
+        <f t="shared" si="45"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13">
+      <c r="A383" s="30">
+        <v>46048</v>
+      </c>
+      <c r="B383" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C383" s="77"/>
+      <c r="D383" s="77"/>
+      <c r="E383" s="78"/>
+      <c r="F383" s="74">
+        <v>0</v>
+      </c>
+      <c r="G383" s="74">
+        <v>17</v>
+      </c>
+      <c r="H383" s="74">
+        <v>17</v>
+      </c>
+      <c r="I383" s="31">
+        <v>98321</v>
+      </c>
+      <c r="J383" s="74">
+        <v>0</v>
+      </c>
+      <c r="K383" s="74">
+        <v>0</v>
+      </c>
+      <c r="L383" s="73">
+        <f t="shared" si="44"/>
+        <v>96572</v>
+      </c>
+      <c r="M383" s="73">
+        <f t="shared" si="45"/>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="256">
+  <mergeCells count="258">
+    <mergeCell ref="B380:E380"/>
+    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="B382:E382"/>
+    <mergeCell ref="B383:E383"/>
     <mergeCell ref="B320:E320"/>
     <mergeCell ref="B321:E321"/>
     <mergeCell ref="B322:E322"/>
@@ -29010,8 +29370,6 @@
     <mergeCell ref="B245:E245"/>
     <mergeCell ref="B247:E247"/>
     <mergeCell ref="B248:E248"/>
-    <mergeCell ref="B374:E374"/>
-    <mergeCell ref="B375:E375"/>
     <mergeCell ref="B360:E360"/>
     <mergeCell ref="B362:E362"/>
     <mergeCell ref="B364:E364"/>
@@ -29120,9 +29478,15 @@
     <hyperlink ref="G363" r:id="rId86" display="294" xr:uid="{B2446DA2-22B9-4971-BAF1-D11D82C91345}"/>
     <hyperlink ref="G368" r:id="rId87" display="705" xr:uid="{514EE229-7928-4872-9D12-495AF1767B7B}"/>
     <hyperlink ref="G369" r:id="rId88" display="705" xr:uid="{E8218822-BCA8-4F26-A683-B0ED923D72FC}"/>
+    <hyperlink ref="G374" r:id="rId89" display="119" xr:uid="{91E58635-971E-480D-9321-24DC83443863}"/>
+    <hyperlink ref="G375" r:id="rId90" display="119" xr:uid="{F06861C8-074E-4990-9924-019783AE0109}"/>
+    <hyperlink ref="G376" r:id="rId91" display="93" xr:uid="{8FE0E60A-89AC-4903-A028-EF9204D0BEC4}"/>
+    <hyperlink ref="G377" r:id="rId92" display="93" xr:uid="{F2298C16-D800-4326-83CF-7ED6B35DAF38}"/>
+    <hyperlink ref="G378" r:id="rId93" display="517" xr:uid="{36BFE522-E7B5-4E7D-9F2F-1A2264820DA8}"/>
+    <hyperlink ref="G379" r:id="rId94" display="517" xr:uid="{854583B8-0A76-440E-AD32-83CC93E6E78C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId89"/>
+  <drawing r:id="rId95"/>
 </worksheet>
 </file>
 
@@ -29130,9 +29494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF582C36-6AED-433D-BA75-169649376AF6}">
   <dimension ref="B2:J145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39:F39"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -29152,22 +29516,22 @@
   <sheetData>
     <row r="2" spans="2:10" ht="17.25">
       <c r="B2" s="36" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75">
@@ -29178,7 +29542,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="35">
         <f t="shared" ref="G3:G123" si="0">G4+F3</f>
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15">
@@ -29189,10 +29553,10 @@
       <c r="F4" s="47"/>
       <c r="G4" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J4">
         <f>SUMIFS(F3:F30077,D3:D30077, "*JAL国内線*")</f>
@@ -29207,10 +29571,10 @@
       <c r="F5" s="47"/>
       <c r="G5" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J5">
         <f>SUMIFS(F3:F30077,D3:D30077, "*JAL国際線*")</f>
@@ -29225,10 +29589,10 @@
       <c r="F6" s="47"/>
       <c r="G6" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J6">
         <f>SUMIFS(F3:F30077,D3:D30077, "*JALカード*")</f>
@@ -29243,10 +29607,10 @@
       <c r="F7" s="47"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J7">
         <f>SUMIFS(F3:F30077,D3:D30077, "*JALモバイル*")</f>
@@ -29261,10 +29625,10 @@
       <c r="F8" s="47"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J8">
         <f>SUMIFS(F3:F30077,D3:D30077, "*JAL Wellness &amp; Travel*")</f>
@@ -29279,14 +29643,14 @@
       <c r="F9" s="47"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J9">
         <f>SUMIFS(F3:F30077,D3:D30077, "*JALマイレージパーク*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15">
@@ -29297,10 +29661,10 @@
       <c r="F10" s="47"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J10">
         <f>SUMIFS(F3:F30077,D3:D30077, "*その他*")</f>
@@ -29315,14 +29679,14 @@
       <c r="F11" s="47"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J11">
         <f>SUM(J4:J10)</f>
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15">
@@ -29333,7 +29697,7 @@
       <c r="F12" s="47"/>
       <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I12" s="32"/>
     </row>
@@ -29345,7 +29709,7 @@
       <c r="F13" s="47"/>
       <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I13" s="32"/>
     </row>
@@ -29357,7 +29721,7 @@
       <c r="F14" s="47"/>
       <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I14" s="32"/>
     </row>
@@ -29369,7 +29733,7 @@
       <c r="F15" s="47"/>
       <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I15" s="32"/>
     </row>
@@ -29381,7 +29745,7 @@
       <c r="F16" s="47"/>
       <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I16" s="32"/>
     </row>
@@ -29393,7 +29757,7 @@
       <c r="F17" s="47"/>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I17" s="32"/>
     </row>
@@ -29405,7 +29769,7 @@
       <c r="F18" s="47"/>
       <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -29417,7 +29781,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I19" s="32"/>
     </row>
@@ -29429,7 +29793,7 @@
       <c r="F20" s="47"/>
       <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I20" s="32"/>
     </row>
@@ -29441,7 +29805,7 @@
       <c r="F21" s="47"/>
       <c r="G21" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I21" s="32"/>
     </row>
@@ -29453,7 +29817,7 @@
       <c r="F22" s="47"/>
       <c r="G22" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I22" s="32"/>
     </row>
@@ -29465,7 +29829,7 @@
       <c r="F23" s="47"/>
       <c r="G23" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I23" s="32"/>
     </row>
@@ -29477,7 +29841,7 @@
       <c r="F24" s="47"/>
       <c r="G24" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I24" s="32"/>
     </row>
@@ -29489,7 +29853,7 @@
       <c r="F25" s="47"/>
       <c r="G25" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I25" s="32"/>
     </row>
@@ -29501,7 +29865,7 @@
       <c r="F26" s="47"/>
       <c r="G26" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I26" s="32"/>
     </row>
@@ -29513,7 +29877,7 @@
       <c r="F27" s="47"/>
       <c r="G27" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I27" s="32"/>
     </row>
@@ -29525,7 +29889,7 @@
       <c r="F28" s="47"/>
       <c r="G28" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I28" s="32"/>
     </row>
@@ -29537,7 +29901,7 @@
       <c r="F29" s="47"/>
       <c r="G29" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I29" s="32"/>
     </row>
@@ -29549,7 +29913,7 @@
       <c r="F30" s="47"/>
       <c r="G30" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I30" s="32"/>
     </row>
@@ -29561,7 +29925,7 @@
       <c r="F31" s="47"/>
       <c r="G31" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I31" s="32"/>
     </row>
@@ -29573,7 +29937,7 @@
       <c r="F32" s="47"/>
       <c r="G32" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I32" s="32"/>
     </row>
@@ -29585,7 +29949,7 @@
       <c r="F33" s="47"/>
       <c r="G33" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I33" s="32"/>
     </row>
@@ -29597,7 +29961,7 @@
       <c r="F34" s="47"/>
       <c r="G34" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I34" s="32"/>
     </row>
@@ -29609,7 +29973,7 @@
       <c r="F35" s="47"/>
       <c r="G35" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I35" s="32"/>
     </row>
@@ -29621,7 +29985,7 @@
       <c r="F36" s="47"/>
       <c r="G36" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I36" s="32"/>
     </row>
@@ -29633,7 +29997,7 @@
       <c r="F37" s="47"/>
       <c r="G37" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I37" s="32"/>
     </row>
@@ -29645,19 +30009,29 @@
       <c r="F38" s="47"/>
       <c r="G38" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="2:10" ht="15">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+    <row r="39" spans="2:10" ht="17.25">
+      <c r="B39" s="46">
+        <v>46047</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="47">
+        <v>2</v>
+      </c>
       <c r="G39" s="35">
         <f t="shared" si="0"/>
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I39" s="32"/>
     </row>
@@ -29666,13 +30040,13 @@
         <v>46044</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F40" s="47">
         <v>10</v>
@@ -29688,13 +30062,13 @@
         <v>46041</v>
       </c>
       <c r="C41" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="E41" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F41" s="47">
         <v>1</v>
@@ -29710,13 +30084,13 @@
         <v>46040</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F42" s="47">
         <v>5</v>
@@ -29732,13 +30106,13 @@
         <v>46039</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F43" s="47">
         <v>5</v>
@@ -29754,13 +30128,13 @@
         <v>46037</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F44" s="47">
         <v>1</v>
@@ -29776,13 +30150,13 @@
         <v>46035</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F45" s="47">
         <v>40</v>
@@ -29798,13 +30172,13 @@
         <v>46034</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F46" s="47">
         <v>20</v>
@@ -29820,13 +30194,13 @@
         <v>46033</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F47" s="47">
         <v>30</v>
@@ -29837,7 +30211,7 @@
       </c>
       <c r="J47">
         <f>SUM(J4:J11)</f>
-        <v>1586</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17.25">
@@ -29845,13 +30219,13 @@
         <v>46033</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F48" s="47">
         <v>40</v>
@@ -29866,13 +30240,13 @@
         <v>46032</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F49" s="47">
         <v>10</v>
@@ -29887,13 +30261,13 @@
         <v>46030</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F50" s="47">
         <v>5</v>
@@ -29908,13 +30282,13 @@
         <v>46016</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F51" s="47">
         <v>5</v>
@@ -29929,13 +30303,13 @@
         <v>46014</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F52" s="47">
         <v>5</v>
@@ -29950,13 +30324,13 @@
         <v>46012</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F53" s="47">
         <v>1</v>
@@ -29971,13 +30345,13 @@
         <v>46012</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F54" s="47">
         <v>5</v>
@@ -29992,13 +30366,13 @@
         <v>46011</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F55" s="47">
         <v>5</v>
@@ -30013,13 +30387,13 @@
         <v>46008</v>
       </c>
       <c r="C56" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="E56" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F56" s="47">
         <v>1</v>
@@ -30034,13 +30408,13 @@
         <v>46006</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F57" s="47">
         <v>1</v>
@@ -30055,13 +30429,13 @@
         <v>46002</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F58" s="47">
         <v>10</v>
@@ -30076,13 +30450,13 @@
         <v>45996</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F59" s="47">
         <v>45</v>
@@ -30097,13 +30471,13 @@
         <v>45995</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F60" s="47">
         <v>5</v>
@@ -30118,13 +30492,13 @@
         <v>45994</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F61" s="47">
         <v>5</v>
@@ -30139,13 +30513,13 @@
         <v>45990</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F62" s="47">
         <v>5</v>
@@ -30160,13 +30534,13 @@
         <v>45989</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F63" s="47">
         <v>5</v>
@@ -30181,13 +30555,13 @@
         <v>45988</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F64" s="47">
         <v>18</v>
@@ -30202,13 +30576,13 @@
         <v>45988</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F65" s="47">
         <v>5</v>
@@ -30223,13 +30597,13 @@
         <v>45987</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F66" s="47">
         <v>5</v>
@@ -30244,13 +30618,13 @@
         <v>45985</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F67" s="47">
         <v>5</v>
@@ -30265,13 +30639,13 @@
         <v>45983</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F68" s="47">
         <v>5</v>
@@ -30286,13 +30660,13 @@
         <v>45982</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E69" s="47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F69" s="47">
         <v>1</v>
@@ -30307,13 +30681,13 @@
         <v>45978</v>
       </c>
       <c r="C70" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="E70" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F70" s="47">
         <v>1</v>
@@ -30328,13 +30702,13 @@
         <v>45976</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E71" s="47" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F71" s="47">
         <v>1</v>
@@ -30349,13 +30723,13 @@
         <v>45972</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E72" s="47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F72" s="47">
         <v>20</v>
@@ -30370,13 +30744,13 @@
         <v>45960</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E73" s="47" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F73" s="47">
         <v>10</v>
@@ -30391,13 +30765,13 @@
         <v>45956</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F74" s="47">
         <v>5</v>
@@ -30412,13 +30786,13 @@
         <v>45955</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F75" s="47">
         <v>5</v>
@@ -30433,13 +30807,13 @@
         <v>45953</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E76" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F76" s="47">
         <v>5</v>
@@ -30454,13 +30828,13 @@
         <v>45952</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F77" s="47">
         <v>1</v>
@@ -30475,13 +30849,13 @@
         <v>45951</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F78" s="47">
         <v>10</v>
@@ -30496,13 +30870,13 @@
         <v>45947</v>
       </c>
       <c r="C79" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="E79" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F79" s="47">
         <v>1</v>
@@ -30517,13 +30891,13 @@
         <v>45945</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F80" s="47">
         <v>1</v>
@@ -30538,13 +30912,13 @@
         <v>45943</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F81" s="47">
         <v>5</v>
@@ -30559,13 +30933,13 @@
         <v>45941</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E82" s="47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F82" s="47">
         <v>15</v>
@@ -30580,13 +30954,13 @@
         <v>45941</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E83" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F83" s="47">
         <v>5</v>
@@ -30601,13 +30975,13 @@
         <v>45937</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D84" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E84" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F84" s="47">
         <v>35</v>
@@ -30622,13 +30996,13 @@
         <v>45936</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E85" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F85" s="47">
         <v>5</v>
@@ -30643,13 +31017,13 @@
         <v>45934</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F86" s="47">
         <v>5</v>
@@ -30664,13 +31038,13 @@
         <v>45930</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E87" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F87" s="47">
         <v>45</v>
@@ -30685,13 +31059,13 @@
         <v>45929</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F88" s="47">
         <v>45</v>
@@ -30706,13 +31080,13 @@
         <v>45928</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E89" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F89" s="47">
         <v>35</v>
@@ -30727,13 +31101,13 @@
         <v>45919</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E90" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F90" s="47">
         <v>5</v>
@@ -30748,13 +31122,13 @@
         <v>45917</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E91" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F91" s="47">
         <v>5</v>
@@ -30769,13 +31143,13 @@
         <v>45916</v>
       </c>
       <c r="C92" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="E92" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F92" s="47">
         <v>1</v>
@@ -30790,13 +31164,13 @@
         <v>45915</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F93" s="47">
         <v>1</v>
@@ -30811,13 +31185,13 @@
         <v>45911</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F94" s="47">
         <v>5</v>
@@ -30832,13 +31206,13 @@
         <v>45905</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E95" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F95" s="47">
         <v>5</v>
@@ -30853,13 +31227,13 @@
         <v>45903</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E96" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F96" s="47">
         <v>5</v>
@@ -30874,13 +31248,13 @@
         <v>45893</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F97" s="47">
         <v>5</v>
@@ -30895,13 +31269,13 @@
         <v>45892</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F98" s="47">
         <v>5</v>
@@ -30916,13 +31290,13 @@
         <v>45888</v>
       </c>
       <c r="C99" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D99" s="47" t="s">
-        <v>163</v>
-      </c>
       <c r="E99" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F99" s="47">
         <v>1</v>
@@ -30937,13 +31311,13 @@
         <v>45884</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D100" s="47" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E100" s="47" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F100" s="47">
         <v>1</v>
@@ -30958,13 +31332,13 @@
         <v>45877</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E101" s="47" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F101" s="47">
         <v>10</v>
@@ -30979,13 +31353,13 @@
         <v>45874</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F102" s="34">
         <v>5</v>
@@ -31000,13 +31374,13 @@
         <v>45873</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F103" s="34">
         <v>5</v>
@@ -31021,13 +31395,13 @@
         <v>45867</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F104" s="34">
         <v>5</v>
@@ -31042,13 +31416,13 @@
         <v>45862</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F105" s="34">
         <v>5</v>
@@ -31063,13 +31437,13 @@
         <v>45838</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D106" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F106" s="34">
         <v>5</v>
@@ -31084,13 +31458,13 @@
         <v>45836</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F107" s="34">
         <v>5</v>
@@ -31105,13 +31479,13 @@
         <v>45789</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F108" s="34">
         <v>5</v>
@@ -31126,13 +31500,13 @@
         <v>45786</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F109" s="34">
         <v>5</v>
@@ -31147,13 +31521,13 @@
         <v>45729</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F110" s="34">
         <v>10</v>
@@ -31168,13 +31542,13 @@
         <v>45684</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F111" s="34">
         <v>5</v>
@@ -31189,13 +31563,13 @@
         <v>45682</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F112" s="34">
         <v>5</v>
@@ -31210,13 +31584,13 @@
         <v>45652</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F113" s="34">
         <v>5</v>
@@ -31231,13 +31605,13 @@
         <v>45649</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F114" s="34">
         <v>5</v>
@@ -31252,13 +31626,13 @@
         <v>45648</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D115" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F115" s="34">
         <v>5</v>
@@ -31273,13 +31647,13 @@
         <v>45614</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F116" s="34">
         <v>5</v>
@@ -31294,13 +31668,13 @@
         <v>45613</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F117" s="34">
         <v>5</v>
@@ -31315,13 +31689,13 @@
         <v>45592</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F118" s="34">
         <v>5</v>
@@ -31336,13 +31710,13 @@
         <v>45591</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F119" s="34">
         <v>5</v>
@@ -31357,13 +31731,13 @@
         <v>45514</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F120" s="34">
         <v>5</v>
@@ -31378,13 +31752,13 @@
         <v>45513</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F121" s="34">
         <v>5</v>
@@ -31399,13 +31773,13 @@
         <v>45335</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F122" s="34">
         <v>20</v>
@@ -31420,13 +31794,13 @@
         <v>45334</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F123" s="34">
         <v>20</v>
@@ -31441,13 +31815,13 @@
         <v>45291</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F124" s="34">
         <v>30</v>
@@ -31462,13 +31836,13 @@
         <v>45291</v>
       </c>
       <c r="C125" s="71" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D125" s="71" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E125" s="71" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F125" s="71">
         <v>10</v>
@@ -31653,8 +32027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EF3C4E-F452-4BBC-81DB-9BE6F59D48AA}">
   <dimension ref="A1:M333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="Q139" sqref="Q139"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31665,43 +32039,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1">
@@ -31712,32 +32086,32 @@
         <v>45926</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D2" s="12">
         <v>305</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F2" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H2" s="13">
         <v>0.375</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="23">
         <v>13320</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M2" s="66"/>
     </row>
@@ -31749,32 +32123,32 @@
         <v>45926</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D3" s="12">
         <v>3563</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F3" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H3" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="23">
         <v>12963</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M3" s="16"/>
     </row>
@@ -31786,32 +32160,32 @@
         <v>45926</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D4" s="12">
         <v>3564</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F4" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H4" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="23">
         <v>12963</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M4" s="16"/>
     </row>
@@ -31823,32 +32197,32 @@
         <v>45926</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D5" s="12">
         <v>3629</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F5" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H5" s="13">
         <v>0.57986111111111116</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="23">
         <v>6171</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M5" s="16"/>
     </row>
@@ -31860,32 +32234,32 @@
         <v>45926</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D6" s="12">
         <v>3630</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F6" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H6" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="23">
         <v>9410</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M6" s="16"/>
     </row>
@@ -31897,32 +32271,32 @@
         <v>45926</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D7" s="24">
         <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F7" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H7" s="13">
         <v>0.73263888888888884</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="23">
         <v>10591</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M7" s="16"/>
     </row>
@@ -31934,32 +32308,32 @@
         <v>45926</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D8" s="24">
         <v>60</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F8" s="13">
         <v>0.76736111111111116</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H8" s="13">
         <v>0.84027777777777779</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="23">
         <v>16965</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M8" s="16"/>
     </row>
@@ -31971,32 +32345,32 @@
         <v>45927</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D9" s="12">
         <v>51</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F9" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H9" s="13">
         <v>0.36805555555555558</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="23">
         <v>16965</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M9" s="16"/>
     </row>
@@ -32008,32 +32382,32 @@
         <v>45927</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D10" s="12">
         <v>605</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F10" s="13">
         <v>0.39930555555555558</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H10" s="13">
         <v>0.44097222222222221</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="23">
         <v>6180</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M10" s="16"/>
     </row>
@@ -32045,32 +32419,32 @@
         <v>45927</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D11" s="12">
         <v>743</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F11" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H11" s="13">
         <v>0.54513888888888884</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="23">
         <v>6583</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M11" s="16"/>
     </row>
@@ -32082,32 +32456,32 @@
         <v>45927</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D12" s="12">
         <v>744</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F12" s="13">
         <v>0.56597222222222221</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H12" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="23">
         <v>6583</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M12" s="16"/>
     </row>
@@ -32119,32 +32493,32 @@
         <v>45927</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D13" s="12">
         <v>834</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F13" s="13">
         <v>0.61111111111111116</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H13" s="13">
         <v>0.63194444444444442</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="23">
         <v>9020</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M13" s="16"/>
     </row>
@@ -32156,32 +32530,32 @@
         <v>45927</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D14" s="12">
         <v>897</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F14" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H14" s="13">
         <v>0.67013888888888884</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="23">
         <v>5434</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M14" s="16"/>
     </row>
@@ -32193,32 +32567,32 @@
         <v>45927</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D15" s="12">
         <v>898</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F15" s="13">
         <v>0.69444444444444442</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H15" s="13">
         <v>0.71180555555555558</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="23">
         <v>5434</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M15" s="16"/>
     </row>
@@ -32230,32 +32604,32 @@
         <v>45927</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D16" s="12">
         <v>566</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F16" s="13">
         <v>0.74652777777777779</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H16" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="23">
         <v>6290</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -32267,32 +32641,32 @@
         <v>45927</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D17" s="12">
         <v>62</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F17" s="13">
         <v>0.81597222222222221</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H17" s="13">
         <v>0.89236111111111116</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="23">
         <v>10591</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -32304,32 +32678,32 @@
         <v>45928</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D18" s="12">
         <v>3681</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F18" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H18" s="13">
         <v>0.34375</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="23">
         <v>13860</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -32341,32 +32715,32 @@
         <v>45928</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D19" s="12">
         <v>3831</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F19" s="13">
         <v>0.3923611111111111</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H19" s="13">
         <v>0.40625</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="23">
         <v>5989</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -32378,32 +32752,32 @@
         <v>45928</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D20" s="12">
         <v>3830</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F20" s="13">
         <v>0.42708333333333331</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H20" s="13">
         <v>0.44097222222222221</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="23">
         <v>5989</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M20" s="16"/>
     </row>
@@ -32415,32 +32789,32 @@
         <v>45928</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D21" s="12">
         <v>3841</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F21" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H21" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="23">
         <v>10450</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M21" s="16"/>
     </row>
@@ -32452,32 +32826,32 @@
         <v>45928</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D22" s="12">
         <v>3711</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F22" s="13">
         <v>0.5</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H22" s="13">
         <v>0.51736111111111116</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="23">
         <v>8580</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M22" s="16"/>
     </row>
@@ -32489,32 +32863,32 @@
         <v>45928</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D23" s="12">
         <v>3716</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F23" s="13">
         <v>0.53819444444444442</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H23" s="13">
         <v>0.57291666666666663</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="23">
         <v>15310</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M23" s="16"/>
     </row>
@@ -32526,32 +32900,32 @@
         <v>45928</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D24" s="12">
         <v>617</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F24" s="13">
         <v>0.61458333333333337</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H24" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="23">
         <v>5883</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M24" s="16"/>
     </row>
@@ -32563,32 +32937,32 @@
         <v>45928</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D25" s="12">
         <v>622</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F25" s="13">
         <v>0.68402777777777779</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H25" s="13">
         <v>0.72569444444444442</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="23">
         <v>5883</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M25" s="16"/>
     </row>
@@ -32600,32 +32974,32 @@
         <v>45928</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D26" s="12">
         <v>918</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F26" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H26" s="13">
         <v>0.88888888888888884</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="23">
         <v>22580</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M26" s="16"/>
     </row>
@@ -32637,19 +33011,19 @@
         <v>45934</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D27" s="12">
         <v>333</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F27" s="13">
         <v>0.80208333333333337</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H27" s="13">
         <v>0.88194444444444442</v>
@@ -32660,7 +33034,7 @@
         <v>13320</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M27" s="16"/>
     </row>
@@ -32672,32 +33046,32 @@
         <v>45935</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D28" s="12">
         <v>51</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F28" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H28" s="13">
         <v>0.37152777777777779</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="23">
         <v>11130</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M28" s="16"/>
     </row>
@@ -32709,32 +33083,32 @@
         <v>45935</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D29" s="12">
         <v>605</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F29" s="13">
         <v>0.40277777777777779</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H29" s="13">
         <v>0.44444444444444442</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="23">
         <v>6180</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M29" s="16"/>
     </row>
@@ -32746,32 +33120,32 @@
         <v>45935</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D30" s="12">
         <v>743</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F30" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H30" s="13">
         <v>0.54513888888888884</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="23">
         <v>6583</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M30" s="16"/>
     </row>
@@ -32783,32 +33157,32 @@
         <v>45935</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D31" s="12">
         <v>744</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F31" s="13">
         <v>0.56944444444444442</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H31" s="13">
         <v>0.59027777777777779</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="23">
         <v>5883</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M31" s="16"/>
     </row>
@@ -32820,32 +33194,32 @@
         <v>45935</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D32" s="12">
         <v>834</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F32" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H32" s="13">
         <v>0.63888888888888884</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="23">
         <v>9570</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M32" s="16"/>
     </row>
@@ -32857,32 +33231,32 @@
         <v>45935</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D33" s="12">
         <v>564</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F33" s="13">
         <v>0.70486111111111116</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H33" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="23">
         <v>6290</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M33" s="16"/>
     </row>
@@ -32894,32 +33268,32 @@
         <v>45935</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D34" s="12">
         <v>920</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F34" s="13">
         <v>0.81944444444444442</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H34" s="13">
         <v>0.91666666666666663</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="23">
         <v>22030</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M34" s="16"/>
     </row>
@@ -32931,19 +33305,19 @@
         <v>45890</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D35" s="12">
         <v>487</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F35" s="13">
         <v>0.84375</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H35" s="13">
         <v>0.89583333333333337</v>
@@ -32954,7 +33328,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M35" s="16"/>
     </row>
@@ -32966,19 +33340,19 @@
         <v>45891</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D36" s="12">
         <v>482</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F36" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H36" s="13">
         <v>0.69791666666666663</v>
@@ -32989,7 +33363,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M36" s="16"/>
     </row>
@@ -33001,19 +33375,19 @@
         <v>45902</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D37" s="12">
         <v>317</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F37" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H37" s="13">
         <v>0.57638888888888884</v>
@@ -33024,7 +33398,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M37" s="16"/>
     </row>
@@ -33036,19 +33410,19 @@
         <v>45903</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D38" s="12">
         <v>300</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F38" s="13">
         <v>0.29166666666666669</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H38" s="13">
         <v>0.3611111111111111</v>
@@ -33059,7 +33433,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M38" s="16"/>
     </row>
@@ -33071,19 +33445,19 @@
         <v>45949</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D39" s="12">
         <v>491</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F39" s="13">
         <v>0.3125</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H39" s="13">
         <v>0.375</v>
@@ -33094,7 +33468,7 @@
         <v>20700</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M39" s="16"/>
     </row>
@@ -33106,19 +33480,19 @@
         <v>45949</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D40" s="12">
         <v>492</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F40" s="13">
         <v>0.40277777777777779</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H40" s="13">
         <v>0.45833333333333331</v>
@@ -33129,7 +33503,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M40" s="16"/>
     </row>
@@ -33141,17 +33515,17 @@
         <v>45589</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D41" s="12">
         <v>319</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="27"/>
@@ -33160,7 +33534,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M41" s="16"/>
     </row>
@@ -33172,17 +33546,17 @@
         <v>45590</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D42" s="12">
         <v>318</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="27"/>
@@ -33191,7 +33565,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M42" s="16"/>
     </row>
@@ -33203,17 +33577,17 @@
         <v>45611</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D43" s="12">
         <v>434</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="27"/>
@@ -33222,7 +33596,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M43" s="16"/>
     </row>
@@ -33234,17 +33608,17 @@
         <v>45612</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D44" s="12">
         <v>431</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="27"/>
@@ -33253,7 +33627,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M44" s="16"/>
     </row>
@@ -33265,17 +33639,17 @@
         <v>45650</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D45" s="12">
         <v>335</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="27"/>
@@ -33284,7 +33658,7 @@
         <v>17640</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M45" s="16"/>
     </row>
@@ -33296,17 +33670,17 @@
         <v>45646</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D46" s="12">
         <v>431</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="27"/>
@@ -33315,7 +33689,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M46" s="16"/>
     </row>
@@ -33327,17 +33701,17 @@
         <v>45647</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D47" s="12">
         <v>432</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="27"/>
@@ -33346,7 +33720,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M47" s="16"/>
     </row>
@@ -33358,17 +33732,17 @@
         <v>45680</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D48" s="12">
         <v>307</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="27"/>
@@ -33377,7 +33751,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M48" s="16"/>
     </row>
@@ -33389,17 +33763,17 @@
         <v>45682</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D49" s="12">
         <v>306</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="27"/>
@@ -33408,7 +33782,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M49" s="16"/>
     </row>
@@ -33420,17 +33794,17 @@
         <v>45727</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D50" s="12">
         <v>330</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="27"/>
@@ -33439,7 +33813,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M50" s="16"/>
     </row>
@@ -33451,17 +33825,17 @@
         <v>45727</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D51" s="12">
         <v>305</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="27"/>
@@ -33470,7 +33844,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M51" s="16"/>
     </row>
@@ -33482,17 +33856,17 @@
         <v>45860</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D52" s="12">
         <v>307</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="27"/>
@@ -33501,7 +33875,7 @@
         <v>13320</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M52" s="16"/>
     </row>
@@ -33513,17 +33887,17 @@
         <v>45865</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D53" s="12">
         <v>300</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="27"/>
@@ -33532,7 +33906,7 @@
         <v>13320</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M53" s="16"/>
     </row>
@@ -33544,17 +33918,17 @@
         <v>45871</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D54" s="12">
         <v>307</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="27"/>
@@ -33563,7 +33937,7 @@
         <v>22845</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M54" s="16"/>
     </row>
@@ -33575,17 +33949,17 @@
         <v>45872</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D55" s="12">
         <v>300</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="27"/>
@@ -33594,7 +33968,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M55" s="16"/>
     </row>
@@ -33606,17 +33980,17 @@
         <v>45875</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D56" s="12">
         <v>307</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="12" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="27"/>
@@ -33625,7 +33999,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M56" s="16"/>
     </row>
@@ -33637,17 +34011,17 @@
         <v>45875</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D57" s="12">
         <v>300</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="27"/>
@@ -33656,7 +34030,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M57" s="16"/>
     </row>
@@ -33668,17 +34042,17 @@
         <v>45916</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D58" s="12">
         <v>307</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="27"/>
@@ -33687,7 +34061,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M58" s="16"/>
     </row>
@@ -33699,17 +34073,17 @@
         <v>45918</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D59" s="12">
         <v>302</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="27"/>
@@ -33718,7 +34092,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M59" s="16"/>
     </row>
@@ -33730,19 +34104,19 @@
         <v>45994</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D60" s="12">
         <v>901</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F60" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H60" s="13">
         <v>0.38541666666666669</v>
@@ -33753,7 +34127,7 @@
         <v>10590</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M60" s="16"/>
     </row>
@@ -33765,19 +34139,19 @@
         <v>45994</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F61" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H61" s="13">
         <v>0.43402777777777779</v>
@@ -33788,7 +34162,7 @@
         <v>4640</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M61" s="16"/>
     </row>
@@ -33800,19 +34174,19 @@
         <v>45994</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F62" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H62" s="13">
         <v>0.47916666666666669</v>
@@ -33823,7 +34197,7 @@
         <v>6400</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M62" s="16"/>
     </row>
@@ -33835,19 +34209,19 @@
         <v>45994</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F63" s="13">
         <v>0.52777777777777779</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H63" s="13">
         <v>0.57291666666666663</v>
@@ -33858,7 +34232,7 @@
         <v>4640</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M63" s="16"/>
     </row>
@@ -33870,19 +34244,19 @@
         <v>45994</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F64" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H64" s="13">
         <v>0.63888888888888884</v>
@@ -33893,7 +34267,7 @@
         <v>4400</v>
       </c>
       <c r="L64" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M64" s="16"/>
     </row>
@@ -33905,19 +34279,19 @@
         <v>45994</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F65" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H65" s="13">
         <v>0.67708333333333337</v>
@@ -33928,7 +34302,7 @@
         <v>5500</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M65" s="16"/>
     </row>
@@ -33940,19 +34314,19 @@
         <v>45994</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F66" s="13">
         <v>0.70138888888888884</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H66" s="13">
         <v>0.71875</v>
@@ -33963,7 +34337,7 @@
         <v>5500</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M66" s="16"/>
     </row>
@@ -33975,19 +34349,19 @@
         <v>45994</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F67" s="13">
         <v>0.76041666666666663</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H67" s="13">
         <v>0.79513888888888884</v>
@@ -33998,7 +34372,7 @@
         <v>4640</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M67" s="16"/>
     </row>
@@ -34010,19 +34384,19 @@
         <v>45994</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D68" s="12">
         <v>920</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F68" s="13">
         <v>0.82986111111111116</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H68" s="13">
         <v>0.92013888888888884</v>
@@ -34033,7 +34407,7 @@
         <v>10590</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M68" s="16"/>
     </row>
@@ -34045,17 +34419,17 @@
         <v>45939</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D69" s="12">
         <v>325</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="27"/>
@@ -34064,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M69" s="16"/>
     </row>
@@ -34076,17 +34450,17 @@
         <v>45941</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D70" s="12">
         <v>310</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="27"/>
@@ -34095,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M70" s="16"/>
     </row>
@@ -34107,19 +34481,19 @@
         <v>46052</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D71" s="12">
         <v>325</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F71" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H71" s="13">
         <v>0.38541666666666669</v>
@@ -34141,19 +34515,19 @@
         <v>46054</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D72" s="12">
         <v>310</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F72" s="13">
         <v>0.51736111111111116</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H72" s="13">
         <v>0.60763888888888884</v>
@@ -34174,15 +34548,15 @@
         <v>45932</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="27"/>
@@ -34191,7 +34565,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M73" s="16"/>
     </row>
@@ -34203,15 +34577,15 @@
         <v>45951</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="27"/>
@@ -34220,7 +34594,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M74" s="16"/>
     </row>
@@ -34232,15 +34606,15 @@
         <v>45953</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="27"/>
@@ -34249,7 +34623,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M75" s="16"/>
     </row>
@@ -34261,15 +34635,15 @@
         <v>45953</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="27"/>
@@ -34278,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M76" s="16"/>
     </row>
@@ -34290,17 +34664,17 @@
         <v>46030</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F77" s="13">
         <v>0.78819444444444442</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H77" s="13">
         <v>0.87847222222222221</v>
@@ -34311,7 +34685,7 @@
         <v>8810</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M77" s="16"/>
     </row>
@@ -34323,17 +34697,17 @@
         <v>46031</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F78" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H78" s="13">
         <v>0.375</v>
@@ -34344,7 +34718,7 @@
         <v>10800</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M78" s="16"/>
     </row>
@@ -34356,17 +34730,17 @@
         <v>46031</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F79" s="13">
         <v>0.40625</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H79" s="13">
         <v>0.4513888888888889</v>
@@ -34377,7 +34751,7 @@
         <v>4640</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M79" s="16"/>
     </row>
@@ -34389,17 +34763,17 @@
         <v>46031</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F80" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H80" s="13">
         <v>0.52083333333333337</v>
@@ -34410,7 +34784,7 @@
         <v>4640</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M80" s="16"/>
     </row>
@@ -34422,17 +34796,17 @@
         <v>46031</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F81" s="13">
         <v>0.58333333333333337</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H81" s="13">
         <v>0.60763888888888884</v>
@@ -34443,7 +34817,7 @@
         <v>4640</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M81" s="16"/>
     </row>
@@ -34455,17 +34829,17 @@
         <v>46031</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F82" s="13">
         <v>0.63541666666666663</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H82" s="13">
         <v>0.66319444444444442</v>
@@ -34476,7 +34850,7 @@
         <v>4640</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M82" s="16"/>
     </row>
@@ -34488,17 +34862,17 @@
         <v>46031</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F83" s="13">
         <v>0.69444444444444442</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H83" s="13">
         <v>0.73263888888888884</v>
@@ -34509,7 +34883,7 @@
         <v>4640</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M83" s="16"/>
     </row>
@@ -34521,17 +34895,17 @@
         <v>46031</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F84" s="13">
         <v>0.76041666666666663</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H84" s="13">
         <v>0.79513888888888884</v>
@@ -34542,7 +34916,7 @@
         <v>7500</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M84" s="16"/>
     </row>
@@ -34554,17 +34928,17 @@
         <v>46031</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F85" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H85" s="13">
         <v>0.89236111111111116</v>
@@ -34575,7 +34949,7 @@
         <v>8050</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M85" s="16"/>
     </row>
@@ -34587,17 +34961,17 @@
         <v>46032</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F86" s="13">
         <v>0.30555555555555558</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H86" s="13">
         <v>0.33333333333333331</v>
@@ -34608,7 +34982,7 @@
         <v>6490</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M86" s="16"/>
     </row>
@@ -34620,17 +34994,17 @@
         <v>46032</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F87" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H87" s="13">
         <v>0.58333333333333337</v>
@@ -34641,7 +35015,7 @@
         <v>6490</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M87" s="16"/>
     </row>
@@ -34653,17 +35027,17 @@
         <v>46032</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F88" s="13">
         <v>0.59722222222222221</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H88" s="13">
         <v>0.63541666666666663</v>
@@ -34674,7 +35048,7 @@
         <v>6710</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M88" s="16"/>
     </row>
@@ -34686,17 +35060,17 @@
         <v>46032</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F89" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H89" s="13">
         <v>0.70486111111111116</v>
@@ -34707,7 +35081,7 @@
         <v>6710</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M89" s="16"/>
     </row>
@@ -34719,17 +35093,17 @@
         <v>46033</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F90" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H90" s="13">
         <v>0.375</v>
@@ -34740,7 +35114,7 @@
         <v>9150</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M90" s="16"/>
     </row>
@@ -34752,17 +35126,17 @@
         <v>46033</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F91" s="13">
         <v>0.40625</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H91" s="13">
         <v>0.4513888888888889</v>
@@ -34773,7 +35147,7 @@
         <v>5740</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M91" s="16"/>
     </row>
@@ -34785,17 +35159,17 @@
         <v>46033</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F92" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H92" s="13">
         <v>0.52083333333333337</v>
@@ -34806,7 +35180,7 @@
         <v>5740</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M92" s="16"/>
     </row>
@@ -34818,17 +35192,17 @@
         <v>46033</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F93" s="13">
         <v>0.55208333333333337</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H93" s="13">
         <v>0.57986111111111116</v>
@@ -34839,7 +35213,7 @@
         <v>12340</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M93" s="16"/>
     </row>
@@ -34851,17 +35225,17 @@
         <v>46033</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F94" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H94" s="13">
         <v>0.625</v>
@@ -34872,7 +35246,7 @@
         <v>12340</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M94" s="16"/>
     </row>
@@ -34884,17 +35258,17 @@
         <v>46033</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F95" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H95" s="13">
         <v>0.67708333333333337</v>
@@ -34905,7 +35279,7 @@
         <v>10910</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M95" s="16"/>
     </row>
@@ -34917,17 +35291,17 @@
         <v>46033</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F96" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H96" s="13">
         <v>0.72222222222222221</v>
@@ -34938,7 +35312,7 @@
         <v>4640</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M96" s="16"/>
     </row>
@@ -34950,17 +35324,17 @@
         <v>46033</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F97" s="13">
         <v>0.79166666666666663</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H97" s="13">
         <v>0.88194444444444442</v>
@@ -34971,7 +35345,7 @@
         <v>10590</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M97" s="16"/>
     </row>
@@ -34983,17 +35357,17 @@
         <v>46046</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F98" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H98" s="13">
         <v>0.38541666666666669</v>
@@ -35004,7 +35378,7 @@
         <v>10590</v>
       </c>
       <c r="L98" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M98" s="16"/>
     </row>
@@ -35016,17 +35390,17 @@
         <v>46046</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F99" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H99" s="13">
         <v>0.49305555555555558</v>
@@ -35037,7 +35411,7 @@
         <v>5740</v>
       </c>
       <c r="L99" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M99" s="16"/>
     </row>
@@ -35049,17 +35423,17 @@
         <v>46046</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F100" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H100" s="13">
         <v>0.55555555555555558</v>
@@ -35070,7 +35444,7 @@
         <v>5740</v>
       </c>
       <c r="L100" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M100" s="16"/>
     </row>
@@ -35082,17 +35456,17 @@
         <v>46046</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F101" s="13">
         <v>0.59375</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H101" s="13">
         <v>0.63541666666666663</v>
@@ -35103,7 +35477,7 @@
         <v>9040</v>
       </c>
       <c r="L101" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M101" s="16"/>
     </row>
@@ -35115,17 +35489,17 @@
         <v>46046</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F102" s="13">
         <v>0.65625</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H102" s="13">
         <v>0.70138888888888884</v>
@@ -35136,7 +35510,7 @@
         <v>9040</v>
       </c>
       <c r="L102" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M102" s="16"/>
     </row>
@@ -35148,17 +35522,17 @@
         <v>46046</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F103" s="13">
         <v>0.87152777777777779</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H103" s="13">
         <v>0.96180555555555558</v>
@@ -35169,7 +35543,7 @@
         <v>10590</v>
       </c>
       <c r="L103" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M103" s="16"/>
     </row>
@@ -35181,15 +35555,15 @@
         <v>45981</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="27"/>
@@ -35198,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M104" s="16"/>
     </row>
@@ -35210,15 +35584,15 @@
         <v>45983</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="27"/>
@@ -35227,7 +35601,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M105" s="16"/>
     </row>
@@ -35239,15 +35613,15 @@
         <v>45985</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="27"/>
@@ -35256,7 +35630,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M106" s="16"/>
     </row>
@@ -35268,15 +35642,15 @@
         <v>45986</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="27"/>
@@ -35285,7 +35659,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M107" s="16"/>
     </row>
@@ -35297,15 +35671,15 @@
         <v>45987</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="27"/>
@@ -35314,7 +35688,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M108" s="16"/>
     </row>
@@ -35326,15 +35700,15 @@
         <v>45988</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="27"/>
@@ -35343,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M109" s="16"/>
     </row>
@@ -35355,15 +35729,15 @@
         <v>45992</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="27"/>
@@ -35372,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M110" s="16"/>
     </row>
@@ -35384,15 +35758,15 @@
         <v>45993</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="27"/>
@@ -35401,7 +35775,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M111" s="16"/>
     </row>
@@ -35413,19 +35787,19 @@
         <v>46059</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D112" s="12">
         <v>303</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F112" s="13">
         <v>0.2673611111111111</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H112" s="13">
         <v>0.35416666666666669</v>
@@ -35446,19 +35820,19 @@
         <v>46059</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D113" s="12">
         <v>3581</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F113" s="13">
         <v>0.37847222222222221</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H113" s="13">
         <v>0.41319444444444442</v>
@@ -35479,19 +35853,19 @@
         <v>46059</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D114" s="12">
         <v>3582</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F114" s="13">
         <v>0.43402777777777779</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H114" s="13">
         <v>0.47916666666666669</v>
@@ -35512,17 +35886,17 @@
         <v>46059</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F115" s="13">
         <v>0.49305555555555558</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H115" s="13">
         <v>0.52777777777777779</v>
@@ -35543,17 +35917,17 @@
         <v>46059</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F116" s="13">
         <v>0.54861111111111116</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H116" s="13">
         <v>0.58333333333333337</v>
@@ -35574,19 +35948,19 @@
         <v>46059</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D117" s="12">
         <v>3653</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F117" s="13">
         <v>0.59722222222222221</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H117" s="13">
         <v>0.63541666666666663</v>
@@ -35607,19 +35981,19 @@
         <v>46059</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D118" s="12">
         <v>3654</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F118" s="13">
         <v>0.66319444444444442</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H118" s="13">
         <v>0.70486111111111116</v>
@@ -35640,19 +36014,19 @@
         <v>46059</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D119" s="12">
         <v>63</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F119" s="13">
         <v>0.73263888888888884</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H119" s="13">
         <v>0.80902777777777779</v>
@@ -35673,19 +36047,19 @@
         <v>46059</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D120" s="12">
         <v>62</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F120" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H120" s="13">
         <v>0.89236111111111116</v>
@@ -35708,13 +36082,13 @@
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F121" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H121" s="13">
         <v>0.34722222222222221</v>
@@ -35735,19 +36109,19 @@
         <v>46060</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D122" s="12">
         <v>3831</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F122" s="13">
         <v>0.3923611111111111</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H122" s="13">
         <v>0.40625</v>
@@ -35768,19 +36142,19 @@
         <v>46060</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D123" s="12">
         <v>3830</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F123" s="13">
         <v>0.42708333333333331</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H123" s="13">
         <v>0.44097222222222221</v>
@@ -35803,13 +36177,13 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F124" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H124" s="13">
         <v>0.47916666666666669</v>
@@ -35832,13 +36206,13 @@
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F125" s="13">
         <v>0.5</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H125" s="13">
         <v>0.51736111111111116</v>
@@ -35861,13 +36235,13 @@
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F126" s="13">
         <v>0.53819444444444442</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H126" s="13">
         <v>0.57291666666666663</v>
@@ -35890,13 +36264,13 @@
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F127" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H127" s="13">
         <v>0.64236111111111116</v>
@@ -35919,13 +36293,13 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F128" s="13">
         <v>0.67013888888888884</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H128" s="13">
         <v>0.70486111111111116</v>
@@ -35948,13 +36322,13 @@
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F129" s="13">
         <v>0.72222222222222221</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H129" s="13">
         <v>0.74652777777777779</v>
@@ -35977,13 +36351,13 @@
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F130" s="13">
         <v>0.76736111111111116</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H130" s="13">
         <v>0.79513888888888884</v>
@@ -36004,19 +36378,19 @@
         <v>46060</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D131" s="12">
         <v>62</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F131" s="13">
         <v>0.82291666666666663</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H131" s="13">
         <v>0.89236111111111116</v>
@@ -36039,13 +36413,13 @@
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F132" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H132" s="13">
         <v>0.37847222222222221</v>
@@ -36066,19 +36440,19 @@
         <v>46061</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D133" s="12">
         <v>873</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F133" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H133" s="13">
         <v>0.43402777777777779</v>
@@ -36099,19 +36473,19 @@
         <v>46061</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D134" s="12">
         <v>874</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F134" s="13">
         <v>0.4548611111111111</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H134" s="13">
         <v>0.4826388888888889</v>
@@ -36132,19 +36506,19 @@
         <v>46061</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D135" s="12">
         <v>559</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F135" s="13">
         <v>0.50694444444444442</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H135" s="13">
         <v>0.54861111111111116</v>
@@ -36167,13 +36541,13 @@
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F136" s="13">
         <v>0.57291666666666663</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H136" s="13">
         <v>0.60763888888888884</v>
@@ -36196,13 +36570,13 @@
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F137" s="13">
         <v>0.625</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H137" s="13">
         <v>0.67013888888888884</v>
@@ -36225,13 +36599,13 @@
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F138" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H138" s="13">
         <v>0.76388888888888884</v>
@@ -36254,13 +36628,13 @@
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F139" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H139" s="13">
         <v>0.83680555555555558</v>
@@ -36283,13 +36657,13 @@
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F140" s="13">
         <v>0.87152777777777779</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H140" s="13">
         <v>0.96180555555555558</v>
@@ -36310,19 +36684,19 @@
         <v>46063</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D141" s="12">
         <v>331</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F141" s="13">
         <v>0.77777777777777779</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H141" s="13">
         <v>0.86111111111111116</v>
@@ -36343,19 +36717,19 @@
         <v>46064</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D142" s="12">
         <v>51</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F142" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H142" s="13">
         <v>0.37847222222222221</v>
@@ -36378,13 +36752,13 @@
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F143" s="13">
         <v>0.41319444444444442</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H143" s="13">
         <v>0.4548611111111111</v>
@@ -36407,13 +36781,13 @@
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F144" s="13">
         <v>0.4826388888888889</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H144" s="13">
         <v>0.52430555555555558</v>
@@ -36434,19 +36808,19 @@
         <v>46064</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D145" s="12">
         <v>727</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F145" s="13">
         <v>0.61805555555555558</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H145" s="13">
         <v>0.67708333333333337</v>
@@ -36469,13 +36843,13 @@
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F146" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H146" s="13">
         <v>0.71875</v>
@@ -36496,19 +36870,19 @@
         <v>46064</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D147" s="12">
         <v>974</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F147" s="13">
         <v>0.80902777777777779</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H147" s="13">
         <v>0.91666666666666663</v>
@@ -36529,19 +36903,19 @@
         <v>46074</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D148" s="12">
         <v>325</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F148" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H148" s="13">
         <v>0.74652777777777779</v>
@@ -36554,7 +36928,7 @@
       </c>
       <c r="L148" s="16"/>
       <c r="M148" s="16" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -36565,19 +36939,19 @@
         <v>46074</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D149" s="12">
         <v>3639</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F149" s="13">
         <v>0.80208333333333337</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H149" s="13">
         <v>0.83333333333333337</v>
@@ -36598,19 +36972,19 @@
         <v>46074</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D150" s="12">
         <v>3642</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F150" s="13">
         <v>0.85763888888888884</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H150" s="13">
         <v>0.89583333333333337</v>
@@ -36631,19 +37005,19 @@
         <v>46075</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D151" s="12">
         <v>51</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F151" s="13">
         <v>0.30208333333333331</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H151" s="13">
         <v>0.37847222222222221</v>
@@ -36666,13 +37040,13 @@
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F152" s="13">
         <v>0.44791666666666669</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H152" s="13">
         <v>0.49305555555555558</v>
@@ -36695,13 +37069,13 @@
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F153" s="13">
         <v>0.52083333333333337</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H153" s="13">
         <v>0.5625</v>
@@ -36722,19 +37096,19 @@
         <v>46075</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D154" s="12">
         <v>563</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F154" s="13">
         <v>0.60069444444444442</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H154" s="13">
         <v>0.64236111111111116</v>
@@ -36755,19 +37129,19 @@
         <v>46075</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D155" s="12">
         <v>897</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F155" s="13">
         <v>0.65972222222222221</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H155" s="13">
         <v>0.67708333333333337</v>
@@ -36788,19 +37162,19 @@
         <v>46075</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D156" s="12">
         <v>898</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F156" s="13">
         <v>0.70138888888888884</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H156" s="13">
         <v>0.71875</v>
@@ -36821,19 +37195,19 @@
         <v>46075</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D157" s="12">
         <v>839</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F157" s="13">
         <v>0.73958333333333337</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H157" s="13">
         <v>0.76041666666666663</v>
@@ -36854,19 +37228,19 @@
         <v>46075</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D158" s="12">
         <v>974</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F158" s="13">
         <v>0.80902777777777779</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H158" s="13">
         <v>0.91666666666666663</v>
@@ -36887,19 +37261,19 @@
         <v>46078</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D159" s="12">
         <v>303</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F159" s="13">
         <v>0.2673611111111111</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H159" s="13">
         <v>0.35416666666666669</v>
@@ -36920,19 +37294,19 @@
         <v>46078</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D160" s="12">
         <v>3581</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F160" s="13">
         <v>0.37847222222222221</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H160" s="13">
         <v>0.41319444444444442</v>
@@ -36953,19 +37327,19 @@
         <v>46078</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D161" s="12">
         <v>3582</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F161" s="13">
         <v>0.43402777777777779</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H161" s="13">
         <v>0.47916666666666669</v>
@@ -36986,19 +37360,19 @@
         <v>46078</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D162" s="12">
         <v>57</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F162" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H162" s="13">
         <v>0.625</v>
@@ -37019,19 +37393,19 @@
         <v>46078</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D163" s="12">
         <v>565</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F163" s="13">
         <v>0.65277777777777779</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H163" s="13">
         <v>0.69097222222222221</v>
@@ -37052,19 +37426,19 @@
         <v>46078</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D164" s="12">
         <v>564</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F164" s="13">
         <v>0.71875</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H164" s="13">
         <v>0.75347222222222221</v>
@@ -37085,19 +37459,19 @@
         <v>46078</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D165" s="12">
         <v>920</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F165" s="13">
         <v>0.82986111111111116</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H165" s="13">
         <v>0.92013888888888884</v>
@@ -37118,15 +37492,15 @@
         <v>46012</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="27"/>
@@ -37135,7 +37509,7 @@
         <v>0</v>
       </c>
       <c r="L166" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M166" s="16"/>
     </row>
@@ -37147,15 +37521,15 @@
         <v>46013</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F167" s="13"/>
       <c r="G167" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="27"/>
@@ -37164,7 +37538,7 @@
         <v>0</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M167" s="16"/>
     </row>
@@ -37176,15 +37550,15 @@
         <v>46009</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F168" s="13"/>
       <c r="G168" s="12" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="27"/>
@@ -37193,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M168" s="16"/>
     </row>
@@ -37205,15 +37579,15 @@
         <v>46010</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H169" s="13"/>
       <c r="I169" s="27"/>
@@ -37222,7 +37596,7 @@
         <v>0</v>
       </c>
       <c r="L169" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M169" s="16"/>
     </row>
@@ -37234,15 +37608,15 @@
         <v>46037</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="12" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="27"/>
@@ -37251,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M170" s="16"/>
     </row>
@@ -37263,15 +37637,15 @@
         <v>46037</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H171" s="13"/>
       <c r="I171" s="27"/>
@@ -37280,7 +37654,7 @@
         <v>0</v>
       </c>
       <c r="L171" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M171" s="16"/>
     </row>
@@ -37292,15 +37666,15 @@
         <v>46028</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H172" s="13"/>
       <c r="I172" s="27"/>
@@ -37309,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="L172" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M172" s="16"/>
     </row>
@@ -37321,15 +37695,15 @@
         <v>46030</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H173" s="13"/>
       <c r="I173" s="27"/>
@@ -37338,7 +37712,7 @@
         <v>0</v>
       </c>
       <c r="L173" s="16" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M173" s="16"/>
     </row>
@@ -37350,19 +37724,19 @@
         <v>46091</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F174" s="13">
         <v>0.2638888888888889</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H174" s="13">
         <v>0.38194444444444442</v>
@@ -37383,19 +37757,19 @@
         <v>46091</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F175" s="13">
         <v>0.40625</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H175" s="13">
         <v>0.44791666666666669</v>
@@ -37416,19 +37790,19 @@
         <v>46091</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F176" s="13">
         <v>0.52430555555555558</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H176" s="13">
         <v>0.54513888888888884</v>
@@ -37449,19 +37823,19 @@
         <v>46091</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F177" s="13">
         <v>0.56597222222222221</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H177" s="13">
         <v>0.58680555555555558</v>
@@ -37482,19 +37856,19 @@
         <v>46091</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F178" s="13">
         <v>0.61111111111111116</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H178" s="13">
         <v>0.63541666666666663</v>
@@ -37515,19 +37889,19 @@
         <v>46091</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F179" s="13">
         <v>0.65625</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H179" s="13">
         <v>0.67361111111111116</v>
@@ -37548,19 +37922,19 @@
         <v>46091</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F180" s="13">
         <v>0.69791666666666663</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H180" s="13">
         <v>0.71527777777777779</v>
@@ -37581,19 +37955,19 @@
         <v>46091</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F181" s="13">
         <v>0.73611111111111116</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H181" s="13">
         <v>0.75694444444444442</v>
@@ -37614,19 +37988,19 @@
         <v>46091</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F182" s="13">
         <v>0.78472222222222221</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H182" s="13">
         <v>0.82638888888888884</v>
@@ -37647,19 +38021,19 @@
         <v>46091</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F183" s="13">
         <v>0.86805555555555558</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H183" s="13">
         <v>0.96180555555555558</v>
@@ -37680,17 +38054,17 @@
         <v>46049</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D184" s="12"/>
       <c r="E184" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F184" s="13">
         <v>0.40277777777777779</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H184" s="13">
         <v>0.52777777777777779</v>
@@ -37711,17 +38085,17 @@
         <v>46050</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D185" s="12"/>
       <c r="E185" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F185" s="13">
         <v>0.47569444444444442</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H185" s="13">
         <v>0.56597222222222221</v>
@@ -37742,17 +38116,17 @@
         <v>46055</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D186" s="12"/>
       <c r="E186" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F186" s="13">
         <v>0.49652777777777779</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H186" s="13">
         <v>0.61805555555555558</v>
@@ -37773,17 +38147,17 @@
         <v>46057</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D187" s="12"/>
       <c r="E187" s="12" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F187" s="13">
         <v>0.47569444444444442</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H187" s="13">
         <v>0.56597222222222221</v>
@@ -37804,17 +38178,17 @@
         <v>46062</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D188" s="12"/>
       <c r="E188" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F188" s="13">
         <v>0.32291666666666669</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H188" s="13">
         <v>0.38194444444444442</v>
@@ -37835,17 +38209,17 @@
         <v>46063</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D189" s="12"/>
       <c r="E189" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F189" s="13">
         <v>0.2986111111111111</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H189" s="13">
         <v>0.35069444444444442</v>
@@ -39390,7 +39764,7 @@
     </row>
     <row r="290" spans="10:11">
       <c r="J290" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K290" s="11">
         <f>SUM(テーブル4[料金])</f>
@@ -39399,7 +39773,7 @@
     </row>
     <row r="291" spans="10:11">
       <c r="J291" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K291">
         <f>COUNTA(テーブル4[料金])*5</f>
@@ -39417,7 +39791,7 @@
     </row>
     <row r="293" spans="10:11">
       <c r="J293" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K293" s="42">
         <f>K290/K291</f>
@@ -39426,28 +39800,28 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="25" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B305" s="25" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E305" s="25" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F305" s="25" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G305" s="25" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H305" s="25" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -39455,25 +39829,25 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C306">
         <v>51</v>
       </c>
       <c r="D306" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E306" s="26">
         <v>0.2986111111111111</v>
       </c>
       <c r="F306" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G306" s="26">
         <v>0.36805555555555558</v>
       </c>
       <c r="H306" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -39481,25 +39855,25 @@
         <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C307">
         <v>873</v>
       </c>
       <c r="D307" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E307" s="26">
         <v>0.41319444444444442</v>
       </c>
       <c r="F307" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G307" s="26">
         <v>0.43402777777777779</v>
       </c>
       <c r="H307" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -39507,25 +39881,25 @@
         <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C308">
         <v>874</v>
       </c>
       <c r="D308" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E308" s="26">
         <v>0.45833333333333331</v>
       </c>
       <c r="F308" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G308" s="26">
         <v>0.4826388888888889</v>
       </c>
       <c r="H308" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -39533,25 +39907,25 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C309">
         <v>609</v>
       </c>
       <c r="D309" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E309" s="26">
         <v>0.53472222222222221</v>
       </c>
       <c r="F309" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G309" s="26">
         <v>0.57291666666666663</v>
       </c>
       <c r="H309" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -39559,25 +39933,25 @@
         <v>5</v>
       </c>
       <c r="B310" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C310">
         <v>614</v>
       </c>
       <c r="D310" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E310" s="26">
         <v>0.60069444444444442</v>
       </c>
       <c r="F310" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G310" s="26">
         <v>0.64583333333333337</v>
       </c>
       <c r="H310" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -39585,25 +39959,25 @@
         <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C311">
         <v>567</v>
       </c>
       <c r="D311" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E311" s="26">
         <v>0.67361111111111116</v>
       </c>
       <c r="F311" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G311" s="26">
         <v>0.70833333333333337</v>
       </c>
       <c r="H311" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -39611,25 +39985,25 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C312">
         <v>566</v>
       </c>
       <c r="D312" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E312" s="26">
         <v>0.73611111111111116</v>
       </c>
       <c r="F312" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G312" s="26">
         <v>0.77430555555555558</v>
       </c>
       <c r="H312" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -39637,51 +40011,51 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C313">
         <v>920</v>
       </c>
       <c r="D313" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E313" s="26">
         <v>0.80902777777777779</v>
       </c>
       <c r="F313" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G313" s="26">
         <v>0.91666666666666663</v>
       </c>
       <c r="H313" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="25" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B316" s="25" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G316" s="25" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H316" s="25" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -39689,25 +40063,25 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C317">
         <v>51</v>
       </c>
       <c r="D317" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E317" s="26">
         <v>0.2986111111111111</v>
       </c>
       <c r="F317" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G317" s="26">
         <v>0.36805555555555558</v>
       </c>
       <c r="H317" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -39715,25 +40089,25 @@
         <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C318">
         <v>605</v>
       </c>
       <c r="D318" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E318" s="26">
         <v>0.39583333333333331</v>
       </c>
       <c r="F318" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G318" s="26">
         <v>0.43402777777777779</v>
       </c>
       <c r="H318" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -39741,25 +40115,25 @@
         <v>3</v>
       </c>
       <c r="B319" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C319">
         <v>743</v>
       </c>
       <c r="D319" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E319" s="26">
         <v>0.52430555555555558</v>
       </c>
       <c r="F319" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G319" s="26">
         <v>0.54513888888888884</v>
       </c>
       <c r="H319" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -39767,25 +40141,25 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C320">
         <v>744</v>
       </c>
       <c r="D320" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E320" s="26">
         <v>0.56597222222222221</v>
       </c>
       <c r="F320" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G320" s="26">
         <v>0.58680555555555558</v>
       </c>
       <c r="H320" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -39793,25 +40167,25 @@
         <v>5</v>
       </c>
       <c r="B321" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C321">
         <v>834</v>
       </c>
       <c r="D321" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E321" s="26">
         <v>0.61111111111111116</v>
       </c>
       <c r="F321" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G321" s="26">
         <v>0.63194444444444442</v>
       </c>
       <c r="H321" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -39819,25 +40193,25 @@
         <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C322">
         <v>564</v>
       </c>
       <c r="D322" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E322" s="26">
         <v>0.69791666666666663</v>
       </c>
       <c r="F322" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G322" s="26">
         <v>0.73611111111111116</v>
       </c>
       <c r="H322" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -39845,25 +40219,25 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C323">
         <v>920</v>
       </c>
       <c r="D323" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E323" s="26">
         <v>0.80902777777777779</v>
       </c>
       <c r="F323" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G323" s="26">
         <v>0.91666666666666663</v>
       </c>
       <c r="H323" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="14.25">
@@ -39871,25 +40245,25 @@
         <v>1</v>
       </c>
       <c r="B325" s="51" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C325" s="51">
         <v>901</v>
       </c>
       <c r="D325" s="51" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E325" s="52">
         <v>0.27083333333333331</v>
       </c>
       <c r="F325" s="51" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G325" s="52">
         <v>0.375</v>
       </c>
       <c r="H325" s="53" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I325" s="54"/>
     </row>
@@ -39898,25 +40272,25 @@
         <v>2</v>
       </c>
       <c r="B326" s="56" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C326" s="56">
         <v>605</v>
       </c>
       <c r="D326" s="56" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E326" s="57">
         <v>0.39930555555555558</v>
       </c>
       <c r="F326" s="56" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G326" s="57">
         <v>0.44097222222222221</v>
       </c>
       <c r="H326" s="56" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I326" s="58"/>
     </row>
@@ -39925,25 +40299,25 @@
         <v>3</v>
       </c>
       <c r="B327" s="51" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C327" s="51">
         <v>743</v>
       </c>
       <c r="D327" s="51" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E327" s="52">
         <v>0.52430555555555558</v>
       </c>
       <c r="F327" s="51" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G327" s="52">
         <v>0.54513888888888884</v>
       </c>
       <c r="H327" s="51" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I327" s="54"/>
     </row>
@@ -39952,25 +40326,25 @@
         <v>4</v>
       </c>
       <c r="B328" s="56" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C328" s="56">
         <v>744</v>
       </c>
       <c r="D328" s="56" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E328" s="57">
         <v>0.56597222222222221</v>
       </c>
       <c r="F328" s="56" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G328" s="57">
         <v>0.58680555555555558</v>
       </c>
       <c r="H328" s="56" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I328" s="58"/>
     </row>
@@ -39979,25 +40353,25 @@
         <v>5</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C329" s="51">
         <v>834</v>
       </c>
       <c r="D329" s="51" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E329" s="52">
         <v>0.61111111111111116</v>
       </c>
       <c r="F329" s="51" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G329" s="52">
         <v>0.63194444444444442</v>
       </c>
       <c r="H329" s="51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I329" s="54"/>
     </row>
@@ -40006,25 +40380,25 @@
         <v>6</v>
       </c>
       <c r="B330" s="56" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C330" s="56">
         <v>897</v>
       </c>
       <c r="D330" s="56" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E330" s="57">
         <v>0.65277777777777779</v>
       </c>
       <c r="F330" s="56" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G330" s="57">
         <v>0.67013888888888884</v>
       </c>
       <c r="H330" s="56" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I330" s="58"/>
     </row>
@@ -40033,25 +40407,25 @@
         <v>7</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C331" s="51">
         <v>898</v>
       </c>
       <c r="D331" s="51" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E331" s="52">
         <v>0.69444444444444442</v>
       </c>
       <c r="F331" s="51" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G331" s="52">
         <v>0.71180555555555558</v>
       </c>
       <c r="H331" s="51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I331" s="54"/>
     </row>
@@ -40060,25 +40434,25 @@
         <v>8</v>
       </c>
       <c r="B332" s="56" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C332" s="56">
         <v>572</v>
       </c>
       <c r="D332" s="56" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E332" s="57">
         <v>0.74652777777777779</v>
       </c>
       <c r="F332" s="56" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G332" s="57">
         <v>0.78472222222222221</v>
       </c>
       <c r="H332" s="56" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I332" s="58"/>
     </row>
@@ -40087,25 +40461,25 @@
         <v>9</v>
       </c>
       <c r="B333" s="60" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C333" s="60">
         <v>920</v>
       </c>
       <c r="D333" s="60" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E333" s="61">
         <v>0.8125</v>
       </c>
       <c r="F333" s="60" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G333" s="61">
         <v>0.91666666666666663</v>
       </c>
       <c r="H333" s="60" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I333" s="62"/>
     </row>
